--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业利润总额.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业利润总额.xlsx
@@ -2004,7 +2004,7 @@
         <v>17.9</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.799999999999999</v>
+        <v>2.099999999999998</v>
       </c>
       <c r="AP3" t="n">
         <v>-5.7</v>
@@ -2146,7 +2146,7 @@
         <v>14.8</v>
       </c>
       <c r="CK3" t="n">
-        <v>103.7</v>
+        <v>30.2</v>
       </c>
       <c r="CL3" t="n">
         <v>416.4</v>
@@ -2450,7 +2450,7 @@
         <v>21.2</v>
       </c>
       <c r="H4" t="n">
-        <v>10.4</v>
+        <v>4.000000000000002</v>
       </c>
       <c r="I4" t="n">
         <v>37</v>
@@ -2459,7 +2459,7 @@
         <v>0.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2000000000000001</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="L4" t="n">
         <v>0.7</v>
@@ -2513,7 +2513,7 @@
         <v>16.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>36.2</v>
+        <v>32.80000000000002</v>
       </c>
       <c r="AD4" t="n">
         <v>136.8</v>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="n">
-        <v>56.59999999999999</v>
+        <v>53.20000000000001</v>
       </c>
       <c r="AS4" t="n">
         <v>202.4</v>
@@ -2581,7 +2581,7 @@
         <v>22.6</v>
       </c>
       <c r="BA4" t="n">
-        <v>44.40000000000001</v>
+        <v>36.19999999999998</v>
       </c>
       <c r="BB4" t="n">
         <v>177</v>
@@ -2626,7 +2626,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BP4" t="n">
-        <v>231.3999999999999</v>
+        <v>212.9999999999997</v>
       </c>
       <c r="BQ4" t="n">
         <v>1019</v>
@@ -2662,7 +2662,7 @@
         <v>30.3</v>
       </c>
       <c r="CB4" t="n">
-        <v>25.19999999999982</v>
+        <v>14.59999999999968</v>
       </c>
       <c r="CC4" t="n">
         <v>1005.3</v>
@@ -2770,7 +2770,7 @@
         <v>12.7</v>
       </c>
       <c r="DL4" t="n">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="DM4" t="n">
         <v>522.1</v>
@@ -2788,7 +2788,7 @@
         <v>-12.2</v>
       </c>
       <c r="DR4" t="n">
-        <v>31.49999999999989</v>
+        <v>14.59999999999974</v>
       </c>
       <c r="DS4" t="n">
         <v>1329.4</v>
@@ -2797,7 +2797,7 @@
         <v>45.2</v>
       </c>
       <c r="DU4" t="n">
-        <v>3.100000000000009</v>
+        <v>1.2</v>
       </c>
       <c r="DV4" t="n">
         <v>73</v>
@@ -2824,7 +2824,7 @@
         <v>95.40000000000001</v>
       </c>
       <c r="ED4" t="n">
-        <v>15.40000000000001</v>
+        <v>12.60000000000003</v>
       </c>
       <c r="EE4" t="n">
         <v>31.7</v>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.5</v>
+        <v>13.8999999999998</v>
       </c>
       <c r="C5" t="n">
         <v>850</v>
@@ -2984,7 +2984,7 @@
         <v>22.2</v>
       </c>
       <c r="E5" t="n">
-        <v>75.40000000000001</v>
+        <v>37.40000000000001</v>
       </c>
       <c r="F5" t="n">
         <v>260</v>
@@ -2993,7 +2993,7 @@
         <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="I5" t="n">
         <v>45.3</v>
@@ -3002,7 +3002,7 @@
         <v>-4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7</v>
+        <v>0.3999999999999997</v>
       </c>
       <c r="L5" t="n">
         <v>0.8</v>
@@ -3011,7 +3011,7 @@
         <v>-11.1</v>
       </c>
       <c r="N5" t="n">
-        <v>158.6</v>
+        <v>124.4000000000002</v>
       </c>
       <c r="O5" t="n">
         <v>876.3</v>
@@ -3020,7 +3020,7 @@
         <v>1.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>546.8000000000029</v>
+        <v>225.2000000000048</v>
       </c>
       <c r="R5" t="n">
         <v>23150.2</v>
@@ -3029,7 +3029,7 @@
         <v>13.8</v>
       </c>
       <c r="T5" t="n">
-        <v>312.0999999999999</v>
+        <v>233.8999999999999</v>
       </c>
       <c r="U5" t="n">
         <v>2363.3</v>
@@ -3047,7 +3047,7 @@
         <v>4.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>58.80000000000001</v>
+        <v>14.40000000000003</v>
       </c>
       <c r="AA5" t="n">
         <v>1231.7</v>
@@ -3065,7 +3065,7 @@
         <v>6.6</v>
       </c>
       <c r="AF5" t="n">
-        <v>25.10000000000002</v>
+        <v>20.70000000000004</v>
       </c>
       <c r="AG5" t="n">
         <v>183.3</v>
@@ -3074,7 +3074,7 @@
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>544.0999999999985</v>
+        <v>194.0999999999967</v>
       </c>
       <c r="AJ5" t="n">
         <v>27298.3</v>
@@ -3083,7 +3083,7 @@
         <v>16.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.299999999999997</v>
+        <v>4.099999999999977</v>
       </c>
       <c r="AM5" t="n">
         <v>71.3</v>
@@ -3124,7 +3124,7 @@
         <v>20.7</v>
       </c>
       <c r="BA5" t="n">
-        <v>40.40000000000001</v>
+        <v>0.1000000000000156</v>
       </c>
       <c r="BB5" t="n">
         <v>219.3</v>
@@ -3133,7 +3133,7 @@
         <v>-0.3</v>
       </c>
       <c r="BD5" t="n">
-        <v>121.6999999999999</v>
+        <v>105.8999999999999</v>
       </c>
       <c r="BE5" t="n">
         <v>565.6</v>
@@ -3142,7 +3142,7 @@
         <v>-0.8</v>
       </c>
       <c r="BG5" t="n">
-        <v>20.89999999999999</v>
+        <v>15.89999999999999</v>
       </c>
       <c r="BH5" t="n">
         <v>83.8</v>
@@ -3160,7 +3160,7 @@
         <v>0.5</v>
       </c>
       <c r="BM5" t="n">
-        <v>70.19999999999999</v>
+        <v>53.19999999999999</v>
       </c>
       <c r="BN5" t="n">
         <v>491.9</v>
@@ -3178,7 +3178,7 @@
         <v>14.8</v>
       </c>
       <c r="BS5" t="n">
-        <v>13.40000000000003</v>
+        <v>10.19999999999999</v>
       </c>
       <c r="BT5" t="n">
         <v>262.4</v>
@@ -3187,7 +3187,7 @@
         <v>23.4</v>
       </c>
       <c r="BV5" t="n">
-        <v>33.90000000000009</v>
+        <v>4.199999999999992</v>
       </c>
       <c r="BW5" t="n">
         <v>1814.6</v>
@@ -3205,7 +3205,7 @@
         <v>27.8</v>
       </c>
       <c r="CB5" t="n">
-        <v>59.80000000000018</v>
+        <v>14.70000000000061</v>
       </c>
       <c r="CC5" t="n">
         <v>1321</v>
@@ -3214,7 +3214,7 @@
         <v>1.9</v>
       </c>
       <c r="CE5" t="n">
-        <v>7.700000000000045</v>
+        <v>0.9000000000000892</v>
       </c>
       <c r="CF5" t="n">
         <v>276.2</v>
@@ -3223,7 +3223,7 @@
         <v>0.9</v>
       </c>
       <c r="CH5" t="n">
-        <v>115</v>
+        <v>111.8</v>
       </c>
       <c r="CI5" t="n">
         <v>1133.6</v>
@@ -3250,7 +3250,7 @@
         <v>-0.1</v>
       </c>
       <c r="CQ5" t="n">
-        <v>3.600000000000023</v>
+        <v>0.6000000000000791</v>
       </c>
       <c r="CR5" t="n">
         <v>395.6</v>
@@ -3259,7 +3259,7 @@
         <v>0.9</v>
       </c>
       <c r="CT5" t="n">
-        <v>364.3999999999999</v>
+        <v>92.99999999999983</v>
       </c>
       <c r="CU5" t="n">
         <v>1522.6</v>
@@ -3268,7 +3268,7 @@
         <v>4.3</v>
       </c>
       <c r="CW5" t="n">
-        <v>31.09999999999991</v>
+        <v>10.49999999999995</v>
       </c>
       <c r="CX5" t="n">
         <v>1066.4</v>
@@ -3277,7 +3277,7 @@
         <v>9.6</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.9999999999999503</v>
+        <v>0.09999999999989484</v>
       </c>
       <c r="DA5" t="n">
         <v>371.6</v>
@@ -3286,7 +3286,7 @@
         <v>16.6</v>
       </c>
       <c r="DC5" t="n">
-        <v>41.69999999999999</v>
+        <v>17.99999999999999</v>
       </c>
       <c r="DD5" t="n">
         <v>853.5</v>
@@ -3304,7 +3304,7 @@
         <v>41.6</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.4999999999999982</v>
+        <v>0.2999999999999944</v>
       </c>
       <c r="DJ5" t="n">
         <v>20.9</v>
@@ -3313,7 +3313,7 @@
         <v>25.9</v>
       </c>
       <c r="DL5" t="n">
-        <v>139.1999999999999</v>
+        <v>33.1999999999999</v>
       </c>
       <c r="DM5" t="n">
         <v>662.7</v>
@@ -3322,7 +3322,7 @@
         <v>-2.7</v>
       </c>
       <c r="DO5" t="n">
-        <v>68.80000000000001</v>
+        <v>6.800000000000011</v>
       </c>
       <c r="DP5" t="n">
         <v>217.8</v>
@@ -3331,7 +3331,7 @@
         <v>-10.1</v>
       </c>
       <c r="DR5" t="n">
-        <v>284.5999999999999</v>
+        <v>238.5000000000003</v>
       </c>
       <c r="DS5" t="n">
         <v>1775.1</v>
@@ -3340,7 +3340,7 @@
         <v>44.6</v>
       </c>
       <c r="DU5" t="n">
-        <v>4.399999999999991</v>
+        <v>0.0999999999999821</v>
       </c>
       <c r="DV5" t="n">
         <v>98.59999999999999</v>
@@ -3367,7 +3367,7 @@
         <v>114.7</v>
       </c>
       <c r="ED5" t="n">
-        <v>45.69999999999999</v>
+        <v>16.29999999999996</v>
       </c>
       <c r="EE5" t="n">
         <v>40.6</v>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.30000000000007</v>
+        <v>33.10000000000016</v>
       </c>
       <c r="C6" t="n">
         <v>1067</v>
@@ -3527,7 +3527,7 @@
         <v>19.4</v>
       </c>
       <c r="E6" t="n">
-        <v>51.80000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="F6" t="n">
         <v>349.9</v>
@@ -3545,7 +3545,7 @@
         <v>-0.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="L6" t="n">
         <v>0.9</v>
@@ -3563,7 +3563,7 @@
         <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>3748.099999999999</v>
+        <v>2976.099999999991</v>
       </c>
       <c r="R6" t="n">
         <v>28800.5</v>
@@ -3572,7 +3572,7 @@
         <v>14.3</v>
       </c>
       <c r="T6" t="n">
-        <v>305.9000000000001</v>
+        <v>32.9000000000002</v>
       </c>
       <c r="U6" t="n">
         <v>2798.7</v>
@@ -3581,7 +3581,7 @@
         <v>29.4</v>
       </c>
       <c r="W6" t="n">
-        <v>8.199999999999971</v>
+        <v>4.999999999999954</v>
       </c>
       <c r="X6" t="n">
         <v>178.1</v>
@@ -3590,7 +3590,7 @@
         <v>19.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>223</v>
+        <v>127.6</v>
       </c>
       <c r="AA6" t="n">
         <v>1585.7</v>
@@ -3599,7 +3599,7 @@
         <v>14.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>28.19999999999999</v>
+        <v>25.59999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>208.3</v>
@@ -3617,7 +3617,7 @@
         <v>-6.1</v>
       </c>
       <c r="AI6" t="n">
-        <v>4431.200000000001</v>
+        <v>3693.000000000005</v>
       </c>
       <c r="AJ6" t="n">
         <v>33882.1</v>
@@ -3626,7 +3626,7 @@
         <v>17.2</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.500000000000004</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="AM6" t="n">
         <v>88.5</v>
@@ -3651,7 +3651,7 @@
         <v>-2.9</v>
       </c>
       <c r="AU6" t="n">
-        <v>110.5</v>
+        <v>66.49999999999997</v>
       </c>
       <c r="AV6" t="n">
         <v>638.7</v>
@@ -3660,7 +3660,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AX6" t="n">
-        <v>36.40000000000001</v>
+        <v>32.00000000000006</v>
       </c>
       <c r="AY6" t="n">
         <v>260</v>
@@ -3687,7 +3687,7 @@
         <v>0.2</v>
       </c>
       <c r="BG6" t="n">
-        <v>19.00000000000002</v>
+        <v>0.6000000000000298</v>
       </c>
       <c r="BH6" t="n">
         <v>106.3</v>
@@ -3696,7 +3696,7 @@
         <v>8.4</v>
       </c>
       <c r="BJ6" t="n">
-        <v>467</v>
+        <v>438.3999999999996</v>
       </c>
       <c r="BK6" t="n">
         <v>3359.9</v>
@@ -3723,7 +3723,7 @@
         <v>18.4</v>
       </c>
       <c r="BS6" t="n">
-        <v>35.19999999999999</v>
+        <v>9.999999999999952</v>
       </c>
       <c r="BT6" t="n">
         <v>321.4</v>
@@ -3732,7 +3732,7 @@
         <v>20.8</v>
       </c>
       <c r="BV6" t="n">
-        <v>79.30000000000001</v>
+        <v>41.19999999999993</v>
       </c>
       <c r="BW6" t="n">
         <v>2227.7</v>
@@ -3741,7 +3741,7 @@
         <v>25.3</v>
       </c>
       <c r="BY6" t="n">
-        <v>78.40000000000009</v>
+        <v>29.80000000000047</v>
       </c>
       <c r="BZ6" t="n">
         <v>1799.9</v>
@@ -3750,7 +3750,7 @@
         <v>27.4</v>
       </c>
       <c r="CB6" t="n">
-        <v>262.3</v>
+        <v>167.8999999999994</v>
       </c>
       <c r="CC6" t="n">
         <v>1712.5</v>
@@ -3759,7 +3759,7 @@
         <v>2.3</v>
       </c>
       <c r="CE6" t="n">
-        <v>50.30000000000001</v>
+        <v>41.69999999999988</v>
       </c>
       <c r="CF6" t="n">
         <v>352.7</v>
@@ -3777,7 +3777,7 @@
         <v>34.3</v>
       </c>
       <c r="CK6" t="n">
-        <v>172</v>
+        <v>160.2</v>
       </c>
       <c r="CL6" t="n">
         <v>864.2</v>
@@ -3786,7 +3786,7 @@
         <v>309</v>
       </c>
       <c r="CN6" t="n">
-        <v>92.80000000000007</v>
+        <v>88.60000000000048</v>
       </c>
       <c r="CO6" t="n">
         <v>651.3</v>
@@ -3795,7 +3795,7 @@
         <v>-1.1</v>
       </c>
       <c r="CQ6" t="n">
-        <v>69.30000000000007</v>
+        <v>63.59999999999999</v>
       </c>
       <c r="CR6" t="n">
         <v>479.9</v>
@@ -3804,7 +3804,7 @@
         <v>0.8</v>
       </c>
       <c r="CT6" t="n">
-        <v>261.8000000000002</v>
+        <v>168.8000000000004</v>
       </c>
       <c r="CU6" t="n">
         <v>2046.8</v>
@@ -3813,7 +3813,7 @@
         <v>-2.3</v>
       </c>
       <c r="CW6" t="n">
-        <v>183.9000000000001</v>
+        <v>132.0000000000003</v>
       </c>
       <c r="CX6" t="n">
         <v>1314.8</v>
@@ -3822,7 +3822,7 @@
         <v>7.3</v>
       </c>
       <c r="CZ6" t="n">
-        <v>59.80000000000001</v>
+        <v>58.70000000000017</v>
       </c>
       <c r="DA6" t="n">
         <v>432.6</v>
@@ -3831,7 +3831,7 @@
         <v>13.5</v>
       </c>
       <c r="DC6" t="n">
-        <v>127.9</v>
+        <v>68.20000000000003</v>
       </c>
       <c r="DD6" t="n">
         <v>1070.2</v>
@@ -3849,7 +3849,7 @@
         <v>47.9</v>
       </c>
       <c r="DI6" t="n">
-        <v>2.099999999999998</v>
+        <v>1.200000000000004</v>
       </c>
       <c r="DJ6" t="n">
         <v>27.5</v>
@@ -3885,7 +3885,7 @@
         <v>44.1</v>
       </c>
       <c r="DU6" t="n">
-        <v>21.59999999999999</v>
+        <v>15.90000000000002</v>
       </c>
       <c r="DV6" t="n">
         <v>121.1</v>
@@ -3894,7 +3894,7 @@
         <v>-2.3</v>
       </c>
       <c r="DX6" t="n">
-        <v>79.60000000000002</v>
+        <v>79.20000000000005</v>
       </c>
       <c r="DY6" t="n">
         <v>754.4</v>
@@ -3903,7 +3903,7 @@
         <v>5.4</v>
       </c>
       <c r="EA6" t="n">
-        <v>115.2999999999999</v>
+        <v>61.49999999999989</v>
       </c>
       <c r="EB6" t="n">
         <v>1875.6</v>
@@ -4126,7 +4126,7 @@
         <v>29.2</v>
       </c>
       <c r="W7" t="n">
-        <v>22.30000000000001</v>
+        <v>7.500000000000078</v>
       </c>
       <c r="X7" t="n">
         <v>205.6</v>
@@ -4135,7 +4135,7 @@
         <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>195.8</v>
+        <v>31.60000000000002</v>
       </c>
       <c r="AA7" t="n">
         <v>1789.3</v>
@@ -4171,7 +4171,7 @@
         <v>17.1</v>
       </c>
       <c r="AL7" t="n">
-        <v>11</v>
+        <v>1.499999999999996</v>
       </c>
       <c r="AM7" t="n">
         <v>105.1</v>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="n">
-        <v>55</v>
+        <v>54.4000000000001</v>
       </c>
       <c r="AS7" t="n">
         <v>388.1</v>
@@ -4214,7 +4214,7 @@
         <v>15.7</v>
       </c>
       <c r="BA7" t="n">
-        <v>33.80000000000001</v>
+        <v>28.60000000000003</v>
       </c>
       <c r="BB7" t="n">
         <v>298.4</v>
@@ -4232,7 +4232,7 @@
         <v>1.2</v>
       </c>
       <c r="BG7" t="n">
-        <v>30.30000000000001</v>
+        <v>11.29999999999999</v>
       </c>
       <c r="BH7" t="n">
         <v>131.7</v>
@@ -4241,7 +4241,7 @@
         <v>-4.6</v>
       </c>
       <c r="BJ7" t="n">
-        <v>466.1999999999998</v>
+        <v>13.5</v>
       </c>
       <c r="BK7" t="n">
         <v>3730.3</v>
@@ -4250,7 +4250,7 @@
         <v>1.6</v>
       </c>
       <c r="BM7" t="n">
-        <v>67.5</v>
+        <v>38.69999999999995</v>
       </c>
       <c r="BN7" t="n">
         <v>657.1</v>
@@ -4259,7 +4259,7 @@
         <v>7.1</v>
       </c>
       <c r="BP7" t="n">
-        <v>42.5000000000002</v>
+        <v>33.90000000000062</v>
       </c>
       <c r="BQ7" t="n">
         <v>1807.7</v>
@@ -4268,7 +4268,7 @@
         <v>18</v>
       </c>
       <c r="BS7" t="n">
-        <v>34.59999999999997</v>
+        <v>12.80000000000001</v>
       </c>
       <c r="BT7" t="n">
         <v>355.5</v>
@@ -4295,7 +4295,7 @@
         <v>19.6</v>
       </c>
       <c r="CB7" t="n">
-        <v>235.0999999999999</v>
+        <v>32.60000000000011</v>
       </c>
       <c r="CC7" t="n">
         <v>1955.6</v>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="CE7" t="n">
-        <v>46</v>
+        <v>3.400000000000027</v>
       </c>
       <c r="CF7" t="n">
         <v>405.8</v>
@@ -4313,7 +4313,7 @@
         <v>4.6</v>
       </c>
       <c r="CH7" t="n">
-        <v>48.2000000000001</v>
+        <v>17.40000000000009</v>
       </c>
       <c r="CI7" t="n">
         <v>1540.2</v>
@@ -4358,7 +4358,7 @@
         <v>0.9</v>
       </c>
       <c r="CW7" t="n">
-        <v>173.9000000000001</v>
+        <v>21.09999999999988</v>
       </c>
       <c r="CX7" t="n">
         <v>1536.5</v>
@@ -4394,7 +4394,7 @@
         <v>53.4</v>
       </c>
       <c r="DI7" t="n">
-        <v>4.400000000000002</v>
+        <v>0.7000000000000037</v>
       </c>
       <c r="DJ7" t="n">
         <v>34.8</v>
@@ -4644,7 +4644,7 @@
         <v>-20</v>
       </c>
       <c r="N8" t="n">
-        <v>14.89999999999989</v>
+        <v>9.500000000000087</v>
       </c>
       <c r="O8" t="n">
         <v>1302.5</v>
@@ -4653,7 +4653,7 @@
         <v>2.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>483.9999999999995</v>
+        <v>6.399999999995487</v>
       </c>
       <c r="R8" t="n">
         <v>37382.2</v>
@@ -4662,7 +4662,7 @@
         <v>13.5</v>
       </c>
       <c r="T8" t="n">
-        <v>367.8999999999996</v>
+        <v>104.0999999999994</v>
       </c>
       <c r="U8" t="n">
         <v>3631.2</v>
@@ -4689,7 +4689,7 @@
         <v>11.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.49999999999997</v>
+        <v>10.49999999999991</v>
       </c>
       <c r="AD8" t="n">
         <v>273.9</v>
@@ -4698,7 +4698,7 @@
         <v>7.7</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.89999999999998</v>
+        <v>6.099999999999977</v>
       </c>
       <c r="AG8" t="n">
         <v>289.1</v>
@@ -4707,7 +4707,7 @@
         <v>3.6</v>
       </c>
       <c r="AI8" t="n">
-        <v>474.1000000000049</v>
+        <v>143.7000000000062</v>
       </c>
       <c r="AJ8" t="n">
         <v>44248.7</v>
@@ -4716,7 +4716,7 @@
         <v>16.2</v>
       </c>
       <c r="AL8" t="n">
-        <v>6.900000000000009</v>
+        <v>5.400000000000013</v>
       </c>
       <c r="AM8" t="n">
         <v>119.5</v>
@@ -4725,7 +4725,7 @@
         <v>27.1</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.8</v>
+        <v>13.8</v>
       </c>
       <c r="AP8" t="n">
         <v>20.7</v>
@@ -4741,7 +4741,7 @@
         <v>1.8</v>
       </c>
       <c r="AU8" t="n">
-        <v>123.9000000000001</v>
+        <v>81.90000000000011</v>
       </c>
       <c r="AV8" t="n">
         <v>809.1</v>
@@ -4777,7 +4777,7 @@
         <v>1.9</v>
       </c>
       <c r="BG8" t="n">
-        <v>26</v>
+        <v>14.70000000000001</v>
       </c>
       <c r="BH8" t="n">
         <v>160.4</v>
@@ -4804,7 +4804,7 @@
         <v>7.6</v>
       </c>
       <c r="BP8" t="n">
-        <v>247.5</v>
+        <v>166.7999999999994</v>
       </c>
       <c r="BQ8" t="n">
         <v>2081.7</v>
@@ -4822,7 +4822,7 @@
         <v>15</v>
       </c>
       <c r="BV8" t="n">
-        <v>433.7999999999997</v>
+        <v>396.5999999999999</v>
       </c>
       <c r="BW8" t="n">
         <v>2985.9</v>
@@ -4831,7 +4831,7 @@
         <v>13.5</v>
       </c>
       <c r="BY8" t="n">
-        <v>362.3000000000002</v>
+        <v>304.7000000000004</v>
       </c>
       <c r="BZ8" t="n">
         <v>2439.1</v>
@@ -4858,7 +4858,7 @@
         <v>4.5</v>
       </c>
       <c r="CH8" t="n">
-        <v>55.09999999999968</v>
+        <v>6.899999999999579</v>
       </c>
       <c r="CI8" t="n">
         <v>1735.4</v>
@@ -4894,7 +4894,7 @@
         <v>8.6</v>
       </c>
       <c r="CT8" t="n">
-        <v>134.5999999999999</v>
+        <v>13.90000000000011</v>
       </c>
       <c r="CU8" t="n">
         <v>2827</v>
@@ -4912,7 +4912,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="CZ8" t="n">
-        <v>15.90000000000009</v>
+        <v>10.70000000000015</v>
       </c>
       <c r="DA8" t="n">
         <v>542.5</v>
@@ -4921,7 +4921,7 @@
         <v>7.8</v>
       </c>
       <c r="DC8" t="n">
-        <v>51.2999999999997</v>
+        <v>31.29999999999952</v>
       </c>
       <c r="DD8" t="n">
         <v>1327.8</v>
@@ -4930,7 +4930,7 @@
         <v>17.3</v>
       </c>
       <c r="DF8" t="n">
-        <v>331</v>
+        <v>184.999999999999</v>
       </c>
       <c r="DG8" t="n">
         <v>3880.5</v>
@@ -4957,7 +4957,7 @@
         <v>4.5</v>
       </c>
       <c r="DO8" t="n">
-        <v>26</v>
+        <v>4.199999999999939</v>
       </c>
       <c r="DP8" t="n">
         <v>379</v>
@@ -4984,7 +4984,7 @@
         <v>8</v>
       </c>
       <c r="DX8" t="n">
-        <v>100</v>
+        <v>16.60000000000007</v>
       </c>
       <c r="DY8" t="n">
         <v>972.7</v>
@@ -4993,7 +4993,7 @@
         <v>6.1</v>
       </c>
       <c r="EA8" t="n">
-        <v>313.8</v>
+        <v>181.7999999999996</v>
       </c>
       <c r="EB8" t="n">
         <v>2738.2</v>
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>131.4000000000001</v>
+        <v>106.5999999999997</v>
       </c>
       <c r="C9" t="n">
         <v>1524.8</v>
@@ -5162,7 +5162,7 @@
         <v>21.3</v>
       </c>
       <c r="E9" t="n">
-        <v>6.5</v>
+        <v>2.499999999999872</v>
       </c>
       <c r="F9" t="n">
         <v>534</v>
@@ -5171,7 +5171,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>6.800000000000011</v>
+        <v>6.000000000000028</v>
       </c>
       <c r="I9" t="n">
         <v>66.3</v>
@@ -5180,7 +5180,7 @@
         <v>2.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.8999999999999997</v>
       </c>
       <c r="L9" t="n">
         <v>0.9</v>
@@ -5189,7 +5189,7 @@
         <v>-18.2</v>
       </c>
       <c r="N9" t="n">
-        <v>30.8000000000001</v>
+        <v>3.70000000000022</v>
       </c>
       <c r="O9" t="n">
         <v>1444.9</v>
@@ -5225,7 +5225,7 @@
         <v>22.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>245.5</v>
+        <v>112.4999999999996</v>
       </c>
       <c r="AA9" t="n">
         <v>2305.9</v>
@@ -5234,7 +5234,7 @@
         <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>33.39999999999998</v>
+        <v>12.40000000000007</v>
       </c>
       <c r="AD9" t="n">
         <v>306.4</v>
@@ -5243,7 +5243,7 @@
         <v>4.6</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.20000000000004</v>
+        <v>1.300000000000059</v>
       </c>
       <c r="AG9" t="n">
         <v>304.8</v>
@@ -5261,7 +5261,7 @@
         <v>14.7</v>
       </c>
       <c r="AL9" t="n">
-        <v>15.09999999999999</v>
+        <v>1.299999999999972</v>
       </c>
       <c r="AM9" t="n">
         <v>144</v>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="n">
-        <v>53.79999999999995</v>
+        <v>50.19999999999993</v>
       </c>
       <c r="AS9" t="n">
         <v>509.7</v>
@@ -5295,7 +5295,7 @@
         <v>-16.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>14.60000000000002</v>
+        <v>0.7000000000000384</v>
       </c>
       <c r="AY9" t="n">
         <v>326.9</v>
@@ -5304,7 +5304,7 @@
         <v>12.6</v>
       </c>
       <c r="BA9" t="n">
-        <v>8.400000000000034</v>
+        <v>0.2000000000001023</v>
       </c>
       <c r="BB9" t="n">
         <v>369.8</v>
@@ -5331,7 +5331,7 @@
         <v>-4.9</v>
       </c>
       <c r="BJ9" t="n">
-        <v>540.8999999999996</v>
+        <v>350.0999999999985</v>
       </c>
       <c r="BK9" t="n">
         <v>4517.6</v>
@@ -5340,7 +5340,7 @@
         <v>-3.8</v>
       </c>
       <c r="BM9" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="BN9" t="n">
         <v>829.6</v>
@@ -5358,7 +5358,7 @@
         <v>14.5</v>
       </c>
       <c r="BS9" t="n">
-        <v>34.20000000000005</v>
+        <v>12.39999999999999</v>
       </c>
       <c r="BT9" t="n">
         <v>431.5</v>
@@ -5385,7 +5385,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="CB9" t="n">
-        <v>325.0999999999999</v>
+        <v>117.4999999999995</v>
       </c>
       <c r="CC9" t="n">
         <v>2577.9</v>
@@ -5394,7 +5394,7 @@
         <v>2.7</v>
       </c>
       <c r="CE9" t="n">
-        <v>7.200000000000038</v>
+        <v>4.800000000000061</v>
       </c>
       <c r="CF9" t="n">
         <v>506.5</v>
@@ -5403,7 +5403,7 @@
         <v>5.2</v>
       </c>
       <c r="CH9" t="n">
-        <v>20.90000000000032</v>
+        <v>14.00000000000074</v>
       </c>
       <c r="CI9" t="n">
         <v>2019</v>
@@ -5412,7 +5412,7 @@
         <v>30.8</v>
       </c>
       <c r="CK9" t="n">
-        <v>18.30000000000004</v>
+        <v>3.900000000000045</v>
       </c>
       <c r="CL9" t="n">
         <v>1353.7</v>
@@ -5421,7 +5421,7 @@
         <v>400.6</v>
       </c>
       <c r="CN9" t="n">
-        <v>27.3000000000001</v>
+        <v>23.90000000000001</v>
       </c>
       <c r="CO9" t="n">
         <v>925.8</v>
@@ -5430,7 +5430,7 @@
         <v>2.7</v>
       </c>
       <c r="CQ9" t="n">
-        <v>13.39999999999998</v>
+        <v>1.69999999999993</v>
       </c>
       <c r="CR9" t="n">
         <v>697.1</v>
@@ -5439,7 +5439,7 @@
         <v>8</v>
       </c>
       <c r="CT9" t="n">
-        <v>331.5</v>
+        <v>183</v>
       </c>
       <c r="CU9" t="n">
         <v>3333</v>
@@ -5457,7 +5457,7 @@
         <v>8.5</v>
       </c>
       <c r="CZ9" t="n">
-        <v>28.59999999999994</v>
+        <v>12.69999999999985</v>
       </c>
       <c r="DA9" t="n">
         <v>590.6</v>
@@ -5466,7 +5466,7 @@
         <v>1.5</v>
       </c>
       <c r="DC9" t="n">
-        <v>100.8000000000002</v>
+        <v>8.200000000000884</v>
       </c>
       <c r="DD9" t="n">
         <v>1547.2</v>
@@ -5484,7 +5484,7 @@
         <v>50</v>
       </c>
       <c r="DI9" t="n">
-        <v>3.999999999999993</v>
+        <v>0.7999999999999909</v>
       </c>
       <c r="DJ9" t="n">
         <v>47.2</v>
@@ -5493,7 +5493,7 @@
         <v>40.1</v>
       </c>
       <c r="DL9" t="n">
-        <v>29.40000000000005</v>
+        <v>10.60000000000009</v>
       </c>
       <c r="DM9" t="n">
         <v>1133.5</v>
@@ -5502,7 +5502,7 @@
         <v>4.6</v>
       </c>
       <c r="DO9" t="n">
-        <v>52.79999999999995</v>
+        <v>11.69999999999998</v>
       </c>
       <c r="DP9" t="n">
         <v>445.9</v>
@@ -5707,7 +5707,7 @@
         <v>21.1</v>
       </c>
       <c r="E10" t="n">
-        <v>14.69999999999999</v>
+        <v>3.700000000000054</v>
       </c>
       <c r="F10" t="n">
         <v>598.6</v>
@@ -5734,7 +5734,7 @@
         <v>-30</v>
       </c>
       <c r="N10" t="n">
-        <v>16.10000000000002</v>
+        <v>0.1999999999998092</v>
       </c>
       <c r="O10" t="n">
         <v>1614.5</v>
@@ -5743,7 +5743,7 @@
         <v>1.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>717.9000000000087</v>
+        <v>486.1000000000186</v>
       </c>
       <c r="R10" t="n">
         <v>46830.9</v>
@@ -5752,7 +5752,7 @@
         <v>11.5</v>
       </c>
       <c r="T10" t="n">
-        <v>389.8000000000002</v>
+        <v>226.999999999999</v>
       </c>
       <c r="U10" t="n">
         <v>4545.8</v>
@@ -5761,7 +5761,7 @@
         <v>22.1</v>
       </c>
       <c r="W10" t="n">
-        <v>13.10000000000002</v>
+        <v>10.50000000000004</v>
       </c>
       <c r="X10" t="n">
         <v>315.7</v>
@@ -5788,7 +5788,7 @@
         <v>2.9</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.999999999999954</v>
+        <v>4.699999999999894</v>
       </c>
       <c r="AG10" t="n">
         <v>332.1</v>
@@ -5797,7 +5797,7 @@
         <v>3.1</v>
       </c>
       <c r="AI10" t="n">
-        <v>772.5000000000073</v>
+        <v>653.3000000000247</v>
       </c>
       <c r="AJ10" t="n">
         <v>55211.8</v>
@@ -5831,7 +5831,7 @@
         <v>2.3</v>
       </c>
       <c r="AU10" t="n">
-        <v>177.0999999999999</v>
+        <v>69.50000000000011</v>
       </c>
       <c r="AV10" t="n">
         <v>991.5</v>
@@ -5840,7 +5840,7 @@
         <v>-20.1</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.400000000000027</v>
+        <v>8.699999999999989</v>
       </c>
       <c r="AY10" t="n">
         <v>350.8</v>
@@ -5849,7 +5849,7 @@
         <v>10.1</v>
       </c>
       <c r="BA10" t="n">
-        <v>43.39999999999998</v>
+        <v>30.69999999999987</v>
       </c>
       <c r="BB10" t="n">
         <v>409.7</v>
@@ -5894,7 +5894,7 @@
         <v>5.8</v>
       </c>
       <c r="BP10" t="n">
-        <v>226.5</v>
+        <v>158.8999999999996</v>
       </c>
       <c r="BQ10" t="n">
         <v>2561.7</v>
@@ -5948,7 +5948,7 @@
         <v>4.3</v>
       </c>
       <c r="CH10" t="n">
-        <v>236.3999999999999</v>
+        <v>194.5999999999993</v>
       </c>
       <c r="CI10" t="n">
         <v>2251.6</v>
@@ -5975,7 +5975,7 @@
         <v>3.7</v>
       </c>
       <c r="CQ10" t="n">
-        <v>26.5</v>
+        <v>11.40000000000009</v>
       </c>
       <c r="CR10" t="n">
         <v>779.1</v>
@@ -5984,7 +5984,7 @@
         <v>8.9</v>
       </c>
       <c r="CT10" t="n">
-        <v>292.7000000000003</v>
+        <v>95.80000000000018</v>
       </c>
       <c r="CU10" t="n">
         <v>3690.5</v>
@@ -5993,7 +5993,7 @@
         <v>2.8</v>
       </c>
       <c r="CW10" t="n">
-        <v>24.2000000000003</v>
+        <v>3.200000000000301</v>
       </c>
       <c r="CX10" t="n">
         <v>2114.1</v>
@@ -6002,7 +6002,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="CZ10" t="n">
-        <v>82.29999999999995</v>
+        <v>41.00000000000017</v>
       </c>
       <c r="DA10" t="n">
         <v>656.7</v>
@@ -6020,7 +6020,7 @@
         <v>16.6</v>
       </c>
       <c r="DF10" t="n">
-        <v>371.9000000000001</v>
+        <v>243.3000000000007</v>
       </c>
       <c r="DG10" t="n">
         <v>4793.8</v>
@@ -6029,7 +6029,7 @@
         <v>47.1</v>
       </c>
       <c r="DI10" t="n">
-        <v>11.6</v>
+        <v>5.200000000000015</v>
       </c>
       <c r="DJ10" t="n">
         <v>54.2</v>
@@ -6038,7 +6038,7 @@
         <v>37.9</v>
       </c>
       <c r="DL10" t="n">
-        <v>32.99999999999999</v>
+        <v>3.599999999999945</v>
       </c>
       <c r="DM10" t="n">
         <v>1271</v>
@@ -6056,7 +6056,7 @@
         <v>2.3</v>
       </c>
       <c r="DR10" t="n">
-        <v>89.09999999999945</v>
+        <v>15.49999999999909</v>
       </c>
       <c r="DS10" t="n">
         <v>3495.4</v>
@@ -6074,7 +6074,7 @@
         <v>7.9</v>
       </c>
       <c r="DX10" t="n">
-        <v>114.8000000000002</v>
+        <v>83.40000000000039</v>
       </c>
       <c r="DY10" t="n">
         <v>1214.2</v>
@@ -6083,7 +6083,7 @@
         <v>7.3</v>
       </c>
       <c r="EA10" t="n">
-        <v>61.2999999999995</v>
+        <v>8.899999999999057</v>
       </c>
       <c r="EB10" t="n">
         <v>3552.8</v>
@@ -6252,7 +6252,7 @@
         <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>12.39999999999998</v>
+        <v>4.19999999999999</v>
       </c>
       <c r="F11" t="n">
         <v>683.1</v>
@@ -6261,7 +6261,7 @@
         <v>7.1</v>
       </c>
       <c r="H11" t="n">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
         <v>83.7</v>
@@ -6270,7 +6270,7 @@
         <v>2.4</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="L11" t="n">
         <v>0.7</v>
@@ -6279,7 +6279,7 @@
         <v>-36.4</v>
       </c>
       <c r="N11" t="n">
-        <v>53.3000000000001</v>
+        <v>21.10000000000005</v>
       </c>
       <c r="O11" t="n">
         <v>1812</v>
@@ -6288,7 +6288,7 @@
         <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>5135</v>
+        <v>3815.099999999978</v>
       </c>
       <c r="R11" t="n">
         <v>51979</v>
@@ -6297,7 +6297,7 @@
         <v>9.9</v>
       </c>
       <c r="T11" t="n">
-        <v>325.5</v>
+        <v>17.10000000000042</v>
       </c>
       <c r="U11" t="n">
         <v>4900.2</v>
@@ -6315,7 +6315,7 @@
         <v>12.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>223.5999999999999</v>
+        <v>135.2000000000003</v>
       </c>
       <c r="AA11" t="n">
         <v>2822</v>
@@ -6324,7 +6324,7 @@
         <v>8.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>24.5</v>
+        <v>7.699999999999921</v>
       </c>
       <c r="AD11" t="n">
         <v>384.2</v>
@@ -6333,7 +6333,7 @@
         <v>2</v>
       </c>
       <c r="AF11" t="n">
-        <v>15.90000000000003</v>
+        <v>3.900000000000123</v>
       </c>
       <c r="AG11" t="n">
         <v>376.8</v>
@@ -6342,7 +6342,7 @@
         <v>5.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>5448.699999999997</v>
+        <v>3963.299999999974</v>
       </c>
       <c r="AJ11" t="n">
         <v>61168.8</v>
@@ -6351,7 +6351,7 @@
         <v>11.8</v>
       </c>
       <c r="AL11" t="n">
-        <v>18.90000000000001</v>
+        <v>10.70000000000001</v>
       </c>
       <c r="AM11" t="n">
         <v>186.1</v>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="n">
-        <v>44</v>
+        <v>22.1999999999998</v>
       </c>
       <c r="AS11" t="n">
         <v>637.1</v>
@@ -6385,7 +6385,7 @@
         <v>-16.9</v>
       </c>
       <c r="AX11" t="n">
-        <v>24.39999999999992</v>
+        <v>5.599999999999863</v>
       </c>
       <c r="AY11" t="n">
         <v>376.3</v>
@@ -6403,7 +6403,7 @@
         <v>-2.3</v>
       </c>
       <c r="BD11" t="n">
-        <v>74.79999999999995</v>
+        <v>60.19999999999996</v>
       </c>
       <c r="BE11" t="n">
         <v>1159.2</v>
@@ -6412,7 +6412,7 @@
         <v>2.5</v>
       </c>
       <c r="BG11" t="n">
-        <v>18.49999999999997</v>
+        <v>14.69999999999995</v>
       </c>
       <c r="BH11" t="n">
         <v>248.6</v>
@@ -6421,7 +6421,7 @@
         <v>1.3</v>
       </c>
       <c r="BJ11" t="n">
-        <v>34</v>
+        <v>15.39999999999964</v>
       </c>
       <c r="BK11" t="n">
         <v>5453.2</v>
@@ -6430,7 +6430,7 @@
         <v>-6</v>
       </c>
       <c r="BM11" t="n">
-        <v>56.80000000000007</v>
+        <v>42.40000000000021</v>
       </c>
       <c r="BN11" t="n">
         <v>954.8</v>
@@ -6439,7 +6439,7 @@
         <v>4.8</v>
       </c>
       <c r="BP11" t="n">
-        <v>204.6999999999998</v>
+        <v>12</v>
       </c>
       <c r="BQ11" t="n">
         <v>2774.9</v>
@@ -6448,7 +6448,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BS11" t="n">
-        <v>38.10000000000002</v>
+        <v>20.30000000000018</v>
       </c>
       <c r="BT11" t="n">
         <v>507.9</v>
@@ -6457,7 +6457,7 @@
         <v>10.7</v>
       </c>
       <c r="BV11" t="n">
-        <v>200.9000000000001</v>
+        <v>44.90000000000096</v>
       </c>
       <c r="BW11" t="n">
         <v>3919.5</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="BY11" t="n">
-        <v>101.0999999999999</v>
+        <v>33.99999999999999</v>
       </c>
       <c r="BZ11" t="n">
         <v>3163</v>
@@ -6475,7 +6475,7 @@
         <v>3.2</v>
       </c>
       <c r="CB11" t="n">
-        <v>132.9999999999995</v>
+        <v>31.59999999999894</v>
       </c>
       <c r="CC11" t="n">
         <v>3311.8</v>
@@ -6484,7 +6484,7 @@
         <v>3.1</v>
       </c>
       <c r="CE11" t="n">
-        <v>43.70000000000002</v>
+        <v>39.70000000000012</v>
       </c>
       <c r="CF11" t="n">
         <v>616.1</v>
@@ -6502,7 +6502,7 @@
         <v>15.7</v>
       </c>
       <c r="CK11" t="n">
-        <v>230.5</v>
+        <v>209.7</v>
       </c>
       <c r="CL11" t="n">
         <v>1744.3</v>
@@ -6511,7 +6511,7 @@
         <v>332.8</v>
       </c>
       <c r="CN11" t="n">
-        <v>92.59999999999991</v>
+        <v>89.60000000000011</v>
       </c>
       <c r="CO11" t="n">
         <v>1164.1</v>
@@ -6538,7 +6538,7 @@
         <v>-0.4</v>
       </c>
       <c r="CW11" t="n">
-        <v>199</v>
+        <v>171.5999999999994</v>
       </c>
       <c r="CX11" t="n">
         <v>2372.8</v>
@@ -6547,7 +6547,7 @@
         <v>10</v>
       </c>
       <c r="CZ11" t="n">
-        <v>66.89999999999998</v>
+        <v>13.19999999999996</v>
       </c>
       <c r="DA11" t="n">
         <v>710.3</v>
@@ -6556,7 +6556,7 @@
         <v>-7.9</v>
       </c>
       <c r="DC11" t="n">
-        <v>62.3000000000002</v>
+        <v>14.50000000000098</v>
       </c>
       <c r="DD11" t="n">
         <v>1783.5</v>
@@ -6583,7 +6583,7 @@
         <v>4.2</v>
       </c>
       <c r="DL11" t="n">
-        <v>115.2</v>
+        <v>78.60000000000007</v>
       </c>
       <c r="DM11" t="n">
         <v>1437.7</v>
@@ -6592,7 +6592,7 @@
         <v>5.9</v>
       </c>
       <c r="DO11" t="n">
-        <v>20.5999999999999</v>
+        <v>19.79999999999968</v>
       </c>
       <c r="DP11" t="n">
         <v>596.1</v>
@@ -6601,7 +6601,7 @@
         <v>6</v>
       </c>
       <c r="DR11" t="n">
-        <v>257.7000000000003</v>
+        <v>153.1000000000017</v>
       </c>
       <c r="DS11" t="n">
         <v>3954.3</v>
@@ -6610,7 +6610,7 @@
         <v>44.2</v>
       </c>
       <c r="DU11" t="n">
-        <v>18.19999999999999</v>
+        <v>6.799999999999949</v>
       </c>
       <c r="DV11" t="n">
         <v>238.9</v>
@@ -6619,7 +6619,7 @@
         <v>10.7</v>
       </c>
       <c r="DX11" t="n">
-        <v>101.6999999999998</v>
+        <v>2.599999999999511</v>
       </c>
       <c r="DY11" t="n">
         <v>1339.3</v>
@@ -6628,7 +6628,7 @@
         <v>7.4</v>
       </c>
       <c r="EA11" t="n">
-        <v>352.9000000000001</v>
+        <v>256.5000000000013</v>
       </c>
       <c r="EB11" t="n">
         <v>3862.3</v>
@@ -6637,7 +6637,7 @@
         <v>50.2</v>
       </c>
       <c r="ED11" t="n">
-        <v>97.90000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="EE11" t="n">
         <v>109.9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>170.9</v>
+        <v>143.1000000000002</v>
       </c>
       <c r="C12" t="n">
         <v>2035.1</v>
@@ -6797,7 +6797,7 @@
         <v>15.8</v>
       </c>
       <c r="E12" t="n">
-        <v>43.1</v>
+        <v>18.30000000000004</v>
       </c>
       <c r="F12" t="n">
         <v>780.5</v>
@@ -6842,7 +6842,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="T12" t="n">
-        <v>368.1</v>
+        <v>42.60000000000002</v>
       </c>
       <c r="U12" t="n">
         <v>5146.2</v>
@@ -6851,7 +6851,7 @@
         <v>15.9</v>
       </c>
       <c r="W12" t="n">
-        <v>36.9</v>
+        <v>35.4999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>393.9</v>
@@ -6860,7 +6860,7 @@
         <v>10.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>239.6000000000001</v>
+        <v>16.0000000000002</v>
       </c>
       <c r="AA12" t="n">
         <v>3094.2</v>
@@ -6869,7 +6869,7 @@
         <v>9.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>15.9</v>
+        <v>8.200000000000079</v>
       </c>
       <c r="AD12" t="n">
         <v>425.6</v>
@@ -6878,7 +6878,7 @@
         <v>6.1</v>
       </c>
       <c r="AF12" t="n">
-        <v>46.3</v>
+        <v>20.49999999999989</v>
       </c>
       <c r="AG12" t="n">
         <v>425.9</v>
@@ -6905,7 +6905,7 @@
         <v>31.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>126.7</v>
+        <v>263.5</v>
       </c>
       <c r="AP12" t="n">
         <v>-31.5</v>
@@ -6930,7 +6930,7 @@
         <v>-9</v>
       </c>
       <c r="AX12" t="n">
-        <v>59.6</v>
+        <v>20.20000000000019</v>
       </c>
       <c r="AY12" t="n">
         <v>419.8</v>
@@ -6939,7 +6939,7 @@
         <v>0.2</v>
       </c>
       <c r="BA12" t="n">
-        <v>39.6</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BB12" t="n">
         <v>475.3</v>
@@ -6948,7 +6948,7 @@
         <v>-1.5</v>
       </c>
       <c r="BD12" t="n">
-        <v>71.20000000000005</v>
+        <v>3.700000000000088</v>
       </c>
       <c r="BE12" t="n">
         <v>1248.6</v>
@@ -6966,7 +6966,7 @@
         <v>7.1</v>
       </c>
       <c r="BJ12" t="n">
-        <v>289.5</v>
+        <v>240.1000000000004</v>
       </c>
       <c r="BK12" t="n">
         <v>6091.3</v>
@@ -6975,7 +6975,7 @@
         <v>-4.7</v>
       </c>
       <c r="BM12" t="n">
-        <v>216.8</v>
+        <v>110.3999999999997</v>
       </c>
       <c r="BN12" t="n">
         <v>923.5</v>
@@ -6984,7 +6984,7 @@
         <v>-4.6</v>
       </c>
       <c r="BP12" t="n">
-        <v>233.0000000000002</v>
+        <v>28.30000000000041</v>
       </c>
       <c r="BQ12" t="n">
         <v>2888.2</v>
@@ -7002,7 +7002,7 @@
         <v>9.5</v>
       </c>
       <c r="BV12" t="n">
-        <v>489.6999999999999</v>
+        <v>165.8999999999993</v>
       </c>
       <c r="BW12" t="n">
         <v>4140.5</v>
@@ -7011,7 +7011,7 @@
         <v>4.3</v>
       </c>
       <c r="BY12" t="n">
-        <v>462.7</v>
+        <v>327.6000000000001</v>
       </c>
       <c r="BZ12" t="n">
         <v>3266.7</v>
@@ -7020,7 +7020,7 @@
         <v>3.1</v>
       </c>
       <c r="CB12" t="n">
-        <v>279.4</v>
+        <v>64.10000000000127</v>
       </c>
       <c r="CC12" t="n">
         <v>3758</v>
@@ -7029,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="CE12" t="n">
-        <v>84.2</v>
+        <v>40.49999999999999</v>
       </c>
       <c r="CF12" t="n">
         <v>721</v>
@@ -7038,7 +7038,7 @@
         <v>4.2</v>
       </c>
       <c r="CH12" t="n">
-        <v>433.7999999999997</v>
+        <v>400.3999999999992</v>
       </c>
       <c r="CI12" t="n">
         <v>2270.8</v>
@@ -7047,7 +7047,7 @@
         <v>10.7</v>
       </c>
       <c r="CK12" t="n">
-        <v>270.8</v>
+        <v>40.30000000000001</v>
       </c>
       <c r="CL12" t="n">
         <v>1627.5</v>
@@ -7065,7 +7065,7 @@
         <v>5.3</v>
       </c>
       <c r="CQ12" t="n">
-        <v>17.50000000000009</v>
+        <v>15.30000000000027</v>
       </c>
       <c r="CR12" t="n">
         <v>1006.8</v>
@@ -7074,7 +7074,7 @@
         <v>10.8</v>
       </c>
       <c r="CT12" t="n">
-        <v>277</v>
+        <v>87.00000000000097</v>
       </c>
       <c r="CU12" t="n">
         <v>4781</v>
@@ -7101,7 +7101,7 @@
         <v>-8.5</v>
       </c>
       <c r="DC12" t="n">
-        <v>139.2</v>
+        <v>38.49999999999919</v>
       </c>
       <c r="DD12" t="n">
         <v>2094.3</v>
@@ -7110,7 +7110,7 @@
         <v>20.8</v>
       </c>
       <c r="DF12" t="n">
-        <v>689.6999999999998</v>
+        <v>464.0999999999995</v>
       </c>
       <c r="DG12" t="n">
         <v>5246.4</v>
@@ -7137,7 +7137,7 @@
         <v>8</v>
       </c>
       <c r="DO12" t="n">
-        <v>28.9</v>
+        <v>8.3000000000001</v>
       </c>
       <c r="DP12" t="n">
         <v>673</v>
@@ -7146,7 +7146,7 @@
         <v>5.8</v>
       </c>
       <c r="DR12" t="n">
-        <v>173.7999999999997</v>
+        <v>5.199999999998909</v>
       </c>
       <c r="DS12" t="n">
         <v>4287.8</v>
@@ -7155,7 +7155,7 @@
         <v>43</v>
       </c>
       <c r="DU12" t="n">
-        <v>13.60000000000001</v>
+        <v>6.800000000000061</v>
       </c>
       <c r="DV12" t="n">
         <v>268.9</v>
@@ -7351,7 +7351,7 @@
         <v>-14.4</v>
       </c>
       <c r="H13" t="n">
-        <v>5.800000000000001</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="I13" t="n">
         <v>10.2</v>
@@ -7369,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>131.3</v>
+        <v>80.70000000000023</v>
       </c>
       <c r="O13" t="n">
         <v>251.4</v>
@@ -7378,7 +7378,7 @@
         <v>-5.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>4295.3</v>
+        <v>1082.7</v>
       </c>
       <c r="R13" t="n">
         <v>5682</v>
@@ -7387,7 +7387,7 @@
         <v>-15.7</v>
       </c>
       <c r="T13" t="n">
-        <v>447.8000000000001</v>
+        <v>37.10000000000008</v>
       </c>
       <c r="U13" t="n">
         <v>504.8</v>
@@ -7405,7 +7405,7 @@
         <v>-53.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>236.7</v>
+        <v>220.6999999999998</v>
       </c>
       <c r="AA13" t="n">
         <v>482.6</v>
@@ -7414,7 +7414,7 @@
         <v>4.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>30.3</v>
+        <v>14.4</v>
       </c>
       <c r="AD13" t="n">
         <v>45.5</v>
@@ -7432,7 +7432,7 @@
         <v>-1.3</v>
       </c>
       <c r="AI13" t="n">
-        <v>5177.200000000001</v>
+        <v>2391.499999999998</v>
       </c>
       <c r="AJ13" t="n">
         <v>7080.1</v>
@@ -7441,7 +7441,7 @@
         <v>-14</v>
       </c>
       <c r="AL13" t="n">
-        <v>11.5</v>
+        <v>0.9000000000000199</v>
       </c>
       <c r="AM13" t="n">
         <v>22.3</v>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="n">
-        <v>37</v>
+        <v>4.099999999999987</v>
       </c>
       <c r="AS13" t="n">
         <v>89.2</v>
@@ -7466,7 +7466,7 @@
         <v>16</v>
       </c>
       <c r="AU13" t="n">
-        <v>84.30000000000001</v>
+        <v>25.09999999999983</v>
       </c>
       <c r="AV13" t="n">
         <v>97</v>
@@ -7475,7 +7475,7 @@
         <v>-34.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>38.99999999999999</v>
+        <v>3.799999999999912</v>
       </c>
       <c r="AY13" t="n">
         <v>44.1</v>
@@ -7484,7 +7484,7 @@
         <v>-26</v>
       </c>
       <c r="BA13" t="n">
-        <v>28.99999999999999</v>
+        <v>7.399999999999988</v>
       </c>
       <c r="BB13" t="n">
         <v>55.5</v>
@@ -7493,7 +7493,7 @@
         <v>-3.6</v>
       </c>
       <c r="BD13" t="n">
-        <v>87.09999999999999</v>
+        <v>15.89999999999995</v>
       </c>
       <c r="BE13" t="n">
         <v>136.2</v>
@@ -7502,7 +7502,7 @@
         <v>-6.7</v>
       </c>
       <c r="BG13" t="n">
-        <v>11.1</v>
+        <v>4.99999999999997</v>
       </c>
       <c r="BH13" t="n">
         <v>26.1</v>
@@ -7511,7 +7511,7 @@
         <v>6.1</v>
       </c>
       <c r="BJ13" t="n">
-        <v>577.9000000000001</v>
+        <v>32.90000000000009</v>
       </c>
       <c r="BK13" t="n">
         <v>512.3</v>
@@ -7529,7 +7529,7 @@
         <v>18.2</v>
       </c>
       <c r="BP13" t="n">
-        <v>281.5000000000001</v>
+        <v>20.1999999999995</v>
       </c>
       <c r="BQ13" t="n">
         <v>336.2</v>
@@ -7538,7 +7538,7 @@
         <v>-23.2</v>
       </c>
       <c r="BS13" t="n">
-        <v>64.3</v>
+        <v>22.29999999999997</v>
       </c>
       <c r="BT13" t="n">
         <v>83.3</v>
@@ -7547,7 +7547,7 @@
         <v>-18.5</v>
       </c>
       <c r="BV13" t="n">
-        <v>412.4</v>
+        <v>123.6000000000002</v>
       </c>
       <c r="BW13" t="n">
         <v>696.7</v>
@@ -7565,7 +7565,7 @@
         <v>4.2</v>
       </c>
       <c r="CB13" t="n">
-        <v>253.4</v>
+        <v>106.9999999999995</v>
       </c>
       <c r="CC13" t="n">
         <v>309.9</v>
@@ -7574,7 +7574,7 @@
         <v>10.9</v>
       </c>
       <c r="CE13" t="n">
-        <v>52.8</v>
+        <v>12.3</v>
       </c>
       <c r="CF13" t="n">
         <v>91.7</v>
@@ -7592,7 +7592,7 @@
         <v>-70.40000000000001</v>
       </c>
       <c r="CK13" t="n">
-        <v>124.6</v>
+        <v>84.29999999999998</v>
       </c>
       <c r="CL13" t="n">
         <v>255.3</v>
@@ -7601,7 +7601,7 @@
         <v>-5.7</v>
       </c>
       <c r="CN13" t="n">
-        <v>74.5</v>
+        <v>33.99999999999991</v>
       </c>
       <c r="CO13" t="n">
         <v>118</v>
@@ -7610,7 +7610,7 @@
         <v>-11.3</v>
       </c>
       <c r="CQ13" t="n">
-        <v>52.20000000000002</v>
+        <v>18.29999999999975</v>
       </c>
       <c r="CR13" t="n">
         <v>123.3</v>
@@ -7628,7 +7628,7 @@
         <v>-21.6</v>
       </c>
       <c r="CW13" t="n">
-        <v>196.6</v>
+        <v>114.6</v>
       </c>
       <c r="CX13" t="n">
         <v>241.8</v>
@@ -7637,7 +7637,7 @@
         <v>0.8</v>
       </c>
       <c r="CZ13" t="n">
-        <v>69.2</v>
+        <v>33.79999999999998</v>
       </c>
       <c r="DA13" t="n">
         <v>74</v>
@@ -7646,7 +7646,7 @@
         <v>-27.7</v>
       </c>
       <c r="DC13" t="n">
-        <v>190.4</v>
+        <v>51.20000000000002</v>
       </c>
       <c r="DD13" t="n">
         <v>402.1</v>
@@ -7673,7 +7673,7 @@
         <v>88.59999999999999</v>
       </c>
       <c r="DL13" t="n">
-        <v>85.80000000000001</v>
+        <v>32.80000000000002</v>
       </c>
       <c r="DM13" t="n">
         <v>183</v>
@@ -7682,7 +7682,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="DO13" t="n">
-        <v>12.9</v>
+        <v>4.5999999999999</v>
       </c>
       <c r="DP13" t="n">
         <v>53.1</v>
@@ -7691,7 +7691,7 @@
         <v>83.7</v>
       </c>
       <c r="DR13" t="n">
-        <v>258.6</v>
+        <v>84.80000000000032</v>
       </c>
       <c r="DS13" t="n">
         <v>444.7</v>
@@ -7700,7 +7700,7 @@
         <v>3.1</v>
       </c>
       <c r="DU13" t="n">
-        <v>15</v>
+        <v>1.39999999999999</v>
       </c>
       <c r="DV13" t="n">
         <v>35.5</v>
@@ -7709,7 +7709,7 @@
         <v>11.6</v>
       </c>
       <c r="DX13" t="n">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="DY13" t="n">
         <v>254.7</v>
@@ -7718,7 +7718,7 @@
         <v>11.2</v>
       </c>
       <c r="EA13" t="n">
-        <v>256.0000000000001</v>
+        <v>116.7000000000002</v>
       </c>
       <c r="EB13" t="n">
         <v>201.6</v>
@@ -7878,7 +7878,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.4</v>
+        <v>161.6</v>
       </c>
       <c r="C14" t="n">
         <v>461.6</v>
@@ -7887,7 +7887,7 @@
         <v>32.8</v>
       </c>
       <c r="E14" t="n">
-        <v>9.29999999999999</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="F14" t="n">
         <v>102.1</v>
@@ -7914,7 +7914,7 @@
         <v>-25</v>
       </c>
       <c r="N14" t="n">
-        <v>130.6</v>
+        <v>24.59999999999989</v>
       </c>
       <c r="O14" t="n">
         <v>378.4</v>
@@ -7986,7 +7986,7 @@
         <v>-3.3</v>
       </c>
       <c r="AL14" t="n">
-        <v>6.699999999999999</v>
+        <v>0.4999999999999893</v>
       </c>
       <c r="AM14" t="n">
         <v>41.2</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="n">
-        <v>4.799999999999983</v>
+        <v>0.6999999999999957</v>
       </c>
       <c r="AS14" t="n">
         <v>139</v>
@@ -8038,7 +8038,7 @@
         <v>1.3</v>
       </c>
       <c r="BD14" t="n">
-        <v>16.40000000000001</v>
+        <v>0.5000000000000586</v>
       </c>
       <c r="BE14" t="n">
         <v>259</v>
@@ -8047,7 +8047,7 @@
         <v>11.1</v>
       </c>
       <c r="BG14" t="n">
-        <v>12.4</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="BH14" t="n">
         <v>39.2</v>
@@ -8056,7 +8056,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="BJ14" t="n">
-        <v>535.8999999999999</v>
+        <v>247.4999999999998</v>
       </c>
       <c r="BK14" t="n">
         <v>1095.8</v>
@@ -8074,7 +8074,7 @@
         <v>24.4</v>
       </c>
       <c r="BP14" t="n">
-        <v>273</v>
+        <v>224.5000000000001</v>
       </c>
       <c r="BQ14" t="n">
         <v>589.5</v>
@@ -8083,7 +8083,7 @@
         <v>-18</v>
       </c>
       <c r="BS14" t="n">
-        <v>43.5</v>
+        <v>0.2000000000000171</v>
       </c>
       <c r="BT14" t="n">
         <v>122.5</v>
@@ -8164,7 +8164,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="CT14" t="n">
-        <v>381.9999999999999</v>
+        <v>50.7999999999999</v>
       </c>
       <c r="CU14" t="n">
         <v>669</v>
@@ -8191,7 +8191,7 @@
         <v>-24.7</v>
       </c>
       <c r="DC14" t="n">
-        <v>143.3</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="DD14" t="n">
         <v>623.5</v>
@@ -8209,7 +8209,7 @@
         <v>-3.4</v>
       </c>
       <c r="DI14" t="n">
-        <v>1.800000000000002</v>
+        <v>0.400000000000003</v>
       </c>
       <c r="DJ14" t="n">
         <v>15.4</v>
@@ -8227,7 +8227,7 @@
         <v>20.6</v>
       </c>
       <c r="DO14" t="n">
-        <v>30.2</v>
+        <v>4.4</v>
       </c>
       <c r="DP14" t="n">
         <v>115.7</v>
@@ -8236,7 +8236,7 @@
         <v>63.6</v>
       </c>
       <c r="DR14" t="n">
-        <v>114.8999999999999</v>
+        <v>30.09999999999958</v>
       </c>
       <c r="DS14" t="n">
         <v>784.1</v>
@@ -8245,7 +8245,7 @@
         <v>13.6</v>
       </c>
       <c r="DU14" t="n">
-        <v>5.600000000000009</v>
+        <v>4.20000000000002</v>
       </c>
       <c r="DV14" t="n">
         <v>55.4</v>
@@ -8272,7 +8272,7 @@
         <v>-44.5</v>
       </c>
       <c r="ED14" t="n">
-        <v>2.599999999999998</v>
+        <v>0.699999999999998</v>
       </c>
       <c r="EE14" t="n">
         <v>38.1</v>
@@ -8432,7 +8432,7 @@
         <v>17.9</v>
       </c>
       <c r="E15" t="n">
-        <v>49.19999999999999</v>
+        <v>39.8</v>
       </c>
       <c r="F15" t="n">
         <v>153.4</v>
@@ -8441,7 +8441,7 @@
         <v>-2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>7.900000000000002</v>
+        <v>1.100000000000005</v>
       </c>
       <c r="I15" t="n">
         <v>28.1</v>
@@ -8468,7 +8468,7 @@
         <v>-4.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>253.2000000000016</v>
+        <v>12.80000000000291</v>
       </c>
       <c r="R15" t="n">
         <v>14836.4</v>
@@ -8477,7 +8477,7 @@
         <v>-4.7</v>
       </c>
       <c r="T15" t="n">
-        <v>449</v>
+        <v>426.6000000000003</v>
       </c>
       <c r="U15" t="n">
         <v>1345.1</v>
@@ -8486,7 +8486,7 @@
         <v>-16</v>
       </c>
       <c r="W15" t="n">
-        <v>5.200000000000014</v>
+        <v>2.500000000000016</v>
       </c>
       <c r="X15" t="n">
         <v>85.5</v>
@@ -8504,7 +8504,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>28.59999999999999</v>
+        <v>13.40000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>111.4</v>
@@ -8513,7 +8513,7 @@
         <v>2.6</v>
       </c>
       <c r="AF15" t="n">
-        <v>12.40000000000001</v>
+        <v>4.000000000000011</v>
       </c>
       <c r="AG15" t="n">
         <v>112.4</v>
@@ -8522,7 +8522,7 @@
         <v>15.8</v>
       </c>
       <c r="AI15" t="n">
-        <v>245.7000000000016</v>
+        <v>73.7000000000034</v>
       </c>
       <c r="AJ15" t="n">
         <v>18129.4</v>
@@ -8531,7 +8531,7 @@
         <v>-3.4</v>
       </c>
       <c r="AL15" t="n">
-        <v>16.8</v>
+        <v>3.4</v>
       </c>
       <c r="AM15" t="n">
         <v>60.4</v>
@@ -8540,7 +8540,7 @@
         <v>12.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.899999999999999</v>
+        <v>4.699999999999996</v>
       </c>
       <c r="AP15" t="n">
         <v>36.3</v>
@@ -8558,7 +8558,7 @@
         <v>29.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>24.40000000000001</v>
+        <v>5.10000000000003</v>
       </c>
       <c r="AV15" t="n">
         <v>314</v>
@@ -8576,7 +8576,7 @@
         <v>-19.5</v>
       </c>
       <c r="BA15" t="n">
-        <v>29.80000000000001</v>
+        <v>19.99999999999997</v>
       </c>
       <c r="BB15" t="n">
         <v>121.3</v>
@@ -8585,7 +8585,7 @@
         <v>0.7</v>
       </c>
       <c r="BD15" t="n">
-        <v>97.59999999999997</v>
+        <v>64.79999999999995</v>
       </c>
       <c r="BE15" t="n">
         <v>363.5</v>
@@ -8594,7 +8594,7 @@
         <v>8</v>
       </c>
       <c r="BG15" t="n">
-        <v>3.5</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BH15" t="n">
         <v>68</v>
@@ -8657,7 +8657,7 @@
         <v>12.3</v>
       </c>
       <c r="CB15" t="n">
-        <v>24.69999999999976</v>
+        <v>2.799999999999642</v>
       </c>
       <c r="CC15" t="n">
         <v>925.5</v>
@@ -8675,7 +8675,7 @@
         <v>7.5</v>
       </c>
       <c r="CH15" t="n">
-        <v>55.2000000000001</v>
+        <v>10.00000000000012</v>
       </c>
       <c r="CI15" t="n">
         <v>411.1</v>
@@ -8684,7 +8684,7 @@
         <v>-50.2</v>
       </c>
       <c r="CK15" t="n">
-        <v>26.90000000000001</v>
+        <v>20.09999999999999</v>
       </c>
       <c r="CL15" t="n">
         <v>626.3</v>
@@ -8693,7 +8693,7 @@
         <v>19.7</v>
       </c>
       <c r="CN15" t="n">
-        <v>14.59999999999999</v>
+        <v>6.799999999999985</v>
       </c>
       <c r="CO15" t="n">
         <v>296.5</v>
@@ -8702,7 +8702,7 @@
         <v>3.7</v>
       </c>
       <c r="CQ15" t="n">
-        <v>66.79999999999998</v>
+        <v>14.60000000000005</v>
       </c>
       <c r="CR15" t="n">
         <v>248.1</v>
@@ -8720,7 +8720,7 @@
         <v>-15.3</v>
       </c>
       <c r="CW15" t="n">
-        <v>209.6999999999999</v>
+        <v>147.6999999999999</v>
       </c>
       <c r="CX15" t="n">
         <v>712.6</v>
@@ -8729,7 +8729,7 @@
         <v>7.3</v>
       </c>
       <c r="CZ15" t="n">
-        <v>66</v>
+        <v>43.40000000000001</v>
       </c>
       <c r="DA15" t="n">
         <v>174</v>
@@ -8747,7 +8747,7 @@
         <v>18.1</v>
       </c>
       <c r="DF15" t="n">
-        <v>462.6000000000001</v>
+        <v>457.3999999999999</v>
       </c>
       <c r="DG15" t="n">
         <v>1732.6</v>
@@ -8756,7 +8756,7 @@
         <v>-0.7</v>
       </c>
       <c r="DI15" t="n">
-        <v>7.099999999999998</v>
+        <v>4.899999999999992</v>
       </c>
       <c r="DJ15" t="n">
         <v>21.5</v>
@@ -8765,7 +8765,7 @@
         <v>20.8</v>
       </c>
       <c r="DL15" t="n">
-        <v>113.5</v>
+        <v>48.50000000000001</v>
       </c>
       <c r="DM15" t="n">
         <v>429.6</v>
@@ -8774,7 +8774,7 @@
         <v>15.4</v>
       </c>
       <c r="DO15" t="n">
-        <v>22.99999999999999</v>
+        <v>5.699999999999989</v>
       </c>
       <c r="DP15" t="n">
         <v>169.1</v>
@@ -8801,7 +8801,7 @@
         <v>15.9</v>
       </c>
       <c r="DX15" t="n">
-        <v>102</v>
+        <v>89.19999999999999</v>
       </c>
       <c r="DY15" t="n">
         <v>529.1</v>
@@ -8810,7 +8810,7 @@
         <v>17.7</v>
       </c>
       <c r="EA15" t="n">
-        <v>88.09999999999991</v>
+        <v>14.60000000000002</v>
       </c>
       <c r="EB15" t="n">
         <v>774.5</v>
@@ -8819,7 +8819,7 @@
         <v>-28.1</v>
       </c>
       <c r="ED15" t="n">
-        <v>1.400000000000004</v>
+        <v>0.700000000000006</v>
       </c>
       <c r="EE15" t="n">
         <v>53.9</v>
@@ -9015,7 +9015,7 @@
         <v>-3.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>501.0999999999995</v>
+        <v>235.099999999995</v>
       </c>
       <c r="R16" t="n">
         <v>19519.4</v>
@@ -9033,7 +9033,7 @@
         <v>-13.6</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>2.29999999999997</v>
       </c>
       <c r="X16" t="n">
         <v>107.2</v>
@@ -9042,7 +9042,7 @@
         <v>-16.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>72.89999999999992</v>
+        <v>7.699999999999946</v>
       </c>
       <c r="AA16" t="n">
         <v>1278.9</v>
@@ -9060,7 +9060,7 @@
         <v>5.7</v>
       </c>
       <c r="AF16" t="n">
-        <v>34.59999999999999</v>
+        <v>13.99999999999997</v>
       </c>
       <c r="AG16" t="n">
         <v>155.5</v>
@@ -9069,7 +9069,7 @@
         <v>13.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>619.1999999999989</v>
+        <v>299.7999999999939</v>
       </c>
       <c r="AJ16" t="n">
         <v>23790.2</v>
@@ -9078,7 +9078,7 @@
         <v>-2.3</v>
       </c>
       <c r="AL16" t="n">
-        <v>15.3</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="AM16" t="n">
         <v>76.90000000000001</v>
@@ -9087,7 +9087,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.800000000000001</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="AP16" t="n">
         <v>45.6</v>
@@ -9096,7 +9096,7 @@
         <v>221.1</v>
       </c>
       <c r="AR16" t="n">
-        <v>9.5</v>
+        <v>0.2999999999999403</v>
       </c>
       <c r="AS16" t="n">
         <v>259.2</v>
@@ -9105,7 +9105,7 @@
         <v>28.3</v>
       </c>
       <c r="AU16" t="n">
-        <v>117.9</v>
+        <v>88.39999999999998</v>
       </c>
       <c r="AV16" t="n">
         <v>476.1</v>
@@ -9114,7 +9114,7 @@
         <v>2.6</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.900000000000013</v>
+        <v>4.700000000000038</v>
       </c>
       <c r="AY16" t="n">
         <v>127.2</v>
@@ -9141,7 +9141,7 @@
         <v>11.5</v>
       </c>
       <c r="BG16" t="n">
-        <v>23.5</v>
+        <v>16.5</v>
       </c>
       <c r="BH16" t="n">
         <v>95</v>
@@ -9150,7 +9150,7 @@
         <v>10.2</v>
       </c>
       <c r="BJ16" t="n">
-        <v>130.2</v>
+        <v>26.59999999999962</v>
       </c>
       <c r="BK16" t="n">
         <v>1881.6</v>
@@ -9177,7 +9177,7 @@
         <v>-9.4</v>
       </c>
       <c r="BS16" t="n">
-        <v>14.39999999999998</v>
+        <v>9.199999999999937</v>
       </c>
       <c r="BT16" t="n">
         <v>221.1</v>
@@ -9186,7 +9186,7 @@
         <v>-13.7</v>
       </c>
       <c r="BV16" t="n">
-        <v>64.69999999999999</v>
+        <v>60.30000000000013</v>
       </c>
       <c r="BW16" t="n">
         <v>1959.6</v>
@@ -9204,7 +9204,7 @@
         <v>13.7</v>
       </c>
       <c r="CB16" t="n">
-        <v>66.60000000000019</v>
+        <v>39.10000000000079</v>
       </c>
       <c r="CC16" t="n">
         <v>1284.8</v>
@@ -9222,7 +9222,7 @@
         <v>7</v>
       </c>
       <c r="CH16" t="n">
-        <v>202.3999999999999</v>
+        <v>114.5999999999997</v>
       </c>
       <c r="CI16" t="n">
         <v>526</v>
@@ -9240,7 +9240,7 @@
         <v>24</v>
       </c>
       <c r="CN16" t="n">
-        <v>12.2</v>
+        <v>1.500000000000009</v>
       </c>
       <c r="CO16" t="n">
         <v>391.1</v>
@@ -9258,7 +9258,7 @@
         <v>-1.3</v>
       </c>
       <c r="CT16" t="n">
-        <v>144.6999999999999</v>
+        <v>109.4999999999995</v>
       </c>
       <c r="CU16" t="n">
         <v>1305.7</v>
@@ -9276,7 +9276,7 @@
         <v>7.4</v>
       </c>
       <c r="CZ16" t="n">
-        <v>59.5</v>
+        <v>4.799999999999997</v>
       </c>
       <c r="DA16" t="n">
         <v>221.5</v>
@@ -9330,7 +9330,7 @@
         <v>42.9</v>
       </c>
       <c r="DR16" t="n">
-        <v>371</v>
+        <v>312.5999999999998</v>
       </c>
       <c r="DS16" t="n">
         <v>1655.2</v>
@@ -9339,7 +9339,7 @@
         <v>12.9</v>
       </c>
       <c r="DU16" t="n">
-        <v>19.90000000000001</v>
+        <v>15.70000000000005</v>
       </c>
       <c r="DV16" t="n">
         <v>104.5</v>
@@ -9357,7 +9357,7 @@
         <v>17.3</v>
       </c>
       <c r="EA16" t="n">
-        <v>340.2</v>
+        <v>237.5000000000001</v>
       </c>
       <c r="EB16" t="n">
         <v>1159.9</v>
@@ -9366,7 +9366,7 @@
         <v>-22.4</v>
       </c>
       <c r="ED16" t="n">
-        <v>16.1</v>
+        <v>13.3</v>
       </c>
       <c r="EE16" t="n">
         <v>81.59999999999999</v>
@@ -9517,7 +9517,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>155.9</v>
+        <v>106.6999999999996</v>
       </c>
       <c r="C17" t="n">
         <v>1018.3</v>
@@ -9526,7 +9526,7 @@
         <v>16.6</v>
       </c>
       <c r="E17" t="n">
-        <v>53.5</v>
+        <v>16.29999999999995</v>
       </c>
       <c r="F17" t="n">
         <v>306.3</v>
@@ -9535,7 +9535,7 @@
         <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>7.5</v>
+        <v>3.900000000000012</v>
       </c>
       <c r="I17" t="n">
         <v>46.1</v>
@@ -9544,7 +9544,7 @@
         <v>7.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L17" t="n">
         <v>0.5</v>
@@ -9553,7 +9553,7 @@
         <v>-28.6</v>
       </c>
       <c r="N17" t="n">
-        <v>89.70000000000005</v>
+        <v>88.9000000000002</v>
       </c>
       <c r="O17" t="n">
         <v>769.6</v>
@@ -9562,7 +9562,7 @@
         <v>-2</v>
       </c>
       <c r="Q17" t="n">
-        <v>4120.700000000001</v>
+        <v>3371.700000000003</v>
       </c>
       <c r="R17" t="n">
         <v>24608.3</v>
@@ -9580,7 +9580,7 @@
         <v>-13.8</v>
       </c>
       <c r="W17" t="n">
-        <v>30.5</v>
+        <v>15.70000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>133.4</v>
@@ -9589,7 +9589,7 @@
         <v>-23.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>196.7</v>
+        <v>83.50000000000017</v>
       </c>
       <c r="AA17" t="n">
         <v>1608.2</v>
@@ -9598,7 +9598,7 @@
         <v>9.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>30.69999999999999</v>
+        <v>18.69999999999993</v>
       </c>
       <c r="AD17" t="n">
         <v>183.2</v>
@@ -9607,7 +9607,7 @@
         <v>6.6</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>6.800000000000018</v>
       </c>
       <c r="AG17" t="n">
         <v>194.6</v>
@@ -9616,7 +9616,7 @@
         <v>13.4</v>
       </c>
       <c r="AI17" t="n">
-        <v>4998.000000000004</v>
+        <v>4005.300000000007</v>
       </c>
       <c r="AJ17" t="n">
         <v>29840</v>
@@ -9634,7 +9634,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO17" t="n">
-        <v>13.4</v>
+        <v>3.699999999999998</v>
       </c>
       <c r="AP17" t="n">
         <v>53.7</v>
@@ -9643,7 +9643,7 @@
         <v>73.8</v>
       </c>
       <c r="AR17" t="n">
-        <v>5.799999999999976</v>
+        <v>0.9000000000000057</v>
       </c>
       <c r="AS17" t="n">
         <v>313.9</v>
@@ -9661,7 +9661,7 @@
         <v>3.1</v>
       </c>
       <c r="AX17" t="n">
-        <v>31</v>
+        <v>21.29999999999997</v>
       </c>
       <c r="AY17" t="n">
         <v>162.1</v>
@@ -9670,7 +9670,7 @@
         <v>-24.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>16.90000000000001</v>
+        <v>2.100000000000055</v>
       </c>
       <c r="BB17" t="n">
         <v>173.5</v>
@@ -9679,7 +9679,7 @@
         <v>-7.5</v>
       </c>
       <c r="BD17" t="n">
-        <v>102.3000000000001</v>
+        <v>78.30000000000004</v>
       </c>
       <c r="BE17" t="n">
         <v>597.1</v>
@@ -9697,7 +9697,7 @@
         <v>14.9</v>
       </c>
       <c r="BJ17" t="n">
-        <v>374.5</v>
+        <v>165.9000000000002</v>
       </c>
       <c r="BK17" t="n">
         <v>2480.3</v>
@@ -9715,7 +9715,7 @@
         <v>28.7</v>
       </c>
       <c r="BP17" t="n">
-        <v>237.4000000000001</v>
+        <v>163.1999999999999</v>
       </c>
       <c r="BQ17" t="n">
         <v>1391.1</v>
@@ -9724,7 +9724,7 @@
         <v>-7.1</v>
       </c>
       <c r="BS17" t="n">
-        <v>31.89999999999998</v>
+        <v>5.70000000000004</v>
       </c>
       <c r="BT17" t="n">
         <v>293.4</v>
@@ -9733,7 +9733,7 @@
         <v>-7.3</v>
       </c>
       <c r="BV17" t="n">
-        <v>380</v>
+        <v>252.8</v>
       </c>
       <c r="BW17" t="n">
         <v>2393.1</v>
@@ -9742,7 +9742,7 @@
         <v>9</v>
       </c>
       <c r="BY17" t="n">
-        <v>319.3</v>
+        <v>211.3000000000004</v>
       </c>
       <c r="BZ17" t="n">
         <v>1973.5</v>
@@ -9751,7 +9751,7 @@
         <v>11.5</v>
       </c>
       <c r="CB17" t="n">
-        <v>254.3</v>
+        <v>145.7999999999994</v>
       </c>
       <c r="CC17" t="n">
         <v>1666.7</v>
@@ -9760,7 +9760,7 @@
         <v>13</v>
       </c>
       <c r="CE17" t="n">
-        <v>55.10000000000002</v>
+        <v>8.700000000000042</v>
       </c>
       <c r="CF17" t="n">
         <v>314.9</v>
@@ -9769,7 +9769,7 @@
         <v>2.3</v>
       </c>
       <c r="CH17" t="n">
-        <v>174.5</v>
+        <v>27.30000000000021</v>
       </c>
       <c r="CI17" t="n">
         <v>594.6</v>
@@ -9787,7 +9787,7 @@
         <v>17.8</v>
       </c>
       <c r="CN17" t="n">
-        <v>85.19999999999999</v>
+        <v>60.79999999999998</v>
       </c>
       <c r="CO17" t="n">
         <v>483.7</v>
@@ -9796,7 +9796,7 @@
         <v>-0.1</v>
       </c>
       <c r="CQ17" t="n">
-        <v>18.89999999999998</v>
+        <v>5.299999999999899</v>
       </c>
       <c r="CR17" t="n">
         <v>382.5</v>
@@ -9805,7 +9805,7 @@
         <v>-0.8</v>
       </c>
       <c r="CT17" t="n">
-        <v>344.1999999999998</v>
+        <v>72.40000000000019</v>
       </c>
       <c r="CU17" t="n">
         <v>1883.1</v>
@@ -9814,7 +9814,7 @@
         <v>-7.9</v>
       </c>
       <c r="CW17" t="n">
-        <v>201</v>
+        <v>143.7999999999996</v>
       </c>
       <c r="CX17" t="n">
         <v>1173.9</v>
@@ -9832,7 +9832,7 @@
         <v>-25.4</v>
       </c>
       <c r="DC17" t="n">
-        <v>117.5</v>
+        <v>45.79999999999998</v>
       </c>
       <c r="DD17" t="n">
         <v>1170.4</v>
@@ -9841,7 +9841,7 @@
         <v>16.9</v>
       </c>
       <c r="DF17" t="n">
-        <v>497.2999999999997</v>
+        <v>390.4999999999999</v>
       </c>
       <c r="DG17" t="n">
         <v>2838.6</v>
@@ -9850,7 +9850,7 @@
         <v>4.2</v>
       </c>
       <c r="DI17" t="n">
-        <v>7.600000000000001</v>
+        <v>5.399999999999991</v>
       </c>
       <c r="DJ17" t="n">
         <v>37.1</v>
@@ -9859,7 +9859,7 @@
         <v>12.1</v>
       </c>
       <c r="DL17" t="n">
-        <v>105.8</v>
+        <v>92.99999999999999</v>
       </c>
       <c r="DM17" t="n">
         <v>695.5</v>
@@ -9868,7 +9868,7 @@
         <v>14.8</v>
       </c>
       <c r="DO17" t="n">
-        <v>35.40000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="DP17" t="n">
         <v>300.4</v>
@@ -9895,7 +9895,7 @@
         <v>25.6</v>
       </c>
       <c r="DX17" t="n">
-        <v>98.40000000000009</v>
+        <v>48.60000000000008</v>
       </c>
       <c r="DY17" t="n">
         <v>770.1</v>
@@ -9913,7 +9913,7 @@
         <v>-21.8</v>
       </c>
       <c r="ED17" t="n">
-        <v>16.9</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="EE17" t="n">
         <v>94</v>
@@ -10172,7 +10172,7 @@
         <v>-1.7</v>
       </c>
       <c r="AL18" t="n">
-        <v>14.40000000000001</v>
+        <v>4.400000000000009</v>
       </c>
       <c r="AM18" t="n">
         <v>112.2</v>
@@ -10181,7 +10181,7 @@
         <v>5.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>11.3</v>
+        <v>6.700000000000001</v>
       </c>
       <c r="AP18" t="n">
         <v>56.6</v>
@@ -10208,7 +10208,7 @@
         <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>28.60000000000002</v>
+        <v>2.500000000000028</v>
       </c>
       <c r="AY18" t="n">
         <v>183.5</v>
@@ -10217,7 +10217,7 @@
         <v>-25.3</v>
       </c>
       <c r="BA18" t="n">
-        <v>15.29999999999998</v>
+        <v>5.799999999999947</v>
       </c>
       <c r="BB18" t="n">
         <v>197.3</v>
@@ -10226,7 +10226,7 @@
         <v>-3.5</v>
       </c>
       <c r="BD18" t="n">
-        <v>97.39999999999998</v>
+        <v>7.099999999999909</v>
       </c>
       <c r="BE18" t="n">
         <v>713.2</v>
@@ -10244,7 +10244,7 @@
         <v>19.4</v>
       </c>
       <c r="BJ18" t="n">
-        <v>317.2999999999997</v>
+        <v>72.99999999999972</v>
       </c>
       <c r="BK18" t="n">
         <v>2822.4</v>
@@ -10253,7 +10253,7 @@
         <v>-23.2</v>
       </c>
       <c r="BM18" t="n">
-        <v>73.10000000000002</v>
+        <v>18.09999999999991</v>
       </c>
       <c r="BN18" t="n">
         <v>841.8</v>
@@ -10307,7 +10307,7 @@
         <v>15.6</v>
       </c>
       <c r="CE18" t="n">
-        <v>47.69999999999999</v>
+        <v>15.79999999999996</v>
       </c>
       <c r="CF18" t="n">
         <v>381.2</v>
@@ -10325,7 +10325,7 @@
         <v>-50.6</v>
       </c>
       <c r="CK18" t="n">
-        <v>26.5000000000002</v>
+        <v>21.10000000000056</v>
       </c>
       <c r="CL18" t="n">
         <v>1150.9</v>
@@ -10343,7 +10343,7 @@
         <v>0.1</v>
       </c>
       <c r="CQ18" t="n">
-        <v>91</v>
+        <v>60.00000000000009</v>
       </c>
       <c r="CR18" t="n">
         <v>461.4</v>
@@ -10361,7 +10361,7 @@
         <v>-6.3</v>
       </c>
       <c r="CW18" t="n">
-        <v>200.3</v>
+        <v>27.9000000000002</v>
       </c>
       <c r="CX18" t="n">
         <v>1379.9</v>
@@ -10424,7 +10424,7 @@
         <v>26.5</v>
       </c>
       <c r="DR18" t="n">
-        <v>327.2000000000003</v>
+        <v>307.4000000000005</v>
       </c>
       <c r="DS18" t="n">
         <v>2456.8</v>
@@ -10433,7 +10433,7 @@
         <v>10.8</v>
       </c>
       <c r="DU18" t="n">
-        <v>22.69999999999999</v>
+        <v>9.699999999999989</v>
       </c>
       <c r="DV18" t="n">
         <v>164.6</v>
@@ -10460,7 +10460,7 @@
         <v>-25.1</v>
       </c>
       <c r="ED18" t="n">
-        <v>4.100000000000001</v>
+        <v>3.300000000000004</v>
       </c>
       <c r="EE18" t="n">
         <v>129.2</v>
@@ -10611,7 +10611,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.2</v>
+        <v>78.8000000000002</v>
       </c>
       <c r="C19" t="n">
         <v>1385</v>
@@ -10629,7 +10629,7 @@
         <v>2.2</v>
       </c>
       <c r="H19" t="n">
-        <v>4.199999999999996</v>
+        <v>1.099999999999995</v>
       </c>
       <c r="I19" t="n">
         <v>57.3</v>
@@ -10656,7 +10656,7 @@
         <v>2.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>931</v>
+        <v>438.4000000000015</v>
       </c>
       <c r="R19" t="n">
         <v>33045</v>
@@ -10683,7 +10683,7 @@
         <v>-30.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>55.40000000000009</v>
+        <v>26.40000000000009</v>
       </c>
       <c r="AA19" t="n">
         <v>2072.4</v>
@@ -10692,7 +10692,7 @@
         <v>9.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>6.5</v>
+        <v>3.099999999999952</v>
       </c>
       <c r="AD19" t="n">
         <v>258.2</v>
@@ -10701,7 +10701,7 @@
         <v>9.9</v>
       </c>
       <c r="AF19" t="n">
-        <v>22.60000000000002</v>
+        <v>10.40000000000004</v>
       </c>
       <c r="AG19" t="n">
         <v>270.3</v>
@@ -10710,7 +10710,7 @@
         <v>14.7</v>
       </c>
       <c r="AI19" t="n">
-        <v>795.1000000000049</v>
+        <v>227.5000000000209</v>
       </c>
       <c r="AJ19" t="n">
         <v>40163.5</v>
@@ -10764,7 +10764,7 @@
         <v>-23.7</v>
       </c>
       <c r="BA19" t="n">
-        <v>31.70000000000002</v>
+        <v>1.100000000000062</v>
       </c>
       <c r="BB19" t="n">
         <v>227.1</v>
@@ -10782,7 +10782,7 @@
         <v>11.7</v>
       </c>
       <c r="BG19" t="n">
-        <v>24.59999999999999</v>
+        <v>21.19999999999999</v>
       </c>
       <c r="BH19" t="n">
         <v>200</v>
@@ -10809,7 +10809,7 @@
         <v>23.6</v>
       </c>
       <c r="BP19" t="n">
-        <v>231.9000000000001</v>
+        <v>164.9000000000001</v>
       </c>
       <c r="BQ19" t="n">
         <v>1918.3</v>
@@ -10818,7 +10818,7 @@
         <v>-4.3</v>
       </c>
       <c r="BS19" t="n">
-        <v>16.49999999999995</v>
+        <v>14.09999999999987</v>
       </c>
       <c r="BT19" t="n">
         <v>379.3</v>
@@ -10827,7 +10827,7 @@
         <v>-0.6</v>
       </c>
       <c r="BV19" t="n">
-        <v>356</v>
+        <v>303.5999999999995</v>
       </c>
       <c r="BW19" t="n">
         <v>3311.1</v>
@@ -10836,7 +10836,7 @@
         <v>11</v>
       </c>
       <c r="BY19" t="n">
-        <v>281.7999999999997</v>
+        <v>234.9999999999993</v>
       </c>
       <c r="BZ19" t="n">
         <v>2731.8</v>
@@ -10845,7 +10845,7 @@
         <v>12.4</v>
       </c>
       <c r="CB19" t="n">
-        <v>99.80000000000007</v>
+        <v>46.30000000000007</v>
       </c>
       <c r="CC19" t="n">
         <v>2359.1</v>
@@ -10863,7 +10863,7 @@
         <v>11.8</v>
       </c>
       <c r="CH19" t="n">
-        <v>83.9999999999998</v>
+        <v>22.79999999999958</v>
       </c>
       <c r="CI19" t="n">
         <v>780.3</v>
@@ -10872,7 +10872,7 @@
         <v>-53.1</v>
       </c>
       <c r="CK19" t="n">
-        <v>135.1999999999998</v>
+        <v>84.89999999999922</v>
       </c>
       <c r="CL19" t="n">
         <v>1306.8</v>
@@ -10917,7 +10917,7 @@
         <v>4.3</v>
       </c>
       <c r="CZ19" t="n">
-        <v>54.19999999999999</v>
+        <v>40.59999999999997</v>
       </c>
       <c r="DA19" t="n">
         <v>385.4</v>
@@ -10926,7 +10926,7 @@
         <v>-21.9</v>
       </c>
       <c r="DC19" t="n">
-        <v>66.10000000000002</v>
+        <v>23.70000000000004</v>
       </c>
       <c r="DD19" t="n">
         <v>1478.1</v>
@@ -10935,7 +10935,7 @@
         <v>17.6</v>
       </c>
       <c r="DF19" t="n">
-        <v>423</v>
+        <v>400.3999999999986</v>
       </c>
       <c r="DG19" t="n">
         <v>3807.4</v>
@@ -10953,7 +10953,7 @@
         <v>10.6</v>
       </c>
       <c r="DL19" t="n">
-        <v>117.9</v>
+        <v>40.5</v>
       </c>
       <c r="DM19" t="n">
         <v>958.6</v>
@@ -10962,7 +10962,7 @@
         <v>12</v>
       </c>
       <c r="DO19" t="n">
-        <v>9</v>
+        <v>0.9000000000000128</v>
       </c>
       <c r="DP19" t="n">
         <v>388.5</v>
@@ -10989,7 +10989,7 @@
         <v>16.4</v>
       </c>
       <c r="DX19" t="n">
-        <v>126.9000000000001</v>
+        <v>39.10000000000026</v>
       </c>
       <c r="DY19" t="n">
         <v>1034.3</v>
@@ -10998,7 +10998,7 @@
         <v>12.5</v>
       </c>
       <c r="EA19" t="n">
-        <v>331.9000000000001</v>
+        <v>322.3000000000007</v>
       </c>
       <c r="EB19" t="n">
         <v>1817.9</v>
@@ -11007,7 +11007,7 @@
         <v>-31.3</v>
       </c>
       <c r="ED19" t="n">
-        <v>7.699999999999996</v>
+        <v>3.599999999999994</v>
       </c>
       <c r="EE19" t="n">
         <v>168.2</v>
@@ -11158,7 +11158,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>146.3</v>
+        <v>29.79999999999991</v>
       </c>
       <c r="C20" t="n">
         <v>1553.8</v>
@@ -11167,7 +11167,7 @@
         <v>12.9</v>
       </c>
       <c r="E20" t="n">
-        <v>34.20000000000005</v>
+        <v>32.79999999999995</v>
       </c>
       <c r="F20" t="n">
         <v>481.3</v>
@@ -11194,7 +11194,7 @@
         <v>75</v>
       </c>
       <c r="N20" t="n">
-        <v>121.6999999999998</v>
+        <v>69.49999999999962</v>
       </c>
       <c r="O20" t="n">
         <v>1195.5</v>
@@ -11203,7 +11203,7 @@
         <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>4003.599999999999</v>
+        <v>2387.899999999998</v>
       </c>
       <c r="R20" t="n">
         <v>37904.2</v>
@@ -11212,7 +11212,7 @@
         <v>-3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>352.5</v>
+        <v>217.0999999999995</v>
       </c>
       <c r="U20" t="n">
         <v>3152.8</v>
@@ -11221,7 +11221,7 @@
         <v>-13</v>
       </c>
       <c r="W20" t="n">
-        <v>23.69999999999999</v>
+        <v>23.69999999999991</v>
       </c>
       <c r="X20" t="n">
         <v>202.2</v>
@@ -11230,7 +11230,7 @@
         <v>-29.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>174.5</v>
+        <v>92.6999999999998</v>
       </c>
       <c r="AA20" t="n">
         <v>2390.3</v>
@@ -11239,7 +11239,7 @@
         <v>10</v>
       </c>
       <c r="AC20" t="n">
-        <v>29.5</v>
+        <v>18.20000000000002</v>
       </c>
       <c r="AD20" t="n">
         <v>296.4</v>
@@ -11257,7 +11257,7 @@
         <v>18.9</v>
       </c>
       <c r="AI20" t="n">
-        <v>4741.5</v>
+        <v>3435.099999999982</v>
       </c>
       <c r="AJ20" t="n">
         <v>45933.5</v>
@@ -11284,7 +11284,7 @@
         <v>129.5</v>
       </c>
       <c r="AR20" t="n">
-        <v>20.40000000000003</v>
+        <v>17.19999999999999</v>
       </c>
       <c r="AS20" t="n">
         <v>507</v>
@@ -11293,7 +11293,7 @@
         <v>12</v>
       </c>
       <c r="AU20" t="n">
-        <v>88.10000000000002</v>
+        <v>35.69999999999996</v>
       </c>
       <c r="AV20" t="n">
         <v>915.6</v>
@@ -11302,7 +11302,7 @@
         <v>8.1</v>
       </c>
       <c r="AX20" t="n">
-        <v>26.69999999999999</v>
+        <v>15.50000000000005</v>
       </c>
       <c r="AY20" t="n">
         <v>235.8</v>
@@ -11311,7 +11311,7 @@
         <v>-23.6</v>
       </c>
       <c r="BA20" t="n">
-        <v>21</v>
+        <v>4.599999999999959</v>
       </c>
       <c r="BB20" t="n">
         <v>256.4</v>
@@ -11338,7 +11338,7 @@
         <v>17.1</v>
       </c>
       <c r="BJ20" t="n">
-        <v>399.8000000000002</v>
+        <v>62.19999999999879</v>
       </c>
       <c r="BK20" t="n">
         <v>3734.6</v>
@@ -11347,7 +11347,7 @@
         <v>-16.6</v>
       </c>
       <c r="BM20" t="n">
-        <v>59.39999999999998</v>
+        <v>14.19999999999993</v>
       </c>
       <c r="BN20" t="n">
         <v>997.1</v>
@@ -11365,7 +11365,7 @@
         <v>-3.2</v>
       </c>
       <c r="BS20" t="n">
-        <v>36.30000000000001</v>
+        <v>4.500000000000151</v>
       </c>
       <c r="BT20" t="n">
         <v>437.7</v>
@@ -11392,7 +11392,7 @@
         <v>13.7</v>
       </c>
       <c r="CB20" t="n">
-        <v>186.2999999999997</v>
+        <v>40.19999999999956</v>
       </c>
       <c r="CC20" t="n">
         <v>2773.3</v>
@@ -11401,7 +11401,7 @@
         <v>13.5</v>
       </c>
       <c r="CE20" t="n">
-        <v>49.40000000000003</v>
+        <v>27.19999999999999</v>
       </c>
       <c r="CF20" t="n">
         <v>509.1</v>
@@ -11410,7 +11410,7 @@
         <v>8.5</v>
       </c>
       <c r="CH20" t="n">
-        <v>227.5999999999999</v>
+        <v>90.20000000000041</v>
       </c>
       <c r="CI20" t="n">
         <v>907.5</v>
@@ -11428,7 +11428,7 @@
         <v>7.9</v>
       </c>
       <c r="CN20" t="n">
-        <v>59.5</v>
+        <v>26.9000000000001</v>
       </c>
       <c r="CO20" t="n">
         <v>689.7</v>
@@ -11446,7 +11446,7 @@
         <v>-1.6</v>
       </c>
       <c r="CT20" t="n">
-        <v>402.0999999999999</v>
+        <v>292.7000000000013</v>
       </c>
       <c r="CU20" t="n">
         <v>3436.7</v>
@@ -11473,7 +11473,7 @@
         <v>-20.2</v>
       </c>
       <c r="DC20" t="n">
-        <v>102.2</v>
+        <v>36.09999999999998</v>
       </c>
       <c r="DD20" t="n">
         <v>1714</v>
@@ -11500,7 +11500,7 @@
         <v>6</v>
       </c>
       <c r="DL20" t="n">
-        <v>89.30000000000007</v>
+        <v>10.10000000000007</v>
       </c>
       <c r="DM20" t="n">
         <v>1077.3</v>
@@ -11509,7 +11509,7 @@
         <v>10.6</v>
       </c>
       <c r="DO20" t="n">
-        <v>41.80000000000001</v>
+        <v>31.9</v>
       </c>
       <c r="DP20" t="n">
         <v>438.1</v>
@@ -11545,7 +11545,7 @@
         <v>11.5</v>
       </c>
       <c r="EA20" t="n">
-        <v>410.4000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="EB20" t="n">
         <v>1972.1</v>
@@ -11554,7 +11554,7 @@
         <v>-41.8</v>
       </c>
       <c r="ED20" t="n">
-        <v>3.600000000000009</v>
+        <v>1.509903313490213e-14</v>
       </c>
       <c r="EE20" t="n">
         <v>187.9</v>
@@ -11714,7 +11714,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>45.5999999999999</v>
+        <v>11.39999999999985</v>
       </c>
       <c r="F21" t="n">
         <v>520.1</v>
@@ -11723,7 +11723,7 @@
         <v>5.4</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9999999999999849</v>
+        <v>0.3999999999999603</v>
       </c>
       <c r="I21" t="n">
         <v>72.8</v>
@@ -11759,7 +11759,7 @@
         <v>-4.9</v>
       </c>
       <c r="T21" t="n">
-        <v>340.8000000000002</v>
+        <v>56.00000000000045</v>
       </c>
       <c r="U21" t="n">
         <v>2970.5</v>
@@ -11795,7 +11795,7 @@
         <v>10.2</v>
       </c>
       <c r="AF21" t="n">
-        <v>14.40000000000003</v>
+        <v>5.100000000000069</v>
       </c>
       <c r="AG21" t="n">
         <v>342</v>
@@ -11813,7 +11813,7 @@
         <v>-2.9</v>
       </c>
       <c r="AL21" t="n">
-        <v>6.800000000000018</v>
+        <v>6.000000000000035</v>
       </c>
       <c r="AM21" t="n">
         <v>173.6</v>
@@ -11822,7 +11822,7 @@
         <v>5.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.900000000000002</v>
+        <v>2.500000000000004</v>
       </c>
       <c r="AP21" t="n">
         <v>26</v>
@@ -11831,7 +11831,7 @@
         <v>154.9</v>
       </c>
       <c r="AR21" t="n">
-        <v>20.59999999999997</v>
+        <v>0.1999999999999389</v>
       </c>
       <c r="AS21" t="n">
         <v>524</v>
@@ -11840,7 +11840,7 @@
         <v>10.8</v>
       </c>
       <c r="AU21" t="n">
-        <v>68.79999999999995</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="AV21" t="n">
         <v>985.3</v>
@@ -11867,7 +11867,7 @@
         <v>-1.1</v>
       </c>
       <c r="BD21" t="n">
-        <v>29.00000000000013</v>
+        <v>4.000000000000131</v>
       </c>
       <c r="BE21" t="n">
         <v>1049.9</v>
@@ -11876,7 +11876,7 @@
         <v>13.9</v>
       </c>
       <c r="BG21" t="n">
-        <v>15.70000000000002</v>
+        <v>12.9</v>
       </c>
       <c r="BH21" t="n">
         <v>259.6</v>
@@ -11903,7 +11903,7 @@
         <v>19.3</v>
       </c>
       <c r="BP21" t="n">
-        <v>3.400000000000119</v>
+        <v>1.60000000000042</v>
       </c>
       <c r="BQ21" t="n">
         <v>2418.5</v>
@@ -11939,7 +11939,7 @@
         <v>16.2</v>
       </c>
       <c r="CB21" t="n">
-        <v>168.5000000000005</v>
+        <v>82.00000000000088</v>
       </c>
       <c r="CC21" t="n">
         <v>3026.5</v>
@@ -11975,7 +11975,7 @@
         <v>3.4</v>
       </c>
       <c r="CN21" t="n">
-        <v>59.2</v>
+        <v>15.99999999999995</v>
       </c>
       <c r="CO21" t="n">
         <v>730.8</v>
@@ -11984,7 +11984,7 @@
         <v>-6.4</v>
       </c>
       <c r="CQ21" t="n">
-        <v>31.30000000000004</v>
+        <v>20.70000000000013</v>
       </c>
       <c r="CR21" t="n">
         <v>685.3</v>
@@ -12011,7 +12011,7 @@
         <v>2.8</v>
       </c>
       <c r="CZ21" t="n">
-        <v>50.10000000000002</v>
+        <v>33.5</v>
       </c>
       <c r="DA21" t="n">
         <v>506.2</v>
@@ -12029,7 +12029,7 @@
         <v>17.6</v>
       </c>
       <c r="DF21" t="n">
-        <v>55.89999999999964</v>
+        <v>22.09999999999946</v>
       </c>
       <c r="DG21" t="n">
         <v>4721.3</v>
@@ -12038,7 +12038,7 @@
         <v>2.4</v>
       </c>
       <c r="DI21" t="n">
-        <v>5.899999999999999</v>
+        <v>4.900000000000013</v>
       </c>
       <c r="DJ21" t="n">
         <v>62</v>
@@ -12065,7 +12065,7 @@
         <v>13.1</v>
       </c>
       <c r="DR21" t="n">
-        <v>73.09999999999991</v>
+        <v>6.199999999999818</v>
       </c>
       <c r="DS21" t="n">
         <v>3596</v>
@@ -12083,7 +12083,7 @@
         <v>19.8</v>
       </c>
       <c r="DX21" t="n">
-        <v>133.8</v>
+        <v>84.40000000000039</v>
       </c>
       <c r="DY21" t="n">
         <v>1301.4</v>
@@ -12092,7 +12092,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="EA21" t="n">
-        <v>279.7000000000003</v>
+        <v>201.2000000000003</v>
       </c>
       <c r="EB21" t="n">
         <v>2119.1</v>
@@ -12101,7 +12101,7 @@
         <v>-44.2</v>
       </c>
       <c r="ED21" t="n">
-        <v>9.399999999999991</v>
+        <v>2.199999999999974</v>
       </c>
       <c r="EE21" t="n">
         <v>206.1</v>
@@ -12270,7 +12270,7 @@
         <v>6.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.600000000000005</v>
+        <v>0.9000000000000474</v>
       </c>
       <c r="I22" t="n">
         <v>80.8</v>
@@ -12288,7 +12288,7 @@
         <v>75</v>
       </c>
       <c r="N22" t="n">
-        <v>201.4999999999998</v>
+        <v>106.299999999999</v>
       </c>
       <c r="O22" t="n">
         <v>1566.7</v>
@@ -12297,7 +12297,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Q22" t="n">
-        <v>1700.699999999999</v>
+        <v>104.0999999999958</v>
       </c>
       <c r="R22" t="n">
         <v>46283.4</v>
@@ -12315,7 +12315,7 @@
         <v>-23.3</v>
       </c>
       <c r="W22" t="n">
-        <v>11.80000000000001</v>
+        <v>1.999999999999998</v>
       </c>
       <c r="X22" t="n">
         <v>264.1</v>
@@ -12324,7 +12324,7 @@
         <v>-22.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>124.5000000000005</v>
+        <v>61.7000000000008</v>
       </c>
       <c r="AA22" t="n">
         <v>2842.8</v>
@@ -12333,7 +12333,7 @@
         <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>20.09999999999997</v>
+        <v>1.099999999999969</v>
       </c>
       <c r="AD22" t="n">
         <v>379.2</v>
@@ -12342,7 +12342,7 @@
         <v>7.8</v>
       </c>
       <c r="AF22" t="n">
-        <v>34.80000000000001</v>
+        <v>15.29999999999991</v>
       </c>
       <c r="AG22" t="n">
         <v>397.8</v>
@@ -12351,7 +12351,7 @@
         <v>18.2</v>
       </c>
       <c r="AI22" t="n">
-        <v>1154.000000000007</v>
+        <v>254.30000000001</v>
       </c>
       <c r="AJ22" t="n">
         <v>56100.7</v>
@@ -12378,7 +12378,7 @@
         <v>80.40000000000001</v>
       </c>
       <c r="AR22" t="n">
-        <v>65.90000000000001</v>
+        <v>45.1000000000001</v>
       </c>
       <c r="AS22" t="n">
         <v>585.3</v>
@@ -12387,7 +12387,7 @@
         <v>13.8</v>
       </c>
       <c r="AU22" t="n">
-        <v>173.7000000000002</v>
+        <v>36.10000000000025</v>
       </c>
       <c r="AV22" t="n">
         <v>1091.5</v>
@@ -12396,7 +12396,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AX22" t="n">
-        <v>16.19999999999999</v>
+        <v>6.899999999999977</v>
       </c>
       <c r="AY22" t="n">
         <v>285.7</v>
@@ -12405,7 +12405,7 @@
         <v>-23</v>
       </c>
       <c r="BA22" t="n">
-        <v>34.30000000000001</v>
+        <v>3.50000000000005</v>
       </c>
       <c r="BB22" t="n">
         <v>324.5</v>
@@ -12414,7 +12414,7 @@
         <v>-0.4</v>
       </c>
       <c r="BD22" t="n">
-        <v>57.09999999999989</v>
+        <v>11.59999999999963</v>
       </c>
       <c r="BE22" t="n">
         <v>1189.2</v>
@@ -12423,7 +12423,7 @@
         <v>13.7</v>
       </c>
       <c r="BG22" t="n">
-        <v>37.80000000000001</v>
+        <v>7.799999999999981</v>
       </c>
       <c r="BH22" t="n">
         <v>295.3</v>
@@ -12432,7 +12432,7 @@
         <v>13</v>
       </c>
       <c r="BJ22" t="n">
-        <v>214.0999999999995</v>
+        <v>56.69999999999987</v>
       </c>
       <c r="BK22" t="n">
         <v>4615.9</v>
@@ -12441,7 +12441,7 @@
         <v>-13.9</v>
       </c>
       <c r="BM22" t="n">
-        <v>846.9</v>
+        <v>837.9</v>
       </c>
       <c r="BN22" t="n">
         <v>1057.9</v>
@@ -12450,7 +12450,7 @@
         <v>12.1</v>
       </c>
       <c r="BP22" t="n">
-        <v>192.5</v>
+        <v>187.4999999999995</v>
       </c>
       <c r="BQ22" t="n">
         <v>2662.7</v>
@@ -12459,7 +12459,7 @@
         <v>-1.7</v>
       </c>
       <c r="BS22" t="n">
-        <v>41.39999999999998</v>
+        <v>26.60000000000002</v>
       </c>
       <c r="BT22" t="n">
         <v>520.3</v>
@@ -12468,7 +12468,7 @@
         <v>1.8</v>
       </c>
       <c r="BV22" t="n">
-        <v>227.4999999999995</v>
+        <v>136.0999999999999</v>
       </c>
       <c r="BW22" t="n">
         <v>4643.3</v>
@@ -12477,7 +12477,7 @@
         <v>17.7</v>
       </c>
       <c r="BY22" t="n">
-        <v>104.5</v>
+        <v>59.70000000000078</v>
       </c>
       <c r="BZ22" t="n">
         <v>3827.7</v>
@@ -12495,7 +12495,7 @@
         <v>13.3</v>
       </c>
       <c r="CE22" t="n">
-        <v>75.30000000000004</v>
+        <v>68.5000000000002</v>
       </c>
       <c r="CF22" t="n">
         <v>604.2</v>
@@ -12504,7 +12504,7 @@
         <v>5.7</v>
       </c>
       <c r="CH22" t="n">
-        <v>2131.1</v>
+        <v>1944.5</v>
       </c>
       <c r="CI22" t="n">
         <v>1200.5</v>
@@ -12513,7 +12513,7 @@
         <v>-47.2</v>
       </c>
       <c r="CK22" t="n">
-        <v>1393.7</v>
+        <v>1351.7</v>
       </c>
       <c r="CL22" t="n">
         <v>1695</v>
@@ -12522,7 +12522,7 @@
         <v>-0.4</v>
       </c>
       <c r="CN22" t="n">
-        <v>114.7999999999999</v>
+        <v>55.59999999999989</v>
       </c>
       <c r="CO22" t="n">
         <v>836.5</v>
@@ -12531,7 +12531,7 @@
         <v>-7</v>
       </c>
       <c r="CQ22" t="n">
-        <v>49.59999999999999</v>
+        <v>18.29999999999995</v>
       </c>
       <c r="CR22" t="n">
         <v>773.5</v>
@@ -12567,7 +12567,7 @@
         <v>-10.7</v>
       </c>
       <c r="DC22" t="n">
-        <v>209.3999999999999</v>
+        <v>176.3999999999999</v>
       </c>
       <c r="DD22" t="n">
         <v>1976.5</v>
@@ -12576,7 +12576,7 @@
         <v>17.4</v>
       </c>
       <c r="DF22" t="n">
-        <v>65.19999999999982</v>
+        <v>9.300000000000175</v>
       </c>
       <c r="DG22" t="n">
         <v>5174</v>
@@ -12594,7 +12594,7 @@
         <v>-12.4</v>
       </c>
       <c r="DL22" t="n">
-        <v>83.30000000000018</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="DM22" t="n">
         <v>1340.2</v>
@@ -12603,7 +12603,7 @@
         <v>8.4</v>
       </c>
       <c r="DO22" t="n">
-        <v>25.90000000000003</v>
+        <v>2.10000000000008</v>
       </c>
       <c r="DP22" t="n">
         <v>504.6</v>
@@ -12612,7 +12612,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="DR22" t="n">
-        <v>100.5</v>
+        <v>21.20000000000027</v>
       </c>
       <c r="DS22" t="n">
         <v>4094.7</v>
@@ -12648,7 +12648,7 @@
         <v>-42.3</v>
       </c>
       <c r="ED22" t="n">
-        <v>30.3</v>
+        <v>15.10000000000003</v>
       </c>
       <c r="EE22" t="n">
         <v>227.9</v>
@@ -12799,7 +12799,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>173.7</v>
+        <v>113.8999999999998</v>
       </c>
       <c r="C23" t="n">
         <v>2216.4</v>
@@ -12808,7 +12808,7 @@
         <v>12.9</v>
       </c>
       <c r="E23" t="n">
-        <v>29.7</v>
+        <v>13.89999999999982</v>
       </c>
       <c r="F23" t="n">
         <v>700.4</v>
@@ -12817,7 +12817,7 @@
         <v>5.9</v>
       </c>
       <c r="H23" t="n">
-        <v>10.5</v>
+        <v>6.299999999999975</v>
       </c>
       <c r="I23" t="n">
         <v>90.8</v>
@@ -12835,7 +12835,7 @@
         <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>213.6</v>
+        <v>12.10000000000019</v>
       </c>
       <c r="O23" t="n">
         <v>1887.6</v>
@@ -12844,7 +12844,7 @@
         <v>3.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>5241.1</v>
+        <v>2638.000000000004</v>
       </c>
       <c r="R23" t="n">
         <v>51903.9</v>
@@ -12853,7 +12853,7 @@
         <v>-5.2</v>
       </c>
       <c r="T23" t="n">
-        <v>103.2000000000005</v>
+        <v>57.60000000000184</v>
       </c>
       <c r="U23" t="n">
         <v>3481</v>
@@ -12862,7 +12862,7 @@
         <v>-25.6</v>
       </c>
       <c r="W23" t="n">
-        <v>15.7</v>
+        <v>1.899999999999992</v>
       </c>
       <c r="X23" t="n">
         <v>311</v>
@@ -12871,7 +12871,7 @@
         <v>-19.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>103.9999999999998</v>
+        <v>42.299999999999</v>
       </c>
       <c r="AA23" t="n">
         <v>3119.5</v>
@@ -12880,7 +12880,7 @@
         <v>5.9</v>
       </c>
       <c r="AC23" t="n">
-        <v>41.5</v>
+        <v>20.30000000000006</v>
       </c>
       <c r="AD23" t="n">
         <v>437.6</v>
@@ -12889,7 +12889,7 @@
         <v>4.1</v>
       </c>
       <c r="AF23" t="n">
-        <v>42.4</v>
+        <v>7.599999999999987</v>
       </c>
       <c r="AG23" t="n">
         <v>462.7</v>
@@ -12898,7 +12898,7 @@
         <v>10.8</v>
       </c>
       <c r="AI23" t="n">
-        <v>6656</v>
+        <v>5247.699999999983</v>
       </c>
       <c r="AJ23" t="n">
         <v>61995.5</v>
@@ -12907,7 +12907,7 @@
         <v>-3.3</v>
       </c>
       <c r="AL23" t="n">
-        <v>20.8</v>
+        <v>13.8</v>
       </c>
       <c r="AM23" t="n">
         <v>237.4</v>
@@ -12916,14 +12916,14 @@
         <v>5.1</v>
       </c>
       <c r="AO23" t="n">
-        <v>67.3</v>
+        <v>150.3</v>
       </c>
       <c r="AP23" t="n">
         <v>22.2</v>
       </c>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
-        <v>78.7</v>
+        <v>12.8</v>
       </c>
       <c r="AS23" t="n">
         <v>682.4</v>
@@ -12941,7 +12941,7 @@
         <v>1.2</v>
       </c>
       <c r="AX23" t="n">
-        <v>38.3</v>
+        <v>15.20000000000003</v>
       </c>
       <c r="AY23" t="n">
         <v>301.5</v>
@@ -12950,7 +12950,7 @@
         <v>-28.8</v>
       </c>
       <c r="BA23" t="n">
-        <v>43.9</v>
+        <v>9.599999999999987</v>
       </c>
       <c r="BB23" t="n">
         <v>371.8</v>
@@ -12959,7 +12959,7 @@
         <v>-6.2</v>
       </c>
       <c r="BD23" t="n">
-        <v>127.7</v>
+        <v>42.50000000000035</v>
       </c>
       <c r="BE23" t="n">
         <v>1374.8</v>
@@ -12968,7 +12968,7 @@
         <v>12</v>
       </c>
       <c r="BG23" t="n">
-        <v>28.1</v>
+        <v>6.000000000000011</v>
       </c>
       <c r="BH23" t="n">
         <v>315.9</v>
@@ -12977,7 +12977,7 @@
         <v>5.6</v>
       </c>
       <c r="BJ23" t="n">
-        <v>492</v>
+        <v>142.5000000000008</v>
       </c>
       <c r="BK23" t="n">
         <v>5086.8</v>
@@ -13013,7 +13013,7 @@
         <v>0.6</v>
       </c>
       <c r="BV23" t="n">
-        <v>486.4000000000005</v>
+        <v>77.1000000000013</v>
       </c>
       <c r="BW23" t="n">
         <v>4816.3</v>
@@ -13022,7 +13022,7 @@
         <v>15.4</v>
       </c>
       <c r="BY23" t="n">
-        <v>490.6</v>
+        <v>303.9999999999997</v>
       </c>
       <c r="BZ23" t="n">
         <v>3900.6</v>
@@ -13031,7 +13031,7 @@
         <v>19</v>
       </c>
       <c r="CB23" t="n">
-        <v>279</v>
+        <v>24.2000000000008</v>
       </c>
       <c r="CC23" t="n">
         <v>3843.3</v>
@@ -13040,7 +13040,7 @@
         <v>10.8</v>
       </c>
       <c r="CE23" t="n">
-        <v>85.8</v>
+        <v>10.49999999999996</v>
       </c>
       <c r="CF23" t="n">
         <v>686.3</v>
@@ -13067,7 +13067,7 @@
         <v>1.8</v>
       </c>
       <c r="CN23" t="n">
-        <v>99.40000000000001</v>
+        <v>43.80000000000012</v>
       </c>
       <c r="CO23" t="n">
         <v>1009</v>
@@ -13076,7 +13076,7 @@
         <v>-10.9</v>
       </c>
       <c r="CQ23" t="n">
-        <v>95</v>
+        <v>27.10000000000006</v>
       </c>
       <c r="CR23" t="n">
         <v>872.8</v>
@@ -13085,7 +13085,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="CT23" t="n">
-        <v>192.9</v>
+        <v>76.10000000000258</v>
       </c>
       <c r="CU23" t="n">
         <v>5012.5</v>
@@ -13094,7 +13094,7 @@
         <v>3.1</v>
       </c>
       <c r="CW23" t="n">
-        <v>217.6</v>
+        <v>114.3999999999998</v>
       </c>
       <c r="CX23" t="n">
         <v>2466.8</v>
@@ -13103,7 +13103,7 @@
         <v>3.7</v>
       </c>
       <c r="CZ23" t="n">
-        <v>69.8</v>
+        <v>30.20000000000009</v>
       </c>
       <c r="DA23" t="n">
         <v>681.9</v>
@@ -13121,7 +13121,7 @@
         <v>10.2</v>
       </c>
       <c r="DF23" t="n">
-        <v>635.8000000000002</v>
+        <v>561.3000000000002</v>
       </c>
       <c r="DG23" t="n">
         <v>5275.3</v>
@@ -13139,7 +13139,7 @@
         <v>-0.1</v>
       </c>
       <c r="DL23" t="n">
-        <v>158.6</v>
+        <v>75.29999999999947</v>
       </c>
       <c r="DM23" t="n">
         <v>1580.1</v>
@@ -13148,7 +13148,7 @@
         <v>5.9</v>
       </c>
       <c r="DO23" t="n">
-        <v>38.9</v>
+        <v>10.89999999999989</v>
       </c>
       <c r="DP23" t="n">
         <v>622.1</v>
@@ -13157,7 +13157,7 @@
         <v>11.9</v>
       </c>
       <c r="DR23" t="n">
-        <v>423.4</v>
+        <v>295.4999999999999</v>
       </c>
       <c r="DS23" t="n">
         <v>4570</v>
@@ -13166,7 +13166,7 @@
         <v>7.5</v>
       </c>
       <c r="DU23" t="n">
-        <v>34.2</v>
+        <v>27.80000000000001</v>
       </c>
       <c r="DV23" t="n">
         <v>299.4</v>
@@ -13193,7 +13193,7 @@
         <v>-37.6</v>
       </c>
       <c r="ED23" t="n">
-        <v>29</v>
+        <v>8.099999999999991</v>
       </c>
       <c r="EE23" t="n">
         <v>215</v>
@@ -13353,7 +13353,7 @@
         <v>-55.1</v>
       </c>
       <c r="E24" t="n">
-        <v>33.89999999999999</v>
+        <v>4.199999999999992</v>
       </c>
       <c r="F24" t="n">
         <v>8.4</v>
@@ -13362,7 +13362,7 @@
         <v>-71.7</v>
       </c>
       <c r="H24" t="n">
-        <v>9.5</v>
+        <v>1.600000000000005</v>
       </c>
       <c r="I24" t="n">
         <v>5.5</v>
@@ -13371,7 +13371,7 @@
         <v>-47.6</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1</v>
+        <v>0.09999999999999995</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -13380,7 +13380,7 @@
         <v>-100</v>
       </c>
       <c r="N24" t="n">
-        <v>108.9</v>
+        <v>96.79999999999981</v>
       </c>
       <c r="O24" t="n">
         <v>218.3</v>
@@ -13389,7 +13389,7 @@
         <v>2.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>4701.799999999999</v>
+        <v>1161.399999999998</v>
       </c>
       <c r="R24" t="n">
         <v>3005.7</v>
@@ -13398,7 +13398,7 @@
         <v>-42.7</v>
       </c>
       <c r="T24" t="n">
-        <v>414.7</v>
+        <v>231.0999999999983</v>
       </c>
       <c r="U24" t="n">
         <v>156.7</v>
@@ -13407,7 +13407,7 @@
         <v>-66.40000000000001</v>
       </c>
       <c r="W24" t="n">
-        <v>15.4</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>4</v>
@@ -13416,7 +13416,7 @@
         <v>-74.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>262.3</v>
+        <v>54.30000000000041</v>
       </c>
       <c r="AA24" t="n">
         <v>414.9</v>
@@ -13425,7 +13425,7 @@
         <v>-10.9</v>
       </c>
       <c r="AC24" t="n">
-        <v>37.5</v>
+        <v>16.09999999999997</v>
       </c>
       <c r="AD24" t="n">
         <v>16.5</v>
@@ -13434,7 +13434,7 @@
         <v>-60.2</v>
       </c>
       <c r="AF24" t="n">
-        <v>34.4</v>
+        <v>26.80000000000001</v>
       </c>
       <c r="AG24" t="n">
         <v>13.8</v>
@@ -13443,7 +13443,7 @@
         <v>-67.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>5696.6</v>
+        <v>194.6000000000076</v>
       </c>
       <c r="AJ24" t="n">
         <v>4107</v>
@@ -13452,7 +13452,7 @@
         <v>-38.3</v>
       </c>
       <c r="AL24" t="n">
-        <v>18.2</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="AM24" t="n">
         <v>13.6</v>
@@ -13468,7 +13468,7 @@
       </c>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="n">
-        <v>42.89999999999999</v>
+        <v>30.09999999999999</v>
       </c>
       <c r="AS24" t="n">
         <v>45.4</v>
@@ -13486,7 +13486,7 @@
         <v>28.3</v>
       </c>
       <c r="AX24" t="n">
-        <v>37.40000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="AY24" t="n">
         <v>25.5</v>
@@ -13495,7 +13495,7 @@
         <v>-33.4</v>
       </c>
       <c r="BA24" t="n">
-        <v>25.8</v>
+        <v>16.20000000000001</v>
       </c>
       <c r="BB24" t="n">
         <v>25.8</v>
@@ -13504,7 +13504,7 @@
         <v>-41.2</v>
       </c>
       <c r="BD24" t="n">
-        <v>119.1</v>
+        <v>48.49999999999989</v>
       </c>
       <c r="BE24" t="n">
         <v>60.1</v>
@@ -13540,7 +13540,7 @@
         <v>31.5</v>
       </c>
       <c r="BP24" t="n">
-        <v>248.1</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="BQ24" t="n">
         <v>192</v>
@@ -13549,7 +13549,7 @@
         <v>-45.6</v>
       </c>
       <c r="BS24" t="n">
-        <v>40.10000000000001</v>
+        <v>28.69999999999995</v>
       </c>
       <c r="BT24" t="n">
         <v>59.5</v>
@@ -13558,7 +13558,7 @@
         <v>-34.5</v>
       </c>
       <c r="BV24" t="n">
-        <v>480.9</v>
+        <v>221.999999999999</v>
       </c>
       <c r="BW24" t="n">
         <v>548.2</v>
@@ -13567,7 +13567,7 @@
         <v>-23.2</v>
       </c>
       <c r="BY24" t="n">
-        <v>427.1999999999999</v>
+        <v>41.09999999999985</v>
       </c>
       <c r="BZ24" t="n">
         <v>479.9</v>
@@ -13585,7 +13585,7 @@
         <v>-68.2</v>
       </c>
       <c r="CE24" t="n">
-        <v>56.50000000000001</v>
+        <v>46.00000000000005</v>
       </c>
       <c r="CF24" t="n">
         <v>54.8</v>
@@ -13621,7 +13621,7 @@
         <v>-59.3</v>
       </c>
       <c r="CQ24" t="n">
-        <v>48.19999999999999</v>
+        <v>2.799999999999976</v>
       </c>
       <c r="CR24" t="n">
         <v>55</v>
@@ -13630,7 +13630,7 @@
         <v>-42.1</v>
       </c>
       <c r="CT24" t="n">
-        <v>265.9000000000001</v>
+        <v>73.00000000000009</v>
       </c>
       <c r="CU24" t="n">
         <v>25</v>
@@ -13648,7 +13648,7 @@
         <v>-62.3</v>
       </c>
       <c r="CZ24" t="n">
-        <v>52.40000000000001</v>
+        <v>22.19999999999992</v>
       </c>
       <c r="DA24" t="n">
         <v>54.1</v>
@@ -13657,7 +13657,7 @@
         <v>-22.5</v>
       </c>
       <c r="DC24" t="n">
-        <v>218.9</v>
+        <v>107.6999999999998</v>
       </c>
       <c r="DD24" t="n">
         <v>299.5</v>
@@ -13684,7 +13684,7 @@
         <v>-80</v>
       </c>
       <c r="DL24" t="n">
-        <v>111.9</v>
+        <v>36.60000000000019</v>
       </c>
       <c r="DM24" t="n">
         <v>80.90000000000001</v>
@@ -13693,7 +13693,7 @@
         <v>-49</v>
       </c>
       <c r="DO24" t="n">
-        <v>17.9</v>
+        <v>4.900000000000029</v>
       </c>
       <c r="DP24" t="n">
         <v>9.6</v>
@@ -13702,7 +13702,7 @@
         <v>-75.3</v>
       </c>
       <c r="DR24" t="n">
-        <v>331.8000000000001</v>
+        <v>8.900000000000148</v>
       </c>
       <c r="DS24" t="n">
         <v>266.6</v>
@@ -13720,7 +13720,7 @@
         <v>-31.3</v>
       </c>
       <c r="DX24" t="n">
-        <v>141.4</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="DY24" t="n">
         <v>168.3</v>
@@ -13889,7 +13889,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.9</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C25" t="n">
         <v>279.1</v>
@@ -13898,7 +13898,7 @@
         <v>-34.7</v>
       </c>
       <c r="E25" t="n">
-        <v>46.7</v>
+        <v>8.600000000000017</v>
       </c>
       <c r="F25" t="n">
         <v>62.3</v>
@@ -13916,7 +13916,7 @@
         <v>-35.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -13943,7 +13943,7 @@
         <v>-38.9</v>
       </c>
       <c r="T25" t="n">
-        <v>394.7</v>
+        <v>83.2000000000005</v>
       </c>
       <c r="U25" t="n">
         <v>383.4</v>
@@ -13961,7 +13961,7 @@
         <v>-62.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>236.4</v>
+        <v>78.0999999999998</v>
       </c>
       <c r="AA25" t="n">
         <v>614.1</v>
@@ -14022,7 +14022,7 @@
         <v>-37.1</v>
       </c>
       <c r="AU25" t="n">
-        <v>21.09999999999999</v>
+        <v>6.599999999999991</v>
       </c>
       <c r="AV25" t="n">
         <v>103.3</v>
@@ -14058,7 +14058,7 @@
         <v>-30.9</v>
       </c>
       <c r="BG25" t="n">
-        <v>16.3</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="BH25" t="n">
         <v>17.9</v>
@@ -14067,7 +14067,7 @@
         <v>-57</v>
       </c>
       <c r="BJ25" t="n">
-        <v>363.8000000000002</v>
+        <v>219.6000000000004</v>
       </c>
       <c r="BK25" t="n">
         <v>209.4</v>
@@ -14085,7 +14085,7 @@
         <v>28.5</v>
       </c>
       <c r="BP25" t="n">
-        <v>240.4000000000001</v>
+        <v>152.5000000000001</v>
       </c>
       <c r="BQ25" t="n">
         <v>421.1</v>
@@ -14121,7 +14121,7 @@
         <v>-30.7</v>
       </c>
       <c r="CB25" t="n">
-        <v>254.9</v>
+        <v>170.5</v>
       </c>
       <c r="CC25" t="n">
         <v>318.1</v>
@@ -14139,7 +14139,7 @@
         <v>-34.8</v>
       </c>
       <c r="CH25" t="n">
-        <v>129.5</v>
+        <v>76.50000000000001</v>
       </c>
       <c r="CI25" t="n">
         <v>-247</v>
@@ -14175,7 +14175,7 @@
         <v>-43.5</v>
       </c>
       <c r="CT25" t="n">
-        <v>251.5</v>
+        <v>178.4999999999999</v>
       </c>
       <c r="CU25" t="n">
         <v>573.2</v>
@@ -14184,7 +14184,7 @@
         <v>-12</v>
       </c>
       <c r="CW25" t="n">
-        <v>190.9</v>
+        <v>85.49999999999997</v>
       </c>
       <c r="CX25" t="n">
         <v>293.1</v>
@@ -14220,7 +14220,7 @@
         <v>-27.5</v>
       </c>
       <c r="DI25" t="n">
-        <v>6.599999999999998</v>
+        <v>5.999999999999996</v>
       </c>
       <c r="DJ25" t="n">
         <v>2.4</v>
@@ -14238,7 +14238,7 @@
         <v>-39.1</v>
       </c>
       <c r="DO25" t="n">
-        <v>44.60000000000001</v>
+        <v>8.800000000000011</v>
       </c>
       <c r="DP25" t="n">
         <v>63.9</v>
@@ -14265,7 +14265,7 @@
         <v>-17.2</v>
       </c>
       <c r="DX25" t="n">
-        <v>130.1999999999999</v>
+        <v>42.7999999999999</v>
       </c>
       <c r="DY25" t="n">
         <v>286.6</v>
@@ -14274,7 +14274,7 @@
         <v>-27.4</v>
       </c>
       <c r="EA25" t="n">
-        <v>162.3</v>
+        <v>139.7</v>
       </c>
       <c r="EB25" t="n">
         <v>179</v>
@@ -14497,7 +14497,7 @@
         <v>-48</v>
       </c>
       <c r="W26" t="n">
-        <v>20.2</v>
+        <v>15.8</v>
       </c>
       <c r="X26" t="n">
         <v>31.7</v>
@@ -14542,7 +14542,7 @@
         <v>-27.4</v>
       </c>
       <c r="AL26" t="n">
-        <v>17.7</v>
+        <v>14.9</v>
       </c>
       <c r="AM26" t="n">
         <v>43.9</v>
@@ -14551,14 +14551,14 @@
         <v>-25.1</v>
       </c>
       <c r="AO26" t="n">
-        <v>10.8</v>
+        <v>17.2</v>
       </c>
       <c r="AP26" t="n">
         <v>-5.3</v>
       </c>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="n">
-        <v>49.40000000000001</v>
+        <v>24.59999999999997</v>
       </c>
       <c r="AS26" t="n">
         <v>120.6</v>
@@ -14567,7 +14567,7 @@
         <v>-31.8</v>
       </c>
       <c r="AU26" t="n">
-        <v>53.8</v>
+        <v>26.10000000000001</v>
       </c>
       <c r="AV26" t="n">
         <v>149.3</v>
@@ -14585,7 +14585,7 @@
         <v>-31.8</v>
       </c>
       <c r="BA26" t="n">
-        <v>29</v>
+        <v>22.40000000000002</v>
       </c>
       <c r="BB26" t="n">
         <v>81.90000000000001</v>
@@ -14621,7 +14621,7 @@
         <v>-52.1</v>
       </c>
       <c r="BM26" t="n">
-        <v>62.90000000000009</v>
+        <v>59.50000000000028</v>
       </c>
       <c r="BN26" t="n">
         <v>663.7</v>
@@ -14639,7 +14639,7 @@
         <v>-27</v>
       </c>
       <c r="BS26" t="n">
-        <v>51.69999999999999</v>
+        <v>25.09999999999999</v>
       </c>
       <c r="BT26" t="n">
         <v>181.2</v>
@@ -14684,7 +14684,7 @@
         <v>-32.2</v>
       </c>
       <c r="CH26" t="n">
-        <v>106.7</v>
+        <v>3.700000000000003</v>
       </c>
       <c r="CI26" t="n">
         <v>-464.8</v>
@@ -14693,7 +14693,7 @@
         <v>-213.3</v>
       </c>
       <c r="CK26" t="n">
-        <v>7.700000000000102</v>
+        <v>1.900000000000119</v>
       </c>
       <c r="CL26" t="n">
         <v>280.1</v>
@@ -14711,7 +14711,7 @@
         <v>-19.8</v>
       </c>
       <c r="CQ26" t="n">
-        <v>55.70000000000002</v>
+        <v>40.29999999999997</v>
       </c>
       <c r="CR26" t="n">
         <v>129.9</v>
@@ -14774,7 +14774,7 @@
         <v>-66.7</v>
       </c>
       <c r="DL26" t="n">
-        <v>25.39999999999999</v>
+        <v>22.79999999999999</v>
       </c>
       <c r="DM26" t="n">
         <v>298</v>
@@ -14783,7 +14783,7 @@
         <v>-22.3</v>
       </c>
       <c r="DO26" t="n">
-        <v>44</v>
+        <v>17.29999999999999</v>
       </c>
       <c r="DP26" t="n">
         <v>123.9</v>
@@ -14801,7 +14801,7 @@
         <v>-19.7</v>
       </c>
       <c r="DU26" t="n">
-        <v>5.300000000000001</v>
+        <v>0.6999999999999988</v>
       </c>
       <c r="DV26" t="n">
         <v>73.09999999999999</v>
@@ -14828,7 +14828,7 @@
         <v>-60.4</v>
       </c>
       <c r="ED26" t="n">
-        <v>11.90000000000001</v>
+        <v>4.200000000000006</v>
       </c>
       <c r="EE26" t="n">
         <v>77.59999999999999</v>
@@ -14988,7 +14988,7 @@
         <v>16.6</v>
       </c>
       <c r="E27" t="n">
-        <v>45.30000000000002</v>
+        <v>33.50000000000004</v>
       </c>
       <c r="F27" t="n">
         <v>209.8</v>
@@ -15006,7 +15006,7 @@
         <v>-14.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" t="n">
         <v>0.2</v>
@@ -15015,7 +15015,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>32.19999999999999</v>
+        <v>17.79999999999999</v>
       </c>
       <c r="O27" t="n">
         <v>650.1</v>
@@ -15024,7 +15024,7 @@
         <v>19</v>
       </c>
       <c r="Q27" t="n">
-        <v>483.3999999999987</v>
+        <v>55.59999999999815</v>
       </c>
       <c r="R27" t="n">
         <v>15461.9</v>
@@ -15033,7 +15033,7 @@
         <v>-16.6</v>
       </c>
       <c r="T27" t="n">
-        <v>327.1999999999998</v>
+        <v>300.1999999999998</v>
       </c>
       <c r="U27" t="n">
         <v>1034.3</v>
@@ -15051,7 +15051,7 @@
         <v>-59.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>49.69999999999999</v>
+        <v>16.79999999999998</v>
       </c>
       <c r="AA27" t="n">
         <v>1227.5</v>
@@ -15060,7 +15060,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.299999999999976</v>
+        <v>2.099999999999955</v>
       </c>
       <c r="AD27" t="n">
         <v>118.8</v>
@@ -15069,7 +15069,7 @@
         <v>-14.8</v>
       </c>
       <c r="AF27" t="n">
-        <v>40.30000000000001</v>
+        <v>11.90000000000001</v>
       </c>
       <c r="AG27" t="n">
         <v>95.90000000000001</v>
@@ -15114,7 +15114,7 @@
         <v>-22.5</v>
       </c>
       <c r="AU27" t="n">
-        <v>108.3</v>
+        <v>21.8</v>
       </c>
       <c r="AV27" t="n">
         <v>228.7</v>
@@ -15132,7 +15132,7 @@
         <v>-15.3</v>
       </c>
       <c r="BA27" t="n">
-        <v>27.60000000000001</v>
+        <v>1.899999999999999</v>
       </c>
       <c r="BB27" t="n">
         <v>109.6</v>
@@ -15141,7 +15141,7 @@
         <v>-14.2</v>
       </c>
       <c r="BD27" t="n">
-        <v>113.3</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="BE27" t="n">
         <v>481.2</v>
@@ -15150,7 +15150,7 @@
         <v>3.6</v>
       </c>
       <c r="BG27" t="n">
-        <v>1</v>
+        <v>0.4000000000000198</v>
       </c>
       <c r="BH27" t="n">
         <v>84.8</v>
@@ -15159,7 +15159,7 @@
         <v>-16.5</v>
       </c>
       <c r="BJ27" t="n">
-        <v>233.1999999999998</v>
+        <v>212.2000000000002</v>
       </c>
       <c r="BK27" t="n">
         <v>1193.5</v>
@@ -15177,7 +15177,7 @@
         <v>28.1</v>
       </c>
       <c r="BP27" t="n">
-        <v>294.2</v>
+        <v>182.0000000000002</v>
       </c>
       <c r="BQ27" t="n">
         <v>782.8</v>
@@ -15222,7 +15222,7 @@
         <v>-11.6</v>
       </c>
       <c r="CE27" t="n">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="CF27" t="n">
         <v>167.4</v>
@@ -15240,7 +15240,7 @@
         <v>-167.4</v>
       </c>
       <c r="CK27" t="n">
-        <v>155.5</v>
+        <v>145.8999999999998</v>
       </c>
       <c r="CL27" t="n">
         <v>203.8</v>
@@ -15249,7 +15249,7 @@
         <v>-75.8</v>
       </c>
       <c r="CN27" t="n">
-        <v>80.90000000000003</v>
+        <v>49.10000000000008</v>
       </c>
       <c r="CO27" t="n">
         <v>309.6</v>
@@ -15267,7 +15267,7 @@
         <v>-29.2</v>
       </c>
       <c r="CT27" t="n">
-        <v>236.6000000000001</v>
+        <v>8.400000000000304</v>
       </c>
       <c r="CU27" t="n">
         <v>1709.4</v>
@@ -15285,7 +15285,7 @@
         <v>-6.5</v>
       </c>
       <c r="CZ27" t="n">
-        <v>14.10000000000002</v>
+        <v>9.299999999999979</v>
       </c>
       <c r="DA27" t="n">
         <v>221.3</v>
@@ -15294,7 +15294,7 @@
         <v>5.6</v>
       </c>
       <c r="DC27" t="n">
-        <v>73.19999999999982</v>
+        <v>67.79999999999944</v>
       </c>
       <c r="DD27" t="n">
         <v>823.8</v>
@@ -15303,7 +15303,7 @@
         <v>-9.6</v>
       </c>
       <c r="DF27" t="n">
-        <v>536.9000000000001</v>
+        <v>379.7000000000003</v>
       </c>
       <c r="DG27" t="n">
         <v>1291.6</v>
@@ -15312,7 +15312,7 @@
         <v>-43.6</v>
       </c>
       <c r="DI27" t="n">
-        <v>2.100000000000001</v>
+        <v>1.099999999999993</v>
       </c>
       <c r="DJ27" t="n">
         <v>21.3</v>
@@ -15321,7 +15321,7 @@
         <v>-26.6</v>
       </c>
       <c r="DL27" t="n">
-        <v>119</v>
+        <v>69.50000000000001</v>
       </c>
       <c r="DM27" t="n">
         <v>439.4</v>
@@ -15339,7 +15339,7 @@
         <v>-6.5</v>
       </c>
       <c r="DR27" t="n">
-        <v>388.0999999999999</v>
+        <v>304.0999999999995</v>
       </c>
       <c r="DS27" t="n">
         <v>1416.9</v>
@@ -15348,7 +15348,7 @@
         <v>-12</v>
       </c>
       <c r="DU27" t="n">
-        <v>8.799999999999997</v>
+        <v>0.499999999999996</v>
       </c>
       <c r="DV27" t="n">
         <v>104.3</v>
@@ -15366,7 +15366,7 @@
         <v>-2.5</v>
       </c>
       <c r="EA27" t="n">
-        <v>256.9000000000001</v>
+        <v>240.5000000000003</v>
       </c>
       <c r="EB27" t="n">
         <v>493.3</v>
@@ -15375,7 +15375,7 @@
         <v>-57.2</v>
       </c>
       <c r="ED27" t="n">
-        <v>14.09999999999999</v>
+        <v>2.199999999999982</v>
       </c>
       <c r="EE27" t="n">
         <v>101.8</v>
@@ -15526,7 +15526,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164.3999999999999</v>
+        <v>121.3999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>1177.3</v>
@@ -15535,7 +15535,7 @@
         <v>20.7</v>
       </c>
       <c r="E28" t="n">
-        <v>47</v>
+        <v>1.699999999999982</v>
       </c>
       <c r="F28" t="n">
         <v>298.6</v>
@@ -15544,7 +15544,7 @@
         <v>2.8</v>
       </c>
       <c r="H28" t="n">
-        <v>7.399999999999999</v>
+        <v>3.999999999999986</v>
       </c>
       <c r="I28" t="n">
         <v>39.3</v>
@@ -15553,7 +15553,7 @@
         <v>-13.1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L28" t="n">
         <v>0.2</v>
@@ -15562,7 +15562,7 @@
         <v>-50</v>
       </c>
       <c r="N28" t="n">
-        <v>109.4</v>
+        <v>52.20000000000003</v>
       </c>
       <c r="O28" t="n">
         <v>796.7</v>
@@ -15571,7 +15571,7 @@
         <v>14.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>3964.799999999999</v>
+        <v>3425.800000000002</v>
       </c>
       <c r="R28" t="n">
         <v>21223</v>
@@ -15589,7 +15589,7 @@
         <v>-32.2</v>
       </c>
       <c r="W28" t="n">
-        <v>18.29999999999998</v>
+        <v>10.49999999999996</v>
       </c>
       <c r="X28" t="n">
         <v>72.3</v>
@@ -15598,7 +15598,7 @@
         <v>-41.9</v>
       </c>
       <c r="Z28" t="n">
-        <v>213.2</v>
+        <v>146.7</v>
       </c>
       <c r="AA28" t="n">
         <v>1586</v>
@@ -15607,7 +15607,7 @@
         <v>2.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>33.69999999999999</v>
+        <v>24.30000000000005</v>
       </c>
       <c r="AD28" t="n">
         <v>154.8</v>
@@ -15616,7 +15616,7 @@
         <v>-13.8</v>
       </c>
       <c r="AF28" t="n">
-        <v>30.69999999999999</v>
+        <v>4.59999999999998</v>
       </c>
       <c r="AG28" t="n">
         <v>133.8</v>
@@ -15625,7 +15625,7 @@
         <v>-29.9</v>
       </c>
       <c r="AI28" t="n">
-        <v>4928</v>
+        <v>3973.800000000001</v>
       </c>
       <c r="AJ28" t="n">
         <v>25114.9</v>
@@ -15652,7 +15652,7 @@
         <v>-47.1</v>
       </c>
       <c r="AR28" t="n">
-        <v>8.300000000000011</v>
+        <v>2.700000000000061</v>
       </c>
       <c r="AS28" t="n">
         <v>220.1</v>
@@ -15661,7 +15661,7 @@
         <v>-21</v>
       </c>
       <c r="AU28" t="n">
-        <v>93.29999999999995</v>
+        <v>38.79999999999995</v>
       </c>
       <c r="AV28" t="n">
         <v>363.1</v>
@@ -15670,7 +15670,7 @@
         <v>-29.4</v>
       </c>
       <c r="AX28" t="n">
-        <v>25.20000000000002</v>
+        <v>10.90000000000003</v>
       </c>
       <c r="AY28" t="n">
         <v>130.2</v>
@@ -15688,7 +15688,7 @@
         <v>-13.3</v>
       </c>
       <c r="BD28" t="n">
-        <v>108.1999999999999</v>
+        <v>10.9999999999999</v>
       </c>
       <c r="BE28" t="n">
         <v>658.5</v>
@@ -15697,7 +15697,7 @@
         <v>14</v>
       </c>
       <c r="BG28" t="n">
-        <v>9.999999999999996</v>
+        <v>8.299999999999986</v>
       </c>
       <c r="BH28" t="n">
         <v>121.9</v>
@@ -15706,7 +15706,7 @@
         <v>-8.1</v>
       </c>
       <c r="BJ28" t="n">
-        <v>270.7000000000003</v>
+        <v>37.50000000000048</v>
       </c>
       <c r="BK28" t="n">
         <v>1904.2</v>
@@ -15724,7 +15724,7 @@
         <v>24.2</v>
       </c>
       <c r="BP28" t="n">
-        <v>283.5999999999999</v>
+        <v>45.4999999999998</v>
       </c>
       <c r="BQ28" t="n">
         <v>984.7</v>
@@ -15733,7 +15733,7 @@
         <v>-31.2</v>
       </c>
       <c r="BS28" t="n">
-        <v>48.5</v>
+        <v>22.19999999999999</v>
       </c>
       <c r="BT28" t="n">
         <v>301.4</v>
@@ -15751,7 +15751,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="BY28" t="n">
-        <v>24.90000000000009</v>
+        <v>11.69999999999993</v>
       </c>
       <c r="BZ28" t="n">
         <v>1821.6</v>
@@ -15760,7 +15760,7 @@
         <v>-9.5</v>
       </c>
       <c r="CB28" t="n">
-        <v>292.3</v>
+        <v>240.5</v>
       </c>
       <c r="CC28" t="n">
         <v>1463.7</v>
@@ -15796,7 +15796,7 @@
         <v>-72.59999999999999</v>
       </c>
       <c r="CN28" t="n">
-        <v>77.59999999999997</v>
+        <v>12.59999999999991</v>
       </c>
       <c r="CO28" t="n">
         <v>402.1</v>
@@ -15814,7 +15814,7 @@
         <v>-27.4</v>
       </c>
       <c r="CT28" t="n">
-        <v>368.5</v>
+        <v>9.399999999999693</v>
       </c>
       <c r="CU28" t="n">
         <v>2379.1</v>
@@ -15823,7 +15823,7 @@
         <v>27.2</v>
       </c>
       <c r="CW28" t="n">
-        <v>212.4000000000001</v>
+        <v>196.0000000000005</v>
       </c>
       <c r="CX28" t="n">
         <v>1122.8</v>
@@ -15832,7 +15832,7 @@
         <v>-1.1</v>
       </c>
       <c r="CZ28" t="n">
-        <v>46</v>
+        <v>20.19999999999998</v>
       </c>
       <c r="DA28" t="n">
         <v>268.7</v>
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="DC28" t="n">
-        <v>145.2</v>
+        <v>1.50000000000054</v>
       </c>
       <c r="DD28" t="n">
         <v>1108.1</v>
@@ -15850,7 +15850,7 @@
         <v>-2.9</v>
       </c>
       <c r="DF28" t="n">
-        <v>516.0999999999999</v>
+        <v>57.79999999999973</v>
       </c>
       <c r="DG28" t="n">
         <v>1647</v>
@@ -15859,7 +15859,7 @@
         <v>-41.7</v>
       </c>
       <c r="DI28" t="n">
-        <v>7.699999999999996</v>
+        <v>3.999999999999997</v>
       </c>
       <c r="DJ28" t="n">
         <v>17.7</v>
@@ -15877,7 +15877,7 @@
         <v>-11.2</v>
       </c>
       <c r="DO28" t="n">
-        <v>43</v>
+        <v>13.90000000000003</v>
       </c>
       <c r="DP28" t="n">
         <v>245.1</v>
@@ -15895,7 +15895,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="DU28" t="n">
-        <v>28.30000000000001</v>
+        <v>16.00000000000001</v>
       </c>
       <c r="DV28" t="n">
         <v>130.4</v>
@@ -15904,7 +15904,7 @@
         <v>-5.6</v>
       </c>
       <c r="DX28" t="n">
-        <v>121.3</v>
+        <v>111.3</v>
       </c>
       <c r="DY28" t="n">
         <v>801.2</v>
@@ -15922,7 +15922,7 @@
         <v>-40.3</v>
       </c>
       <c r="ED28" t="n">
-        <v>20.70000000000001</v>
+        <v>4.400000000000038</v>
       </c>
       <c r="EE28" t="n">
         <v>122.1</v>
@@ -16082,7 +16082,7 @@
         <v>24.1</v>
       </c>
       <c r="E29" t="n">
-        <v>8.399999999999977</v>
+        <v>6.699999999999996</v>
       </c>
       <c r="F29" t="n">
         <v>369.9</v>
@@ -16091,7 +16091,7 @@
         <v>9.6</v>
       </c>
       <c r="H29" t="n">
-        <v>7.199999999999996</v>
+        <v>1.500000000000004</v>
       </c>
       <c r="I29" t="n">
         <v>47.7</v>
@@ -16100,7 +16100,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L29" t="n">
         <v>0.7</v>
@@ -16127,7 +16127,7 @@
         <v>-4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>325.5999999999999</v>
+        <v>270.3999999999991</v>
       </c>
       <c r="U29" t="n">
         <v>1713.1</v>
@@ -16181,7 +16181,7 @@
         <v>-8.1</v>
       </c>
       <c r="AL29" t="n">
-        <v>18.2</v>
+        <v>4.00000000000002</v>
       </c>
       <c r="AM29" t="n">
         <v>105.1</v>
@@ -16190,7 +16190,7 @@
         <v>-7.2</v>
       </c>
       <c r="AO29" t="n">
-        <v>1.500000000000002</v>
+        <v>0.9000000000000041</v>
       </c>
       <c r="AP29" t="n">
         <v>-3.7</v>
@@ -16199,7 +16199,7 @@
         <v>-134.6</v>
       </c>
       <c r="AR29" t="n">
-        <v>6</v>
+        <v>0.4999999999999636</v>
       </c>
       <c r="AS29" t="n">
         <v>270.4</v>
@@ -16244,7 +16244,7 @@
         <v>15.4</v>
       </c>
       <c r="BG29" t="n">
-        <v>36.40000000000001</v>
+        <v>17.40000000000002</v>
       </c>
       <c r="BH29" t="n">
         <v>171.7</v>
@@ -16253,7 +16253,7 @@
         <v>-1.2</v>
       </c>
       <c r="BJ29" t="n">
-        <v>95.59999999999945</v>
+        <v>58.09999999999897</v>
       </c>
       <c r="BK29" t="n">
         <v>2514.5</v>
@@ -16262,7 +16262,7 @@
         <v>-5.9</v>
       </c>
       <c r="BM29" t="n">
-        <v>55.89999999999998</v>
+        <v>24.0999999999998</v>
       </c>
       <c r="BN29" t="n">
         <v>1033.7</v>
@@ -16280,7 +16280,7 @@
         <v>-32.8</v>
       </c>
       <c r="BS29" t="n">
-        <v>41.69999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="BT29" t="n">
         <v>353.9</v>
@@ -16289,7 +16289,7 @@
         <v>-2.4</v>
       </c>
       <c r="BV29" t="n">
-        <v>32.59999999999991</v>
+        <v>22.20000000000027</v>
       </c>
       <c r="BW29" t="n">
         <v>2810.5</v>
@@ -16298,7 +16298,7 @@
         <v>-3.3</v>
       </c>
       <c r="BY29" t="n">
-        <v>43.99999999999983</v>
+        <v>0.7999999999997272</v>
       </c>
       <c r="BZ29" t="n">
         <v>2284.9</v>
@@ -16316,7 +16316,7 @@
         <v>-4</v>
       </c>
       <c r="CE29" t="n">
-        <v>13.29999999999995</v>
+        <v>3.299999999999875</v>
       </c>
       <c r="CF29" t="n">
         <v>285.2</v>
@@ -16352,7 +16352,7 @@
         <v>-3</v>
       </c>
       <c r="CQ29" t="n">
-        <v>71.5</v>
+        <v>57.29999999999984</v>
       </c>
       <c r="CR29" t="n">
         <v>295</v>
@@ -16415,7 +16415,7 @@
         <v>-42.9</v>
       </c>
       <c r="DL29" t="n">
-        <v>134.8</v>
+        <v>96.99999999999982</v>
       </c>
       <c r="DM29" t="n">
         <v>724.8</v>
@@ -16433,7 +16433,7 @@
         <v>-1.6</v>
       </c>
       <c r="DR29" t="n">
-        <v>386.9000000000001</v>
+        <v>354.2999999999997</v>
       </c>
       <c r="DS29" t="n">
         <v>2254.1</v>
@@ -16442,7 +16442,7 @@
         <v>-6.2</v>
       </c>
       <c r="DU29" t="n">
-        <v>27.09999999999999</v>
+        <v>7.59999999999998</v>
       </c>
       <c r="DV29" t="n">
         <v>160.1</v>
@@ -16469,7 +16469,7 @@
         <v>-32</v>
       </c>
       <c r="ED29" t="n">
-        <v>27.40000000000001</v>
+        <v>0.0999999999999801</v>
       </c>
       <c r="EE29" t="n">
         <v>165.4</v>
@@ -16629,7 +16629,7 @@
         <v>22.9</v>
       </c>
       <c r="E30" t="n">
-        <v>18.00000000000006</v>
+        <v>1.200000000000106</v>
       </c>
       <c r="F30" t="n">
         <v>439.6</v>
@@ -16665,7 +16665,7 @@
         <v>17.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>711.6999999999971</v>
+        <v>175.8999999999933</v>
       </c>
       <c r="R30" t="n">
         <v>31415.5</v>
@@ -16683,7 +16683,7 @@
         <v>-22</v>
       </c>
       <c r="W30" t="n">
-        <v>9.699999999999978</v>
+        <v>4.099999999999948</v>
       </c>
       <c r="X30" t="n">
         <v>111</v>
@@ -16692,7 +16692,7 @@
         <v>-33.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>94.29999999999973</v>
+        <v>66.89999999999952</v>
       </c>
       <c r="AA30" t="n">
         <v>2140.1</v>
@@ -16710,7 +16710,7 @@
         <v>-10.9</v>
       </c>
       <c r="AF30" t="n">
-        <v>35.69999999999999</v>
+        <v>3.89999999999999</v>
       </c>
       <c r="AG30" t="n">
         <v>195</v>
@@ -16719,7 +16719,7 @@
         <v>-27.3</v>
       </c>
       <c r="AI30" t="n">
-        <v>722.9000000000005</v>
+        <v>287.7000000000015</v>
       </c>
       <c r="AJ30" t="n">
         <v>37166.5</v>
@@ -16746,7 +16746,7 @@
         <v>-122.4</v>
       </c>
       <c r="AR30" t="n">
-        <v>53.19999999999999</v>
+        <v>41.19999999999999</v>
       </c>
       <c r="AS30" t="n">
         <v>324.5</v>
@@ -16755,7 +16755,7 @@
         <v>-20</v>
       </c>
       <c r="AU30" t="n">
-        <v>115.3</v>
+        <v>67.29999999999971</v>
       </c>
       <c r="AV30" t="n">
         <v>684.7</v>
@@ -16764,7 +16764,7 @@
         <v>-5.6</v>
       </c>
       <c r="AX30" t="n">
-        <v>1.500000000000028</v>
+        <v>0.1000000000001076</v>
       </c>
       <c r="AY30" t="n">
         <v>198.3</v>
@@ -16773,7 +16773,7 @@
         <v>-1.7</v>
       </c>
       <c r="BA30" t="n">
-        <v>30.70000000000002</v>
+        <v>20.50000000000002</v>
       </c>
       <c r="BB30" t="n">
         <v>183.1</v>
@@ -16782,7 +16782,7 @@
         <v>-13.9</v>
       </c>
       <c r="BD30" t="n">
-        <v>5.300000000000097</v>
+        <v>2</v>
       </c>
       <c r="BE30" t="n">
         <v>952.5</v>
@@ -16791,7 +16791,7 @@
         <v>19.5</v>
       </c>
       <c r="BG30" t="n">
-        <v>29.09999999999999</v>
+        <v>2.699999999999971</v>
       </c>
       <c r="BH30" t="n">
         <v>223.6</v>
@@ -16800,7 +16800,7 @@
         <v>6.4</v>
       </c>
       <c r="BJ30" t="n">
-        <v>98.60000000000036</v>
+        <v>3.000000000000909</v>
       </c>
       <c r="BK30" t="n">
         <v>3084.8</v>
@@ -16809,7 +16809,7 @@
         <v>1.5</v>
       </c>
       <c r="BM30" t="n">
-        <v>44.20000000000002</v>
+        <v>4.200000000000124</v>
       </c>
       <c r="BN30" t="n">
         <v>1137.2</v>
@@ -16836,7 +16836,7 @@
         <v>-0.5</v>
       </c>
       <c r="BV30" t="n">
-        <v>445.5</v>
+        <v>385.5</v>
       </c>
       <c r="BW30" t="n">
         <v>3415</v>
@@ -16845,7 +16845,7 @@
         <v>0.9</v>
       </c>
       <c r="BY30" t="n">
-        <v>354.9000000000001</v>
+        <v>291.8000000000006</v>
       </c>
       <c r="BZ30" t="n">
         <v>2789.4</v>
@@ -16863,7 +16863,7 @@
         <v>-1.3</v>
       </c>
       <c r="CE30" t="n">
-        <v>51.19999999999999</v>
+        <v>29.60000000000013</v>
       </c>
       <c r="CF30" t="n">
         <v>331.1</v>
@@ -16872,7 +16872,7 @@
         <v>-25.9</v>
       </c>
       <c r="CH30" t="n">
-        <v>68.10000000000016</v>
+        <v>59.50000000000048</v>
       </c>
       <c r="CI30" t="n">
         <v>111.5</v>
@@ -16899,7 +16899,7 @@
         <v>1.6</v>
       </c>
       <c r="CQ30" t="n">
-        <v>69.29999999999995</v>
+        <v>4.900000000000034</v>
       </c>
       <c r="CR30" t="n">
         <v>350.8</v>
@@ -16908,7 +16908,7 @@
         <v>-25.6</v>
       </c>
       <c r="CT30" t="n">
-        <v>241.8999999999996</v>
+        <v>49.29999999999922</v>
       </c>
       <c r="CU30" t="n">
         <v>3409.5</v>
@@ -16926,7 +16926,7 @@
         <v>7.6</v>
       </c>
       <c r="CZ30" t="n">
-        <v>54.69999999999999</v>
+        <v>35.90000000000003</v>
       </c>
       <c r="DA30" t="n">
         <v>396.8</v>
@@ -16935,7 +16935,7 @@
         <v>7.2</v>
       </c>
       <c r="DC30" t="n">
-        <v>68.69999999999999</v>
+        <v>28.09999999999997</v>
       </c>
       <c r="DD30" t="n">
         <v>1444.8</v>
@@ -16953,7 +16953,7 @@
         <v>-38.1</v>
       </c>
       <c r="DI30" t="n">
-        <v>6.399999999999999</v>
+        <v>4.199999999999982</v>
       </c>
       <c r="DJ30" t="n">
         <v>33.6</v>
@@ -16962,7 +16962,7 @@
         <v>-38.6</v>
       </c>
       <c r="DL30" t="n">
-        <v>123.3</v>
+        <v>7.400000000000091</v>
       </c>
       <c r="DM30" t="n">
         <v>857.9</v>
@@ -16998,7 +16998,7 @@
         <v>-1.9</v>
       </c>
       <c r="DX30" t="n">
-        <v>138.3</v>
+        <v>87.29999999999998</v>
       </c>
       <c r="DY30" t="n">
         <v>1150.9</v>
@@ -17016,7 +17016,7 @@
         <v>-23.1</v>
       </c>
       <c r="ED30" t="n">
-        <v>18.59999999999999</v>
+        <v>11.89999999999999</v>
       </c>
       <c r="EE30" t="n">
         <v>210.7</v>
@@ -17167,7 +17167,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.6000000000001</v>
+        <v>172.6000000000001</v>
       </c>
       <c r="C31" t="n">
         <v>1871</v>
@@ -17176,7 +17176,7 @@
         <v>22.3</v>
       </c>
       <c r="E31" t="n">
-        <v>64.80000000000001</v>
+        <v>37.19999999999986</v>
       </c>
       <c r="F31" t="n">
         <v>528.9</v>
@@ -17185,7 +17185,7 @@
         <v>13.4</v>
       </c>
       <c r="H31" t="n">
-        <v>7.799999999999997</v>
+        <v>1.79999999999999</v>
       </c>
       <c r="I31" t="n">
         <v>64.5</v>
@@ -17194,7 +17194,7 @@
         <v>-7.9</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="L31" t="n">
         <v>1.1</v>
@@ -17203,7 +17203,7 @@
         <v>57.1</v>
       </c>
       <c r="N31" t="n">
-        <v>176.1999999999998</v>
+        <v>123.9999999999998</v>
       </c>
       <c r="O31" t="n">
         <v>1327.2</v>
@@ -17212,7 +17212,7 @@
         <v>16.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>4172.5</v>
+        <v>3017.000000000008</v>
       </c>
       <c r="R31" t="n">
         <v>37060.2</v>
@@ -17221,7 +17221,7 @@
         <v>1.1</v>
       </c>
       <c r="T31" t="n">
-        <v>2569</v>
+        <v>2465.2</v>
       </c>
       <c r="U31" t="n">
         <v>2525.8</v>
@@ -17230,7 +17230,7 @@
         <v>-17.7</v>
       </c>
       <c r="W31" t="n">
-        <v>31</v>
+        <v>17.20000000000007</v>
       </c>
       <c r="X31" t="n">
         <v>130.4</v>
@@ -17239,7 +17239,7 @@
         <v>-34.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>242.4000000000001</v>
+        <v>67.50000000000077</v>
       </c>
       <c r="AA31" t="n">
         <v>2504.9</v>
@@ -17266,7 +17266,7 @@
         <v>-22.4</v>
       </c>
       <c r="AI31" t="n">
-        <v>5015.400000000001</v>
+        <v>3787.199999999999</v>
       </c>
       <c r="AJ31" t="n">
         <v>43665</v>
@@ -17275,7 +17275,7 @@
         <v>-2.4</v>
       </c>
       <c r="AL31" t="n">
-        <v>21.59999999999999</v>
+        <v>14.60000000000001</v>
       </c>
       <c r="AM31" t="n">
         <v>143.4</v>
@@ -17284,7 +17284,7 @@
         <v>-6.3</v>
       </c>
       <c r="AO31" t="n">
-        <v>1</v>
+        <v>0.4000000000000016</v>
       </c>
       <c r="AP31" t="n">
         <v>-4.4</v>
@@ -17302,7 +17302,7 @@
         <v>-16.2</v>
       </c>
       <c r="AU31" t="n">
-        <v>105.1</v>
+        <v>13.80000000000014</v>
       </c>
       <c r="AV31" t="n">
         <v>858</v>
@@ -17329,7 +17329,7 @@
         <v>-13</v>
       </c>
       <c r="BD31" t="n">
-        <v>15.5</v>
+        <v>8.1999999999999</v>
       </c>
       <c r="BE31" t="n">
         <v>1102.2</v>
@@ -17347,7 +17347,7 @@
         <v>14.1</v>
       </c>
       <c r="BJ31" t="n">
-        <v>446.0999999999999</v>
+        <v>344.4999999999986</v>
       </c>
       <c r="BK31" t="n">
         <v>3607.1</v>
@@ -17356,7 +17356,7 @@
         <v>3</v>
       </c>
       <c r="BM31" t="n">
-        <v>53.09999999999991</v>
+        <v>8.899999999999892</v>
       </c>
       <c r="BN31" t="n">
         <v>1263.2</v>
@@ -17365,7 +17365,7 @@
         <v>26.6</v>
       </c>
       <c r="BP31" t="n">
-        <v>240.4000000000001</v>
+        <v>180.8000000000007</v>
       </c>
       <c r="BQ31" t="n">
         <v>1544</v>
@@ -17374,7 +17374,7 @@
         <v>-30.1</v>
       </c>
       <c r="BS31" t="n">
-        <v>37.39999999999998</v>
+        <v>17.49999999999995</v>
       </c>
       <c r="BT31" t="n">
         <v>464.5</v>
@@ -17392,7 +17392,7 @@
         <v>2.6</v>
       </c>
       <c r="BY31" t="n">
-        <v>333.3999999999996</v>
+        <v>22.49999999999926</v>
       </c>
       <c r="BZ31" t="n">
         <v>3193</v>
@@ -17401,7 +17401,7 @@
         <v>2.1</v>
       </c>
       <c r="CB31" t="n">
-        <v>345.3000000000002</v>
+        <v>259.6999999999998</v>
       </c>
       <c r="CC31" t="n">
         <v>2657.5</v>
@@ -17428,7 +17428,7 @@
         <v>-66.2</v>
       </c>
       <c r="CK31" t="n">
-        <v>100.8000000000002</v>
+        <v>48.80000000000017</v>
       </c>
       <c r="CL31" t="n">
         <v>418.8</v>
@@ -17455,7 +17455,7 @@
         <v>-22.9</v>
       </c>
       <c r="CT31" t="n">
-        <v>566.5</v>
+        <v>179.000000000001</v>
       </c>
       <c r="CU31" t="n">
         <v>3939.9</v>
@@ -17482,7 +17482,7 @@
         <v>13.3</v>
       </c>
       <c r="DC31" t="n">
-        <v>127.5</v>
+        <v>10.40000000000003</v>
       </c>
       <c r="DD31" t="n">
         <v>1759.1</v>
@@ -17491,7 +17491,7 @@
         <v>4.4</v>
       </c>
       <c r="DF31" t="n">
-        <v>434.8999999999996</v>
+        <v>344.0999999999984</v>
       </c>
       <c r="DG31" t="n">
         <v>2674.3</v>
@@ -17518,7 +17518,7 @@
         <v>-1.1</v>
       </c>
       <c r="DO31" t="n">
-        <v>48.30000000000001</v>
+        <v>43.69999999999999</v>
       </c>
       <c r="DP31" t="n">
         <v>403</v>
@@ -17527,7 +17527,7 @@
         <v>0.8</v>
       </c>
       <c r="DR31" t="n">
-        <v>50.90000000000009</v>
+        <v>39.30000000000063</v>
       </c>
       <c r="DS31" t="n">
         <v>3142.5</v>
@@ -17545,7 +17545,7 @@
         <v>-1.8</v>
       </c>
       <c r="DX31" t="n">
-        <v>134</v>
+        <v>21.2</v>
       </c>
       <c r="DY31" t="n">
         <v>1316.9</v>
@@ -17795,7 +17795,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>6.200000000000038</v>
+        <v>3.400000000000126</v>
       </c>
       <c r="AD32" t="n">
         <v>307.3</v>
@@ -17804,7 +17804,7 @@
         <v>-7.6</v>
       </c>
       <c r="AF32" t="n">
-        <v>16.20000000000005</v>
+        <v>3.600000000000026</v>
       </c>
       <c r="AG32" t="n">
         <v>277.6</v>
@@ -17831,7 +17831,7 @@
         <v>-2.3</v>
       </c>
       <c r="AO32" t="n">
-        <v>13.2</v>
+        <v>11.5</v>
       </c>
       <c r="AP32" t="n">
         <v>-7.1</v>
@@ -17840,7 +17840,7 @@
         <v>-140.1</v>
       </c>
       <c r="AR32" t="n">
-        <v>27.7</v>
+        <v>13.29999999999992</v>
       </c>
       <c r="AS32" t="n">
         <v>445.3</v>
@@ -17858,7 +17858,7 @@
         <v>5</v>
       </c>
       <c r="AX32" t="n">
-        <v>1.899999999999949</v>
+        <v>0.2999999999999265</v>
       </c>
       <c r="AY32" t="n">
         <v>281.3</v>
@@ -17867,7 +17867,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BA32" t="n">
-        <v>8.900000000000006</v>
+        <v>1.700000000000081</v>
       </c>
       <c r="BB32" t="n">
         <v>243.4</v>
@@ -17876,7 +17876,7 @@
         <v>-12.4</v>
       </c>
       <c r="BD32" t="n">
-        <v>17.79999999999981</v>
+        <v>2.299999999999809</v>
       </c>
       <c r="BE32" t="n">
         <v>1295.6</v>
@@ -17912,7 +17912,7 @@
         <v>28.3</v>
       </c>
       <c r="BP32" t="n">
-        <v>229.4000000000001</v>
+        <v>18.7999999999997</v>
       </c>
       <c r="BQ32" t="n">
         <v>1772</v>
@@ -17957,7 +17957,7 @@
         <v>3.5</v>
       </c>
       <c r="CE32" t="n">
-        <v>4.10000000000003</v>
+        <v>0.6999999999999957</v>
       </c>
       <c r="CF32" t="n">
         <v>426.6</v>
@@ -17966,7 +17966,7 @@
         <v>-22.8</v>
       </c>
       <c r="CH32" t="n">
-        <v>103.5</v>
+        <v>57.10000000000019</v>
       </c>
       <c r="CI32" t="n">
         <v>475.9</v>
@@ -17984,7 +17984,7 @@
         <v>-68.5</v>
       </c>
       <c r="CN32" t="n">
-        <v>32.59999999999988</v>
+        <v>26.79999999999992</v>
       </c>
       <c r="CO32" t="n">
         <v>793</v>
@@ -18002,7 +18002,7 @@
         <v>-21.3</v>
       </c>
       <c r="CT32" t="n">
-        <v>506.3000000000002</v>
+        <v>181.6999999999998</v>
       </c>
       <c r="CU32" t="n">
         <v>4478.2</v>
@@ -18011,7 +18011,7 @@
         <v>12.6</v>
       </c>
       <c r="CW32" t="n">
-        <v>75.30000000000018</v>
+        <v>32.69999999999976</v>
       </c>
       <c r="CX32" t="n">
         <v>2183.4</v>
@@ -18038,7 +18038,7 @@
         <v>5.1</v>
       </c>
       <c r="DF32" t="n">
-        <v>428.4000000000005</v>
+        <v>38.90000000000151</v>
       </c>
       <c r="DG32" t="n">
         <v>3072.3</v>
@@ -18047,7 +18047,7 @@
         <v>-34.5</v>
       </c>
       <c r="DI32" t="n">
-        <v>56.6</v>
+        <v>52</v>
       </c>
       <c r="DJ32" t="n">
         <v>50.6</v>
@@ -18056,7 +18056,7 @@
         <v>-27.5</v>
       </c>
       <c r="DL32" t="n">
-        <v>50.9999999999998</v>
+        <v>15.79999999999962</v>
       </c>
       <c r="DM32" t="n">
         <v>1205.4</v>
@@ -18074,7 +18074,7 @@
         <v>1.5</v>
       </c>
       <c r="DR32" t="n">
-        <v>90.10000000000036</v>
+        <v>39.20000000000027</v>
       </c>
       <c r="DS32" t="n">
         <v>3658.8</v>
@@ -18101,7 +18101,7 @@
         <v>10</v>
       </c>
       <c r="EA32" t="n">
-        <v>69.09999999999991</v>
+        <v>37.29999999999973</v>
       </c>
       <c r="EB32" t="n">
         <v>1835.6</v>
@@ -18110,7 +18110,7 @@
         <v>-12.9</v>
       </c>
       <c r="ED32" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="EE32" t="n">
         <v>303.3</v>
@@ -18279,7 +18279,7 @@
         <v>13.3</v>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>4.399999999999974</v>
       </c>
       <c r="I33" t="n">
         <v>82.7</v>
@@ -18288,7 +18288,7 @@
         <v>-5.9</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="L33" t="n">
         <v>0.8</v>
@@ -18297,7 +18297,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>93</v>
+        <v>27.7999999999997</v>
       </c>
       <c r="O33" t="n">
         <v>1693.5</v>
@@ -18324,7 +18324,7 @@
         <v>10.5</v>
       </c>
       <c r="W33" t="n">
-        <v>16.60000000000002</v>
+        <v>16.20000000000004</v>
       </c>
       <c r="X33" t="n">
         <v>193.3</v>
@@ -18333,7 +18333,7 @@
         <v>-26.3</v>
       </c>
       <c r="Z33" t="n">
-        <v>43.50000000000048</v>
+        <v>19.90000000000108</v>
       </c>
       <c r="AA33" t="n">
         <v>3145.6</v>
@@ -18342,7 +18342,7 @@
         <v>11.9</v>
       </c>
       <c r="AC33" t="n">
-        <v>13.19999999999999</v>
+        <v>2.19999999999987</v>
       </c>
       <c r="AD33" t="n">
         <v>358.6</v>
@@ -18360,7 +18360,7 @@
         <v>-17.3</v>
       </c>
       <c r="AI33" t="n">
-        <v>5887.400000000001</v>
+        <v>3309.400000000001</v>
       </c>
       <c r="AJ33" t="n">
         <v>57445</v>
@@ -18369,7 +18369,7 @@
         <v>2.4</v>
       </c>
       <c r="AL33" t="n">
-        <v>27.19999999999999</v>
+        <v>13.19999999999993</v>
       </c>
       <c r="AM33" t="n">
         <v>182</v>
@@ -18396,7 +18396,7 @@
         <v>-13</v>
       </c>
       <c r="AU33" t="n">
-        <v>27.60000000000022</v>
+        <v>4.200000000000333</v>
       </c>
       <c r="AV33" t="n">
         <v>1182.1</v>
@@ -18405,7 +18405,7 @@
         <v>10.1</v>
       </c>
       <c r="AX33" t="n">
-        <v>21.10000000000002</v>
+        <v>18.10000000000013</v>
       </c>
       <c r="AY33" t="n">
         <v>330.9</v>
@@ -18414,7 +18414,7 @@
         <v>15.1</v>
       </c>
       <c r="BA33" t="n">
-        <v>7.200000000000038</v>
+        <v>1.899999999999995</v>
       </c>
       <c r="BB33" t="n">
         <v>280.4</v>
@@ -18423,7 +18423,7 @@
         <v>-12.6</v>
       </c>
       <c r="BD33" t="n">
-        <v>5.10000000000008</v>
+        <v>2.800000000000271</v>
       </c>
       <c r="BE33" t="n">
         <v>1499.5</v>
@@ -18432,7 +18432,7 @@
         <v>25.3</v>
       </c>
       <c r="BG33" t="n">
-        <v>21.60000000000002</v>
+        <v>21.40000000000008</v>
       </c>
       <c r="BH33" t="n">
         <v>370.1</v>
@@ -18441,7 +18441,7 @@
         <v>18.1</v>
       </c>
       <c r="BJ33" t="n">
-        <v>435.8999999999996</v>
+        <v>306.499999999999</v>
       </c>
       <c r="BK33" t="n">
         <v>4781.1</v>
@@ -18450,7 +18450,7 @@
         <v>7.2</v>
       </c>
       <c r="BM33" t="n">
-        <v>915.0999999999998</v>
+        <v>901.4999999999994</v>
       </c>
       <c r="BN33" t="n">
         <v>1409.2</v>
@@ -18468,7 +18468,7 @@
         <v>-24.5</v>
       </c>
       <c r="BS33" t="n">
-        <v>30.40000000000003</v>
+        <v>13.5</v>
       </c>
       <c r="BT33" t="n">
         <v>585.4</v>
@@ -18477,7 +18477,7 @@
         <v>5</v>
       </c>
       <c r="BV33" t="n">
-        <v>149.3999999999996</v>
+        <v>19.29999999999922</v>
       </c>
       <c r="BW33" t="n">
         <v>5009.3</v>
@@ -18495,7 +18495,7 @@
         <v>3.8</v>
       </c>
       <c r="CB33" t="n">
-        <v>88.39999999999964</v>
+        <v>22.39999999999964</v>
       </c>
       <c r="CC33" t="n">
         <v>3521.8</v>
@@ -18504,7 +18504,7 @@
         <v>6.6</v>
       </c>
       <c r="CE33" t="n">
-        <v>28.39999999999986</v>
+        <v>23.59999999999983</v>
       </c>
       <c r="CF33" t="n">
         <v>480</v>
@@ -18522,7 +18522,7 @@
         <v>-44</v>
       </c>
       <c r="CK33" t="n">
-        <v>1416.1</v>
+        <v>1392.9</v>
       </c>
       <c r="CL33" t="n">
         <v>473.2</v>
@@ -18531,7 +18531,7 @@
         <v>-70.8</v>
       </c>
       <c r="CN33" t="n">
-        <v>57.50000000000009</v>
+        <v>24.90000000000021</v>
       </c>
       <c r="CO33" t="n">
         <v>916</v>
@@ -18540,7 +18540,7 @@
         <v>7.5</v>
       </c>
       <c r="CQ33" t="n">
-        <v>8.700000000000045</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CR33" t="n">
         <v>565.8</v>
@@ -18576,7 +18576,7 @@
         <v>15.3</v>
       </c>
       <c r="DC33" t="n">
-        <v>91.4999999999998</v>
+        <v>34.09999999999982</v>
       </c>
       <c r="DD33" t="n">
         <v>2080.2</v>
@@ -18603,7 +18603,7 @@
         <v>-9.5</v>
       </c>
       <c r="DL33" t="n">
-        <v>58.0000000000002</v>
+        <v>7.000000000000398</v>
       </c>
       <c r="DM33" t="n">
         <v>1429.8</v>
@@ -18612,7 +18612,7 @@
         <v>4.4</v>
       </c>
       <c r="DO33" t="n">
-        <v>54.8</v>
+        <v>18.40000000000002</v>
       </c>
       <c r="DP33" t="n">
         <v>520.4</v>
@@ -18621,7 +18621,7 @@
         <v>1.1</v>
       </c>
       <c r="DR33" t="n">
-        <v>480.1999999999998</v>
+        <v>350.8999999999992</v>
       </c>
       <c r="DS33" t="n">
         <v>4218.6</v>
@@ -18630,7 +18630,7 @@
         <v>1.4</v>
       </c>
       <c r="DU33" t="n">
-        <v>25.5</v>
+        <v>22.7</v>
       </c>
       <c r="DV33" t="n">
         <v>289.5</v>
@@ -18648,7 +18648,7 @@
         <v>6</v>
       </c>
       <c r="EA33" t="n">
-        <v>80</v>
+        <v>10.90000000000009</v>
       </c>
       <c r="EB33" t="n">
         <v>2114.9</v>
@@ -18657,7 +18657,7 @@
         <v>-9.9</v>
       </c>
       <c r="ED33" t="n">
-        <v>195.6</v>
+        <v>161.1</v>
       </c>
       <c r="EE33" t="n">
         <v>332.4</v>
@@ -18808,7 +18808,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.90000000000001</v>
+        <v>53.29999999999998</v>
       </c>
       <c r="C34" t="n">
         <v>2827.6</v>
@@ -18817,7 +18817,7 @@
         <v>24.4</v>
       </c>
       <c r="E34" t="n">
-        <v>9.9</v>
+        <v>0.1000000000000458</v>
       </c>
       <c r="F34" t="n">
         <v>819.7</v>
@@ -18844,7 +18844,7 @@
         <v>12.5</v>
       </c>
       <c r="N34" t="n">
-        <v>214.6</v>
+        <v>93.8000000000003</v>
       </c>
       <c r="O34" t="n">
         <v>2001.2</v>
@@ -18853,7 +18853,7 @@
         <v>5.9</v>
       </c>
       <c r="Q34" t="n">
-        <v>2909.2</v>
+        <v>2252.399999999995</v>
       </c>
       <c r="R34" t="n">
         <v>55795.1</v>
@@ -18880,7 +18880,7 @@
         <v>-15.1</v>
       </c>
       <c r="Z34" t="n">
-        <v>113.9999999999997</v>
+        <v>38.79999999999843</v>
       </c>
       <c r="AA34" t="n">
         <v>3506.7</v>
@@ -18889,7 +18889,7 @@
         <v>12.8</v>
       </c>
       <c r="AC34" t="n">
-        <v>16.2</v>
+        <v>3.000000000000009</v>
       </c>
       <c r="AD34" t="n">
         <v>416.2</v>
@@ -18898,7 +18898,7 @@
         <v>-5.7</v>
       </c>
       <c r="AF34" t="n">
-        <v>13.5</v>
+        <v>6.100000000000087</v>
       </c>
       <c r="AG34" t="n">
         <v>417.7</v>
@@ -18934,7 +18934,7 @@
         <v>223.7</v>
       </c>
       <c r="AR34" t="n">
-        <v>46.4</v>
+        <v>18.20000000000024</v>
       </c>
       <c r="AS34" t="n">
         <v>644.4</v>
@@ -18943,7 +18943,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AU34" t="n">
-        <v>84.3</v>
+        <v>52.49999999999945</v>
       </c>
       <c r="AV34" t="n">
         <v>1479.5</v>
@@ -18961,7 +18961,7 @@
         <v>14.7</v>
       </c>
       <c r="BA34" t="n">
-        <v>25.4</v>
+        <v>10.99999999999992</v>
       </c>
       <c r="BB34" t="n">
         <v>338.7</v>
@@ -18970,7 +18970,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="BD34" t="n">
-        <v>60.5</v>
+        <v>50.29999999999984</v>
       </c>
       <c r="BE34" t="n">
         <v>1681.6</v>
@@ -19015,7 +19015,7 @@
         <v>-21.1</v>
       </c>
       <c r="BS34" t="n">
-        <v>64.2</v>
+        <v>20.29999999999997</v>
       </c>
       <c r="BT34" t="n">
         <v>691.5</v>
@@ -19024,7 +19024,7 @@
         <v>7.7</v>
       </c>
       <c r="BV34" t="n">
-        <v>395.1000000000004</v>
+        <v>226.4000000000016</v>
       </c>
       <c r="BW34" t="n">
         <v>5167.8</v>
@@ -19033,7 +19033,7 @@
         <v>4.9</v>
       </c>
       <c r="BY34" t="n">
-        <v>428.5999999999997</v>
+        <v>342.1999999999991</v>
       </c>
       <c r="BZ34" t="n">
         <v>4085.8</v>
@@ -19042,7 +19042,7 @@
         <v>3.4</v>
       </c>
       <c r="CB34" t="n">
-        <v>86.09999999999999</v>
+        <v>30.70000000000035</v>
       </c>
       <c r="CC34" t="n">
         <v>3999.8</v>
@@ -19051,7 +19051,7 @@
         <v>6</v>
       </c>
       <c r="CE34" t="n">
-        <v>53.3</v>
+        <v>0.6000000000003105</v>
       </c>
       <c r="CF34" t="n">
         <v>553.5</v>
@@ -19078,7 +19078,7 @@
         <v>-83.2</v>
       </c>
       <c r="CN34" t="n">
-        <v>41.6</v>
+        <v>16.69999999999979</v>
       </c>
       <c r="CO34" t="n">
         <v>1105.4</v>
@@ -19087,7 +19087,7 @@
         <v>7.9</v>
       </c>
       <c r="CQ34" t="n">
-        <v>54.8</v>
+        <v>45.09999999999995</v>
       </c>
       <c r="CR34" t="n">
         <v>640.4</v>
@@ -19105,7 +19105,7 @@
         <v>17.2</v>
       </c>
       <c r="CW34" t="n">
-        <v>82.40000000000001</v>
+        <v>75.00000000000037</v>
       </c>
       <c r="CX34" t="n">
         <v>2858.8</v>
@@ -19114,7 +19114,7 @@
         <v>13</v>
       </c>
       <c r="CZ34" t="n">
-        <v>54.4</v>
+        <v>47.60000000000004</v>
       </c>
       <c r="DA34" t="n">
         <v>826.7</v>
@@ -19132,7 +19132,7 @@
         <v>8.9</v>
       </c>
       <c r="DF34" t="n">
-        <v>468.4000000000002</v>
+        <v>325.0000000000006</v>
       </c>
       <c r="DG34" t="n">
         <v>3553.2</v>
@@ -19150,7 +19150,7 @@
         <v>-27.2</v>
       </c>
       <c r="DL34" t="n">
-        <v>81.7</v>
+        <v>16.6999999999994</v>
       </c>
       <c r="DM34" t="n">
         <v>1687.1</v>
@@ -19186,7 +19186,7 @@
         <v>4.2</v>
       </c>
       <c r="DX34" t="n">
-        <v>155.2</v>
+        <v>153.0000000000006</v>
       </c>
       <c r="DY34" t="n">
         <v>1791.4</v>
@@ -19195,7 +19195,7 @@
         <v>6.4</v>
       </c>
       <c r="EA34" t="n">
-        <v>129.5</v>
+        <v>38.59999999999991</v>
       </c>
       <c r="EB34" t="n">
         <v>2464.6</v>
@@ -19355,7 +19355,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.4</v>
+        <v>51.5</v>
       </c>
       <c r="C35" t="n">
         <v>393.7</v>
@@ -19364,7 +19364,7 @@
         <v>399</v>
       </c>
       <c r="E35" t="n">
-        <v>46.8</v>
+        <v>31.89999999999998</v>
       </c>
       <c r="F35" t="n">
         <v>72.59999999999999</v>
@@ -19391,7 +19391,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>140.9</v>
+        <v>19.30000000000001</v>
       </c>
       <c r="O35" t="n">
         <v>312.9</v>
@@ -19427,7 +19427,7 @@
         <v>688.1</v>
       </c>
       <c r="Z35" t="n">
-        <v>196.4</v>
+        <v>11.90000000000109</v>
       </c>
       <c r="AA35" t="n">
         <v>804.5</v>
@@ -19436,7 +19436,7 @@
         <v>95.40000000000001</v>
       </c>
       <c r="AC35" t="n">
-        <v>15.3</v>
+        <v>12.29999999999999</v>
       </c>
       <c r="AD35" t="n">
         <v>43.6</v>
@@ -19445,7 +19445,7 @@
         <v>169.1</v>
       </c>
       <c r="AF35" t="n">
-        <v>12</v>
+        <v>5.899999999999913</v>
       </c>
       <c r="AG35" t="n">
         <v>41.9</v>
@@ -19472,14 +19472,14 @@
         <v>103.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>22</v>
+        <v>59.40000000000001</v>
       </c>
       <c r="AP35" t="n">
         <v>-15.3</v>
       </c>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="n">
-        <v>32.9</v>
+        <v>0.5999999999998806</v>
       </c>
       <c r="AS35" t="n">
         <v>75.7</v>
@@ -19497,7 +19497,7 @@
         <v>258.2</v>
       </c>
       <c r="AX35" t="n">
-        <v>23.3</v>
+        <v>12.90000000000004</v>
       </c>
       <c r="AY35" t="n">
         <v>64.8</v>
@@ -19506,7 +19506,7 @@
         <v>146.4</v>
       </c>
       <c r="BA35" t="n">
-        <v>24.9</v>
+        <v>6.700000000000038</v>
       </c>
       <c r="BB35" t="n">
         <v>38.8</v>
@@ -19533,7 +19533,7 @@
         <v>369.4</v>
       </c>
       <c r="BJ35" t="n">
-        <v>76.59999999999999</v>
+        <v>13.19999999999999</v>
       </c>
       <c r="BK35" t="n">
         <v>832.3</v>
@@ -19569,7 +19569,7 @@
         <v>110</v>
       </c>
       <c r="BV35" t="n">
-        <v>327.4</v>
+        <v>81.69999999999916</v>
       </c>
       <c r="BW35" t="n">
         <v>857.4</v>
@@ -19587,7 +19587,7 @@
         <v>44.7</v>
       </c>
       <c r="CB35" t="n">
-        <v>142</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="CC35" t="n">
         <v>457</v>
@@ -19596,7 +19596,7 @@
         <v>430.8</v>
       </c>
       <c r="CE35" t="n">
-        <v>36.60000000000001</v>
+        <v>11.69999999999987</v>
       </c>
       <c r="CF35" t="n">
         <v>67.59999999999999</v>
@@ -19641,7 +19641,7 @@
         <v>42.9</v>
       </c>
       <c r="CT35" t="n">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="CU35" t="n">
         <v>778.9</v>
@@ -19650,7 +19650,7 @@
         <v>5891.5</v>
       </c>
       <c r="CW35" t="n">
-        <v>124.7</v>
+        <v>42.3</v>
       </c>
       <c r="CX35" t="n">
         <v>345.5</v>
@@ -19668,7 +19668,7 @@
         <v>183.6</v>
       </c>
       <c r="DC35" t="n">
-        <v>234.4</v>
+        <v>133.5999999999996</v>
       </c>
       <c r="DD35" t="n">
         <v>494.7</v>
@@ -19704,7 +19704,7 @@
         <v>182.6</v>
       </c>
       <c r="DO35" t="n">
-        <v>44.8</v>
+        <v>29.8</v>
       </c>
       <c r="DP35" t="n">
         <v>45.6</v>
@@ -19749,7 +19749,7 @@
         <v>271</v>
       </c>
       <c r="ED35" t="n">
-        <v>11.5</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="EE35" t="n">
         <v>95.90000000000001</v>
@@ -19900,7 +19900,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>90</v>
+        <v>38.5</v>
       </c>
       <c r="C36" t="n">
         <v>707.6</v>
@@ -19918,7 +19918,7 @@
         <v>111</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="I36" t="n">
         <v>20.7</v>
@@ -19945,7 +19945,7 @@
         <v>28.9</v>
       </c>
       <c r="Q36" t="n">
-        <v>1256.2</v>
+        <v>971.3999999999999</v>
       </c>
       <c r="R36" t="n">
         <v>15366.3</v>
@@ -19963,7 +19963,7 @@
         <v>342.5</v>
       </c>
       <c r="W36" t="n">
-        <v>8.099999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="X36" t="n">
         <v>136.6</v>
@@ -19972,7 +19972,7 @@
         <v>596.9</v>
       </c>
       <c r="Z36" t="n">
-        <v>89.20000000000002</v>
+        <v>6.799999999999713</v>
       </c>
       <c r="AA36" t="n">
         <v>1147.6</v>
@@ -20033,7 +20033,7 @@
         <v>57</v>
       </c>
       <c r="AU36" t="n">
-        <v>32.8</v>
+        <v>6.999999999999982</v>
       </c>
       <c r="AV36" t="n">
         <v>555</v>
@@ -20042,7 +20042,7 @@
         <v>471</v>
       </c>
       <c r="AX36" t="n">
-        <v>19.9</v>
+        <v>1.799999999999979</v>
       </c>
       <c r="AY36" t="n">
         <v>96.8</v>
@@ -20069,7 +20069,7 @@
         <v>140</v>
       </c>
       <c r="BG36" t="n">
-        <v>23.2</v>
+        <v>21.4</v>
       </c>
       <c r="BH36" t="n">
         <v>59.8</v>
@@ -20078,7 +20078,7 @@
         <v>234.1</v>
       </c>
       <c r="BJ36" t="n">
-        <v>450.4999999999999</v>
+        <v>328.9999999999999</v>
       </c>
       <c r="BK36" t="n">
         <v>1320.8</v>
@@ -20096,7 +20096,7 @@
         <v>18.7</v>
       </c>
       <c r="BP36" t="n">
-        <v>179.3</v>
+        <v>101.9</v>
       </c>
       <c r="BQ36" t="n">
         <v>808.8</v>
@@ -20105,7 +20105,7 @@
         <v>94.3</v>
       </c>
       <c r="BS36" t="n">
-        <v>55.5</v>
+        <v>38.69999999999998</v>
       </c>
       <c r="BT36" t="n">
         <v>227.2</v>
@@ -20132,7 +20132,7 @@
         <v>50.7</v>
       </c>
       <c r="CB36" t="n">
-        <v>112.9000000000001</v>
+        <v>57.00000000000009</v>
       </c>
       <c r="CC36" t="n">
         <v>838</v>
@@ -20157,7 +20157,7 @@
       </c>
       <c r="CJ36" t="inlineStr"/>
       <c r="CK36" t="n">
-        <v>236.7</v>
+        <v>179.9</v>
       </c>
       <c r="CL36" t="n">
         <v>411.2</v>
@@ -20193,7 +20193,7 @@
         <v>141.4</v>
       </c>
       <c r="CW36" t="n">
-        <v>61.59999999999999</v>
+        <v>19.29999999999999</v>
       </c>
       <c r="CX36" t="n">
         <v>633.2</v>
@@ -20202,7 +20202,7 @@
         <v>118.7</v>
       </c>
       <c r="CZ36" t="n">
-        <v>59.09999999999999</v>
+        <v>43.89999999999997</v>
       </c>
       <c r="DA36" t="n">
         <v>247.6</v>
@@ -20229,7 +20229,7 @@
         <v>77.09999999999999</v>
       </c>
       <c r="DI36" t="n">
-        <v>2.000000000000001</v>
+        <v>0.8000000000000009</v>
       </c>
       <c r="DJ36" t="n">
         <v>5.3</v>
@@ -20238,7 +20238,7 @@
         <v>194.4</v>
       </c>
       <c r="DL36" t="n">
-        <v>52.90000000000002</v>
+        <v>41.30000000000005</v>
       </c>
       <c r="DM36" t="n">
         <v>366.6</v>
@@ -20283,7 +20283,7 @@
         <v>52.1</v>
       </c>
       <c r="EA36" t="n">
-        <v>68.50000000000001</v>
+        <v>19.30000000000003</v>
       </c>
       <c r="EB36" t="n">
         <v>871.4</v>
@@ -20292,7 +20292,7 @@
         <v>387.6</v>
       </c>
       <c r="ED36" t="n">
-        <v>43.50000000000001</v>
+        <v>22.90000000000001</v>
       </c>
       <c r="EE36" t="n">
         <v>143.5</v>
@@ -20452,7 +20452,7 @@
         <v>77.7</v>
       </c>
       <c r="E37" t="n">
-        <v>76.70000000000002</v>
+        <v>33.10000000000002</v>
       </c>
       <c r="F37" t="n">
         <v>218.1</v>
@@ -20461,7 +20461,7 @@
         <v>50.3</v>
       </c>
       <c r="H37" t="n">
-        <v>9.799999999999997</v>
+        <v>6.099999999999998</v>
       </c>
       <c r="I37" t="n">
         <v>30.3</v>
@@ -20479,7 +20479,7 @@
         <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>139.1999999999999</v>
+        <v>95.79999999999991</v>
       </c>
       <c r="O37" t="n">
         <v>604.3</v>
@@ -20497,7 +20497,7 @@
         <v>113.9</v>
       </c>
       <c r="T37" t="n">
-        <v>79.69999999999999</v>
+        <v>24.1</v>
       </c>
       <c r="U37" t="n">
         <v>2473.1</v>
@@ -20524,7 +20524,7 @@
         <v>80.2</v>
       </c>
       <c r="AC37" t="n">
-        <v>36.09999999999999</v>
+        <v>26.09999999999999</v>
       </c>
       <c r="AD37" t="n">
         <v>106.6</v>
@@ -20533,7 +20533,7 @@
         <v>26.6</v>
       </c>
       <c r="AF37" t="n">
-        <v>2.999999999999982</v>
+        <v>2.199999999999964</v>
       </c>
       <c r="AG37" t="n">
         <v>97.7</v>
@@ -20551,7 +20551,7 @@
         <v>106.1</v>
       </c>
       <c r="AL37" t="n">
-        <v>14.7</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="AM37" t="n">
         <v>79.40000000000001</v>
@@ -20560,7 +20560,7 @@
         <v>72.59999999999999</v>
       </c>
       <c r="AO37" t="n">
-        <v>3.4</v>
+        <v>0.1999999999999988</v>
       </c>
       <c r="AP37" t="n">
         <v>-6.6</v>
@@ -20576,7 +20576,7 @@
         <v>43</v>
       </c>
       <c r="AU37" t="n">
-        <v>48.09999999999998</v>
+        <v>15.29999999999998</v>
       </c>
       <c r="AV37" t="n">
         <v>834.6</v>
@@ -20594,7 +20594,7 @@
         <v>100.6</v>
       </c>
       <c r="BA37" t="n">
-        <v>28.3</v>
+        <v>17.29999999999998</v>
       </c>
       <c r="BB37" t="n">
         <v>92.7</v>
@@ -20603,7 +20603,7 @@
         <v>14.9</v>
       </c>
       <c r="BD37" t="n">
-        <v>36</v>
+        <v>2.599999999999987</v>
       </c>
       <c r="BE37" t="n">
         <v>556.8</v>
@@ -20639,7 +20639,7 @@
         <v>17.4</v>
       </c>
       <c r="BP37" t="n">
-        <v>175.5</v>
+        <v>34.90000000000001</v>
       </c>
       <c r="BQ37" t="n">
         <v>1140.3</v>
@@ -20657,7 +20657,7 @@
         <v>53.9</v>
       </c>
       <c r="BV37" t="n">
-        <v>106.2999999999998</v>
+        <v>10.4999999999995</v>
       </c>
       <c r="BW37" t="n">
         <v>1809.1</v>
@@ -20666,7 +20666,7 @@
         <v>45.1</v>
       </c>
       <c r="BY37" t="n">
-        <v>89.60000000000025</v>
+        <v>6.000000000000512</v>
       </c>
       <c r="BZ37" t="n">
         <v>1411.5</v>
@@ -20684,7 +20684,7 @@
         <v>85.8</v>
       </c>
       <c r="CE37" t="n">
-        <v>1.700000000000017</v>
+        <v>0.1000000000000512</v>
       </c>
       <c r="CF37" t="n">
         <v>157.4</v>
@@ -20693,7 +20693,7 @@
         <v>23.6</v>
       </c>
       <c r="CH37" t="n">
-        <v>586.1</v>
+        <v>1527.5</v>
       </c>
       <c r="CI37" t="n">
         <v>1187.6</v>
@@ -20772,7 +20772,7 @@
         <v>102.9</v>
       </c>
       <c r="DI37" t="n">
-        <v>3.799999999999999</v>
+        <v>0.399999999999997</v>
       </c>
       <c r="DJ37" t="n">
         <v>12.4</v>
@@ -20790,7 +20790,7 @@
         <v>78.90000000000001</v>
       </c>
       <c r="DO37" t="n">
-        <v>50.39999999999999</v>
+        <v>37.19999999999997</v>
       </c>
       <c r="DP37" t="n">
         <v>143.7</v>
@@ -20817,7 +20817,7 @@
         <v>32</v>
       </c>
       <c r="DX37" t="n">
-        <v>147.9</v>
+        <v>56.09999999999999</v>
       </c>
       <c r="DY37" t="n">
         <v>523.3</v>
@@ -20826,7 +20826,7 @@
         <v>27.6</v>
       </c>
       <c r="EA37" t="n">
-        <v>64.3</v>
+        <v>44.99999999999997</v>
       </c>
       <c r="EB37" t="n">
         <v>1529.8</v>
@@ -20986,7 +20986,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>275.1999999999999</v>
+        <v>163.5999999999999</v>
       </c>
       <c r="C38" t="n">
         <v>1304.3</v>
@@ -21004,7 +21004,7 @@
         <v>34.3</v>
       </c>
       <c r="H38" t="n">
-        <v>9.5</v>
+        <v>2.800000000000002</v>
       </c>
       <c r="I38" t="n">
         <v>39.2</v>
@@ -21040,7 +21040,7 @@
         <v>85.2</v>
       </c>
       <c r="T38" t="n">
-        <v>346.4000000000001</v>
+        <v>242.6000000000001</v>
       </c>
       <c r="U38" t="n">
         <v>3200.1</v>
@@ -21049,7 +21049,7 @@
         <v>211.4</v>
       </c>
       <c r="W38" t="n">
-        <v>29.29999999999999</v>
+        <v>19.29999999999999</v>
       </c>
       <c r="X38" t="n">
         <v>275.9</v>
@@ -21067,7 +21067,7 @@
         <v>81.7</v>
       </c>
       <c r="AC38" t="n">
-        <v>35.00000000000001</v>
+        <v>3.900000000000016</v>
       </c>
       <c r="AD38" t="n">
         <v>142.2</v>
@@ -21076,7 +21076,7 @@
         <v>18.2</v>
       </c>
       <c r="AF38" t="n">
-        <v>10.5</v>
+        <v>4.900000000000045</v>
       </c>
       <c r="AG38" t="n">
         <v>135.7</v>
@@ -21103,14 +21103,14 @@
         <v>80.40000000000001</v>
       </c>
       <c r="AO38" t="n">
-        <v>4.1</v>
+        <v>0.5000000000000009</v>
       </c>
       <c r="AP38" t="n">
         <v>-2.3</v>
       </c>
       <c r="AQ38" t="inlineStr"/>
       <c r="AR38" t="n">
-        <v>46.79999999999998</v>
+        <v>24.39999999999996</v>
       </c>
       <c r="AS38" t="n">
         <v>230.7</v>
@@ -21119,7 +21119,7 @@
         <v>26.8</v>
       </c>
       <c r="AU38" t="n">
-        <v>46.00000000000003</v>
+        <v>30.70000000000005</v>
       </c>
       <c r="AV38" t="n">
         <v>1152</v>
@@ -21128,7 +21128,7 @@
         <v>386.7</v>
       </c>
       <c r="AX38" t="n">
-        <v>28.69999999999999</v>
+        <v>7.699999999999971</v>
       </c>
       <c r="AY38" t="n">
         <v>194.2</v>
@@ -21137,7 +21137,7 @@
         <v>94.40000000000001</v>
       </c>
       <c r="BA38" t="n">
-        <v>25.59999999999999</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="BB38" t="n">
         <v>128.1</v>
@@ -21146,7 +21146,7 @@
         <v>17.5</v>
       </c>
       <c r="BD38" t="n">
-        <v>172.3</v>
+        <v>133.7</v>
       </c>
       <c r="BE38" t="n">
         <v>700.1</v>
@@ -21164,7 +21164,7 @@
         <v>60.3</v>
       </c>
       <c r="BJ38" t="n">
-        <v>614.7</v>
+        <v>397.3000000000001</v>
       </c>
       <c r="BK38" t="n">
         <v>2474.5</v>
@@ -21191,7 +21191,7 @@
         <v>109.4</v>
       </c>
       <c r="BS38" t="n">
-        <v>60.80000000000001</v>
+        <v>40.60000000000008</v>
       </c>
       <c r="BT38" t="n">
         <v>365.6</v>
@@ -21200,7 +21200,7 @@
         <v>41.8</v>
       </c>
       <c r="BV38" t="n">
-        <v>86.60000000000014</v>
+        <v>28.20000000000049</v>
       </c>
       <c r="BW38" t="n">
         <v>2232.1</v>
@@ -21209,7 +21209,7 @@
         <v>29.1</v>
       </c>
       <c r="BY38" t="n">
-        <v>91.19999999999987</v>
+        <v>1.599999999999625</v>
       </c>
       <c r="BZ38" t="n">
         <v>1722.6</v>
@@ -21227,7 +21227,7 @@
         <v>49.8</v>
       </c>
       <c r="CE38" t="n">
-        <v>9.09999999999998</v>
+        <v>6.499999999999929</v>
       </c>
       <c r="CF38" t="n">
         <v>196.6</v>
@@ -21252,7 +21252,7 @@
         <v>273.1</v>
       </c>
       <c r="CN38" t="n">
-        <v>96.79999999999995</v>
+        <v>69.39999999999995</v>
       </c>
       <c r="CO38" t="n">
         <v>355</v>
@@ -21261,7 +21261,7 @@
         <v>4.7</v>
       </c>
       <c r="CQ38" t="n">
-        <v>4.100000000000001</v>
+        <v>0.4000000000000274</v>
       </c>
       <c r="CR38" t="n">
         <v>234.6</v>
@@ -21279,7 +21279,7 @@
         <v>49.3</v>
       </c>
       <c r="CW38" t="n">
-        <v>283.1</v>
+        <v>247.1000000000002</v>
       </c>
       <c r="CX38" t="n">
         <v>1229.2</v>
@@ -21297,7 +21297,7 @@
         <v>84.2</v>
       </c>
       <c r="DC38" t="n">
-        <v>149.7</v>
+        <v>14.09999999999999</v>
       </c>
       <c r="DD38" t="n">
         <v>1138.7</v>
@@ -21315,7 +21315,7 @@
         <v>135.5</v>
       </c>
       <c r="DI38" t="n">
-        <v>3.299999999999999</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="DJ38" t="n">
         <v>18.4</v>
@@ -21324,7 +21324,7 @@
         <v>70.40000000000001</v>
       </c>
       <c r="DL38" t="n">
-        <v>133.0000000000001</v>
+        <v>114.6000000000001</v>
       </c>
       <c r="DM38" t="n">
         <v>751.1</v>
@@ -21342,7 +21342,7 @@
         <v>15.3</v>
       </c>
       <c r="DR38" t="n">
-        <v>416.2</v>
+        <v>299.2</v>
       </c>
       <c r="DS38" t="n">
         <v>1883.4</v>
@@ -21351,7 +21351,7 @@
         <v>30.3</v>
       </c>
       <c r="DU38" t="n">
-        <v>25.50000000000001</v>
+        <v>22.70000000000003</v>
       </c>
       <c r="DV38" t="n">
         <v>138.7</v>
@@ -21369,7 +21369,7 @@
         <v>16.3</v>
       </c>
       <c r="EA38" t="n">
-        <v>139</v>
+        <v>10.40000000000001</v>
       </c>
       <c r="EB38" t="n">
         <v>2282.3</v>
@@ -21538,7 +21538,7 @@
         <v>31</v>
       </c>
       <c r="E39" t="n">
-        <v>79.09999999999997</v>
+        <v>50.5</v>
       </c>
       <c r="F39" t="n">
         <v>391.2</v>
@@ -21556,7 +21556,7 @@
         <v>21.5</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="L39" t="n">
         <v>0.3</v>
@@ -21565,7 +21565,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>10.19999999999999</v>
+        <v>1.399999999999894</v>
       </c>
       <c r="O39" t="n">
         <v>848.7</v>
@@ -21574,7 +21574,7 @@
         <v>5.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>5116.100000000002</v>
+        <v>4574.100000000006</v>
       </c>
       <c r="R39" t="n">
         <v>35677.3</v>
@@ -21601,7 +21601,7 @@
         <v>387.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>279.2</v>
+        <v>253.9999999999998</v>
       </c>
       <c r="AA39" t="n">
         <v>3000.4</v>
@@ -21619,7 +21619,7 @@
         <v>11.8</v>
       </c>
       <c r="AF39" t="n">
-        <v>37.20000000000002</v>
+        <v>19.2</v>
       </c>
       <c r="AG39" t="n">
         <v>170.4</v>
@@ -21628,7 +21628,7 @@
         <v>27.9</v>
       </c>
       <c r="AI39" t="n">
-        <v>6043.899999999998</v>
+        <v>5017.3</v>
       </c>
       <c r="AJ39" t="n">
         <v>42183.3</v>
@@ -21637,7 +21637,7 @@
         <v>66.90000000000001</v>
       </c>
       <c r="AL39" t="n">
-        <v>4</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="AM39" t="n">
         <v>128.5</v>
@@ -21691,7 +21691,7 @@
         <v>13.8</v>
       </c>
       <c r="BD39" t="n">
-        <v>164.7</v>
+        <v>28.39999999999998</v>
       </c>
       <c r="BE39" t="n">
         <v>812.1</v>
@@ -21700,7 +21700,7 @@
         <v>24.9</v>
       </c>
       <c r="BG39" t="n">
-        <v>13.10000000000001</v>
+        <v>12.70000000000003</v>
       </c>
       <c r="BH39" t="n">
         <v>186.7</v>
@@ -21718,7 +21718,7 @@
         <v>45.2</v>
       </c>
       <c r="BM39" t="n">
-        <v>32.10000000000019</v>
+        <v>24.10000000000039</v>
       </c>
       <c r="BN39" t="n">
         <v>1000.3</v>
@@ -21727,7 +21727,7 @@
         <v>14.1</v>
       </c>
       <c r="BP39" t="n">
-        <v>166</v>
+        <v>123.6000000000002</v>
       </c>
       <c r="BQ39" t="n">
         <v>2068.8</v>
@@ -21736,7 +21736,7 @@
         <v>113.8</v>
       </c>
       <c r="BS39" t="n">
-        <v>54.40000000000003</v>
+        <v>3.699999999999974</v>
       </c>
       <c r="BT39" t="n">
         <v>473.3</v>
@@ -21754,7 +21754,7 @@
         <v>16.9</v>
       </c>
       <c r="BY39" t="n">
-        <v>26.10000000000008</v>
+        <v>24.50000000000045</v>
       </c>
       <c r="BZ39" t="n">
         <v>2024.9</v>
@@ -21763,7 +21763,7 @@
         <v>9.5</v>
       </c>
       <c r="CB39" t="n">
-        <v>339.6999999999998</v>
+        <v>320.6999999999994</v>
       </c>
       <c r="CC39" t="n">
         <v>1993.1</v>
@@ -21772,7 +21772,7 @@
         <v>36.1</v>
       </c>
       <c r="CE39" t="n">
-        <v>29.40000000000001</v>
+        <v>12.90000000000007</v>
       </c>
       <c r="CF39" t="n">
         <v>243.5</v>
@@ -21781,7 +21781,7 @@
         <v>13.5</v>
       </c>
       <c r="CH39" t="n">
-        <v>92.19999999999999</v>
+        <v>13</v>
       </c>
       <c r="CI39" t="n">
         <v>1794.1</v>
@@ -21797,7 +21797,7 @@
         <v>248.6</v>
       </c>
       <c r="CN39" t="n">
-        <v>87.89999999999998</v>
+        <v>4.800000000000026</v>
       </c>
       <c r="CO39" t="n">
         <v>446</v>
@@ -21806,7 +21806,7 @@
         <v>2.3</v>
       </c>
       <c r="CQ39" t="n">
-        <v>4.80000000000004</v>
+        <v>0.300000000000011</v>
       </c>
       <c r="CR39" t="n">
         <v>274</v>
@@ -21815,7 +21815,7 @@
         <v>13.9</v>
       </c>
       <c r="CT39" t="n">
-        <v>512.4000000000001</v>
+        <v>497.2000000000003</v>
       </c>
       <c r="CU39" t="n">
         <v>3451.6</v>
@@ -21824,7 +21824,7 @@
         <v>45.2</v>
       </c>
       <c r="CW39" t="n">
-        <v>277.7</v>
+        <v>12.59999999999991</v>
       </c>
       <c r="CX39" t="n">
         <v>1516.6</v>
@@ -21842,7 +21842,7 @@
         <v>77.09999999999999</v>
       </c>
       <c r="DC39" t="n">
-        <v>169.4000000000001</v>
+        <v>5.600000000000108</v>
       </c>
       <c r="DD39" t="n">
         <v>1435.8</v>
@@ -21851,7 +21851,7 @@
         <v>29.7</v>
       </c>
       <c r="DF39" t="n">
-        <v>326.9000000000001</v>
+        <v>15.30000000000049</v>
       </c>
       <c r="DG39" t="n">
         <v>3821.1</v>
@@ -21878,7 +21878,7 @@
         <v>52.3</v>
       </c>
       <c r="DO39" t="n">
-        <v>48.10000000000002</v>
+        <v>22.90000000000002</v>
       </c>
       <c r="DP39" t="n">
         <v>273.1</v>
@@ -21905,7 +21905,7 @@
         <v>27.9</v>
       </c>
       <c r="DX39" t="n">
-        <v>134.9</v>
+        <v>124.7</v>
       </c>
       <c r="DY39" t="n">
         <v>785</v>
@@ -21914,7 +21914,7 @@
         <v>10.4</v>
       </c>
       <c r="EA39" t="n">
-        <v>253.5000000000001</v>
+        <v>39.8000000000001</v>
       </c>
       <c r="EB39" t="n">
         <v>2671</v>
@@ -21923,7 +21923,7 @@
         <v>234.1</v>
       </c>
       <c r="ED39" t="n">
-        <v>28.30000000000001</v>
+        <v>9.099999999999991</v>
       </c>
       <c r="EE39" t="n">
         <v>380.3</v>
@@ -22083,7 +22083,7 @@
         <v>17.7</v>
       </c>
       <c r="E40" t="n">
-        <v>75.30000000000001</v>
+        <v>10.50000000000003</v>
       </c>
       <c r="F40" t="n">
         <v>472</v>
@@ -22101,7 +22101,7 @@
         <v>15.1</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="L40" t="n">
         <v>0.3</v>
@@ -22110,7 +22110,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>4.300000000000011</v>
+        <v>2.900000000000118</v>
       </c>
       <c r="O40" t="n">
         <v>970.2</v>
@@ -22128,7 +22128,7 @@
         <v>56.4</v>
       </c>
       <c r="T40" t="n">
-        <v>33.90000000000032</v>
+        <v>11.50000000000068</v>
       </c>
       <c r="U40" t="n">
         <v>4544.9</v>
@@ -22155,7 +22155,7 @@
         <v>91.90000000000001</v>
       </c>
       <c r="AC40" t="n">
-        <v>36</v>
+        <v>27.20000000000006</v>
       </c>
       <c r="AD40" t="n">
         <v>207.1</v>
@@ -22164,7 +22164,7 @@
         <v>6.4</v>
       </c>
       <c r="AF40" t="n">
-        <v>33</v>
+        <v>6.299999999999979</v>
       </c>
       <c r="AG40" t="n">
         <v>223.3</v>
@@ -22182,7 +22182,7 @@
         <v>57.3</v>
       </c>
       <c r="AL40" t="n">
-        <v>18</v>
+        <v>12.6</v>
       </c>
       <c r="AM40" t="n">
         <v>153.4</v>
@@ -22191,14 +22191,14 @@
         <v>54.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>5.9</v>
+        <v>15.7</v>
       </c>
       <c r="AP40" t="n">
         <v>3.9</v>
       </c>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="n">
-        <v>6.199999999999946</v>
+        <v>1.999999999999858</v>
       </c>
       <c r="AS40" t="n">
         <v>342.4</v>
@@ -22207,7 +22207,7 @@
         <v>23.3</v>
       </c>
       <c r="AU40" t="n">
-        <v>157.1</v>
+        <v>95.70000000000002</v>
       </c>
       <c r="AV40" t="n">
         <v>1641.3</v>
@@ -22216,7 +22216,7 @@
         <v>200.1</v>
       </c>
       <c r="AX40" t="n">
-        <v>7.399999999999967</v>
+        <v>4.399999999999903</v>
       </c>
       <c r="AY40" t="n">
         <v>284.6</v>
@@ -22225,7 +22225,7 @@
         <v>79.2</v>
       </c>
       <c r="BA40" t="n">
-        <v>23.79999999999998</v>
+        <v>22.59999999999992</v>
       </c>
       <c r="BB40" t="n">
         <v>181.9</v>
@@ -22252,7 +22252,7 @@
         <v>32.5</v>
       </c>
       <c r="BJ40" t="n">
-        <v>567.2000000000003</v>
+        <v>375.2000000000007</v>
       </c>
       <c r="BK40" t="n">
         <v>3221.1</v>
@@ -22261,7 +22261,7 @@
         <v>19.7</v>
       </c>
       <c r="BM40" t="n">
-        <v>103.5</v>
+        <v>43.29999999999951</v>
       </c>
       <c r="BN40" t="n">
         <v>1119.9</v>
@@ -22315,7 +22315,7 @@
         <v>30.2</v>
       </c>
       <c r="CE40" t="n">
-        <v>46.5</v>
+        <v>17.09999999999999</v>
       </c>
       <c r="CF40" t="n">
         <v>288.1</v>
@@ -22324,7 +22324,7 @@
         <v>-1.4</v>
       </c>
       <c r="CH40" t="n">
-        <v>65.30000000000001</v>
+        <v>52.30000000000001</v>
       </c>
       <c r="CI40" t="n">
         <v>2085.7</v>
@@ -22349,7 +22349,7 @@
         <v>4.2</v>
       </c>
       <c r="CQ40" t="n">
-        <v>59.09999999999997</v>
+        <v>53.59999999999989</v>
       </c>
       <c r="CR40" t="n">
         <v>332.3</v>
@@ -22403,7 +22403,7 @@
         <v>144.6</v>
       </c>
       <c r="DI40" t="n">
-        <v>6.600000000000001</v>
+        <v>5</v>
       </c>
       <c r="DJ40" t="n">
         <v>36.4</v>
@@ -22412,7 +22412,7 @@
         <v>17.4</v>
       </c>
       <c r="DL40" t="n">
-        <v>140.5</v>
+        <v>80.7000000000002</v>
       </c>
       <c r="DM40" t="n">
         <v>1086.7</v>
@@ -22421,7 +22421,7 @@
         <v>43.9</v>
       </c>
       <c r="DO40" t="n">
-        <v>42.09999999999997</v>
+        <v>19.19999999999995</v>
       </c>
       <c r="DP40" t="n">
         <v>322.9</v>
@@ -22430,7 +22430,7 @@
         <v>10.3</v>
       </c>
       <c r="DR40" t="n">
-        <v>445.7000000000003</v>
+        <v>385.9000000000005</v>
       </c>
       <c r="DS40" t="n">
         <v>2791.4</v>
@@ -22439,7 +22439,7 @@
         <v>21</v>
       </c>
       <c r="DU40" t="n">
-        <v>31.70000000000002</v>
+        <v>16.90000000000008</v>
       </c>
       <c r="DV40" t="n">
         <v>206.1</v>
@@ -22457,7 +22457,7 @@
         <v>4.4</v>
       </c>
       <c r="EA40" t="n">
-        <v>251.6999999999998</v>
+        <v>137.1999999999997</v>
       </c>
       <c r="EB40" t="n">
         <v>2964.7</v>
@@ -22466,7 +22466,7 @@
         <v>181.6</v>
       </c>
       <c r="ED40" t="n">
-        <v>50.90000000000001</v>
+        <v>3.900000000000002</v>
       </c>
       <c r="EE40" t="n">
         <v>563.4</v>
@@ -22635,7 +22635,7 @@
         <v>16.1</v>
       </c>
       <c r="H41" t="n">
-        <v>8.299999999999997</v>
+        <v>6.299999999999983</v>
       </c>
       <c r="I41" t="n">
         <v>65.90000000000001</v>
@@ -22644,7 +22644,7 @@
         <v>16.2</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="L41" t="n">
         <v>0.3</v>
@@ -22653,7 +22653,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>162.0999999999999</v>
+        <v>153.4999999999999</v>
       </c>
       <c r="O41" t="n">
         <v>1081.3</v>
@@ -22662,7 +22662,7 @@
         <v>-4</v>
       </c>
       <c r="Q41" t="n">
-        <v>322.4999999999964</v>
+        <v>239.2999999999993</v>
       </c>
       <c r="R41" t="n">
         <v>46839.5</v>
@@ -22671,7 +22671,7 @@
         <v>48.2</v>
       </c>
       <c r="T41" t="n">
-        <v>59.69999999999959</v>
+        <v>3.099999999998769</v>
       </c>
       <c r="U41" t="n">
         <v>5195.9</v>
@@ -22680,7 +22680,7 @@
         <v>144.7</v>
       </c>
       <c r="W41" t="n">
-        <v>4.500000000000009</v>
+        <v>1.700000000000028</v>
       </c>
       <c r="X41" t="n">
         <v>437.1</v>
@@ -22689,7 +22689,7 @@
         <v>367</v>
       </c>
       <c r="Z41" t="n">
-        <v>55.2999999999995</v>
+        <v>31.49999999999932</v>
       </c>
       <c r="AA41" t="n">
         <v>4083.5</v>
@@ -22716,7 +22716,7 @@
         <v>27</v>
       </c>
       <c r="AI41" t="n">
-        <v>161.1999999999998</v>
+        <v>27.89999999999688</v>
       </c>
       <c r="AJ41" t="n">
         <v>56051.4</v>
@@ -22759,7 +22759,7 @@
         <v>177.5</v>
       </c>
       <c r="AX41" t="n">
-        <v>7</v>
+        <v>1.100000000000065</v>
       </c>
       <c r="AY41" t="n">
         <v>334.7</v>
@@ -22777,7 +22777,7 @@
         <v>12.1</v>
       </c>
       <c r="BD41" t="n">
-        <v>154.2</v>
+        <v>143.6</v>
       </c>
       <c r="BE41" t="n">
         <v>1069.5</v>
@@ -22786,7 +22786,7 @@
         <v>8.6</v>
       </c>
       <c r="BG41" t="n">
-        <v>43.5</v>
+        <v>22.30000000000002</v>
       </c>
       <c r="BH41" t="n">
         <v>291.7</v>
@@ -22795,7 +22795,7 @@
         <v>19.2</v>
       </c>
       <c r="BJ41" t="n">
-        <v>495.5999999999999</v>
+        <v>24.39999999999941</v>
       </c>
       <c r="BK41" t="n">
         <v>3438.3</v>
@@ -22813,7 +22813,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BP41" t="n">
-        <v>162.7</v>
+        <v>79.7</v>
       </c>
       <c r="BQ41" t="n">
         <v>3290.3</v>
@@ -22831,7 +22831,7 @@
         <v>38</v>
       </c>
       <c r="BV41" t="n">
-        <v>537.0999999999999</v>
+        <v>476.0999999999999</v>
       </c>
       <c r="BW41" t="n">
         <v>3298.9</v>
@@ -22840,7 +22840,7 @@
         <v>-6.5</v>
       </c>
       <c r="BY41" t="n">
-        <v>428.5999999999999</v>
+        <v>381.6000000000003</v>
       </c>
       <c r="BZ41" t="n">
         <v>2422.2</v>
@@ -22849,7 +22849,7 @@
         <v>-15.3</v>
       </c>
       <c r="CB41" t="n">
-        <v>99.59999999999991</v>
+        <v>44.89999999999964</v>
       </c>
       <c r="CC41" t="n">
         <v>2728.2</v>
@@ -22867,7 +22867,7 @@
         <v>8.1</v>
       </c>
       <c r="CH41" t="n">
-        <v>151.8</v>
+        <v>21.19999999999999</v>
       </c>
       <c r="CI41" t="n">
         <v>2288.4</v>
@@ -22876,7 +22876,7 @@
         <v>2471.2</v>
       </c>
       <c r="CK41" t="n">
-        <v>36</v>
+        <v>2.400000000000098</v>
       </c>
       <c r="CL41" t="n">
         <v>1379.7</v>
@@ -22885,7 +22885,7 @@
         <v>265.1</v>
       </c>
       <c r="CN41" t="n">
-        <v>97.79999999999995</v>
+        <v>71.1999999999999</v>
       </c>
       <c r="CO41" t="n">
         <v>639.5</v>
@@ -22903,7 +22903,7 @@
         <v>9.5</v>
       </c>
       <c r="CT41" t="n">
-        <v>524.9000000000001</v>
+        <v>486.5000000000005</v>
       </c>
       <c r="CU41" t="n">
         <v>4610.3</v>
@@ -22921,7 +22921,7 @@
         <v>20.6</v>
       </c>
       <c r="CZ41" t="n">
-        <v>22.10000000000002</v>
+        <v>16.5</v>
       </c>
       <c r="DA41" t="n">
         <v>577.7</v>
@@ -22930,7 +22930,7 @@
         <v>45.4</v>
       </c>
       <c r="DC41" t="n">
-        <v>38.60000000000011</v>
+        <v>31.60000000000051</v>
       </c>
       <c r="DD41" t="n">
         <v>1809.5</v>
@@ -22939,7 +22939,7 @@
         <v>24.9</v>
       </c>
       <c r="DF41" t="n">
-        <v>321.0999999999999</v>
+        <v>199.1000000000003</v>
       </c>
       <c r="DG41" t="n">
         <v>5913</v>
@@ -22984,7 +22984,7 @@
         <v>16.8</v>
       </c>
       <c r="DU41" t="n">
-        <v>28.90000000000001</v>
+        <v>4.599999999999959</v>
       </c>
       <c r="DV41" t="n">
         <v>248.6</v>
@@ -22993,7 +22993,7 @@
         <v>25.6</v>
       </c>
       <c r="DX41" t="n">
-        <v>22.2999999999999</v>
+        <v>8.699999999999937</v>
       </c>
       <c r="DY41" t="n">
         <v>997.7</v>
@@ -23011,7 +23011,7 @@
         <v>155.6</v>
       </c>
       <c r="ED41" t="n">
-        <v>50.80000000000001</v>
+        <v>28.20000000000001</v>
       </c>
       <c r="EE41" t="n">
         <v>656.8</v>
@@ -23162,7 +23162,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>204.2</v>
+        <v>181.2</v>
       </c>
       <c r="C42" t="n">
         <v>2113.8</v>
@@ -23171,7 +23171,7 @@
         <v>17.8</v>
       </c>
       <c r="E42" t="n">
-        <v>74.69999999999993</v>
+        <v>41.49999999999989</v>
       </c>
       <c r="F42" t="n">
         <v>640.2</v>
@@ -23216,7 +23216,7 @@
         <v>42.9</v>
       </c>
       <c r="T42" t="n">
-        <v>59.20000000000027</v>
+        <v>33.400000000001</v>
       </c>
       <c r="U42" t="n">
         <v>5839.1</v>
@@ -23225,7 +23225,7 @@
         <v>126.8</v>
       </c>
       <c r="W42" t="n">
-        <v>11.5</v>
+        <v>5.299999999999963</v>
       </c>
       <c r="X42" t="n">
         <v>471.4</v>
@@ -23234,7 +23234,7 @@
         <v>317.9</v>
       </c>
       <c r="Z42" t="n">
-        <v>282.6000000000004</v>
+        <v>183.9000000000015</v>
       </c>
       <c r="AA42" t="n">
         <v>4525.3</v>
@@ -23243,7 +23243,7 @@
         <v>80.59999999999999</v>
       </c>
       <c r="AC42" t="n">
-        <v>41.79999999999995</v>
+        <v>23.99999999999989</v>
       </c>
       <c r="AD42" t="n">
         <v>273.9</v>
@@ -23261,7 +23261,7 @@
         <v>20.2</v>
       </c>
       <c r="AI42" t="n">
-        <v>234.2999999999965</v>
+        <v>45.19999999999982</v>
       </c>
       <c r="AJ42" t="n">
         <v>63440.8</v>
@@ -23270,7 +23270,7 @@
         <v>44.7</v>
       </c>
       <c r="AL42" t="n">
-        <v>9.199999999999978</v>
+        <v>5.199999999999957</v>
       </c>
       <c r="AM42" t="n">
         <v>205.8</v>
@@ -23286,7 +23286,7 @@
       </c>
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="n">
-        <v>4.899999999999977</v>
+        <v>1.899999999999927</v>
       </c>
       <c r="AS42" t="n">
         <v>462.9</v>
@@ -23295,7 +23295,7 @@
         <v>18.4</v>
       </c>
       <c r="AU42" t="n">
-        <v>137.8</v>
+        <v>117.8</v>
       </c>
       <c r="AV42" t="n">
         <v>2282.3</v>
@@ -23304,7 +23304,7 @@
         <v>162</v>
       </c>
       <c r="AX42" t="n">
-        <v>41.19999999999999</v>
+        <v>27.19999999999999</v>
       </c>
       <c r="AY42" t="n">
         <v>378.4</v>
@@ -23349,7 +23349,7 @@
         <v>1.2</v>
       </c>
       <c r="BM42" t="n">
-        <v>83.5</v>
+        <v>38.5</v>
       </c>
       <c r="BN42" t="n">
         <v>1314.3</v>
@@ -23367,7 +23367,7 @@
         <v>172.2</v>
       </c>
       <c r="BS42" t="n">
-        <v>50.10000000000002</v>
+        <v>21.69999999999992</v>
       </c>
       <c r="BT42" t="n">
         <v>645.1</v>
@@ -23394,7 +23394,7 @@
         <v>-24.6</v>
       </c>
       <c r="CB42" t="n">
-        <v>380.6999999999998</v>
+        <v>236.2000000000003</v>
       </c>
       <c r="CC42" t="n">
         <v>3123.7</v>
@@ -23475,7 +23475,7 @@
         <v>34.4</v>
       </c>
       <c r="DC42" t="n">
-        <v>119.7</v>
+        <v>45.99999999999959</v>
       </c>
       <c r="DD42" t="n">
         <v>2013.6</v>
@@ -23493,7 +23493,7 @@
         <v>161.8</v>
       </c>
       <c r="DI42" t="n">
-        <v>4.9</v>
+        <v>4.100000000000003</v>
       </c>
       <c r="DJ42" t="n">
         <v>48.1</v>
@@ -23511,7 +23511,7 @@
         <v>35.7</v>
       </c>
       <c r="DO42" t="n">
-        <v>53.10000000000002</v>
+        <v>20.09999999999997</v>
       </c>
       <c r="DP42" t="n">
         <v>430.5</v>
@@ -23520,7 +23520,7 @@
         <v>5</v>
       </c>
       <c r="DR42" t="n">
-        <v>65.30000000000018</v>
+        <v>17.30000000000109</v>
       </c>
       <c r="DS42" t="n">
         <v>3696.6</v>
@@ -23725,7 +23725,7 @@
         <v>13.9</v>
       </c>
       <c r="H43" t="n">
-        <v>6.600000000000009</v>
+        <v>6.000000000000015</v>
       </c>
       <c r="I43" t="n">
         <v>86.09999999999999</v>
@@ -23734,7 +23734,7 @@
         <v>17</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L43" t="n">
         <v>0.4</v>
@@ -23752,7 +23752,7 @@
         <v>-10</v>
       </c>
       <c r="Q43" t="n">
-        <v>892.9000000000005</v>
+        <v>670.0999999999958</v>
       </c>
       <c r="R43" t="n">
         <v>59300.4</v>
@@ -23761,7 +23761,7 @@
         <v>39</v>
       </c>
       <c r="T43" t="n">
-        <v>82.19999999999982</v>
+        <v>22.99999999999955</v>
       </c>
       <c r="U43" t="n">
         <v>6677</v>
@@ -23770,7 +23770,7 @@
         <v>116.4</v>
       </c>
       <c r="W43" t="n">
-        <v>11.3</v>
+        <v>4.30000000000001</v>
       </c>
       <c r="X43" t="n">
         <v>539.1</v>
@@ -23797,7 +23797,7 @@
         <v>-3.1</v>
       </c>
       <c r="AF43" t="n">
-        <v>13.49999999999997</v>
+        <v>8.499999999999911</v>
       </c>
       <c r="AG43" t="n">
         <v>332.8</v>
@@ -23806,7 +23806,7 @@
         <v>15.4</v>
       </c>
       <c r="AI43" t="n">
-        <v>816.0000000000073</v>
+        <v>508.600000000014</v>
       </c>
       <c r="AJ43" t="n">
         <v>71649.89999999999</v>
@@ -23831,7 +23831,7 @@
       </c>
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="n">
-        <v>19.30000000000001</v>
+        <v>12.5000000000001</v>
       </c>
       <c r="AS43" t="n">
         <v>534.1</v>
@@ -23876,7 +23876,7 @@
         <v>-0.8</v>
       </c>
       <c r="BG43" t="n">
-        <v>50.19999999999999</v>
+        <v>35.99999999999995</v>
       </c>
       <c r="BH43" t="n">
         <v>363.7</v>
@@ -23885,7 +23885,7 @@
         <v>7.3</v>
       </c>
       <c r="BJ43" t="n">
-        <v>567.4000000000005</v>
+        <v>343.2000000000007</v>
       </c>
       <c r="BK43" t="n">
         <v>4233.7</v>
@@ -23894,7 +23894,7 @@
         <v>-2.9</v>
       </c>
       <c r="BM43" t="n">
-        <v>61.70000000000005</v>
+        <v>0.7000000000000526</v>
       </c>
       <c r="BN43" t="n">
         <v>1407.1</v>
@@ -23921,7 +23921,7 @@
         <v>28.3</v>
       </c>
       <c r="BV43" t="n">
-        <v>536.6999999999998</v>
+        <v>507.0999999999995</v>
       </c>
       <c r="BW43" t="n">
         <v>3710.5</v>
@@ -23930,7 +23930,7 @@
         <v>-19.7</v>
       </c>
       <c r="BY43" t="n">
-        <v>409.6999999999998</v>
+        <v>364.5</v>
       </c>
       <c r="BZ43" t="n">
         <v>2655.2</v>
@@ -23948,7 +23948,7 @@
         <v>14.6</v>
       </c>
       <c r="CE43" t="n">
-        <v>4.899999999999977</v>
+        <v>3.899999999999977</v>
       </c>
       <c r="CF43" t="n">
         <v>448.4</v>
@@ -23957,7 +23957,7 @@
         <v>2.2</v>
       </c>
       <c r="CH43" t="n">
-        <v>21.90000000000001</v>
+        <v>8.200000000000019</v>
       </c>
       <c r="CI43" t="n">
         <v>2746</v>
@@ -23993,7 +23993,7 @@
         <v>4.6</v>
       </c>
       <c r="CT43" t="n">
-        <v>178.4000000000005</v>
+        <v>115.4000000000013</v>
       </c>
       <c r="CU43" t="n">
         <v>6048.6</v>
@@ -24002,7 +24002,7 @@
         <v>34.3</v>
       </c>
       <c r="CW43" t="n">
-        <v>63.90000000000009</v>
+        <v>32.10000000000025</v>
       </c>
       <c r="CX43" t="n">
         <v>2528.2</v>
@@ -24011,7 +24011,7 @@
         <v>13.7</v>
       </c>
       <c r="CZ43" t="n">
-        <v>10.90000000000006</v>
+        <v>1.100000000000163</v>
       </c>
       <c r="DA43" t="n">
         <v>707.2</v>
@@ -24029,7 +24029,7 @@
         <v>21.2</v>
       </c>
       <c r="DF43" t="n">
-        <v>367.5</v>
+        <v>151.2999999999992</v>
       </c>
       <c r="DG43" t="n">
         <v>8639</v>
@@ -24038,7 +24038,7 @@
         <v>178.2</v>
       </c>
       <c r="DI43" t="n">
-        <v>6.700000000000003</v>
+        <v>1.800000000000002</v>
       </c>
       <c r="DJ43" t="n">
         <v>55.6</v>
@@ -24047,7 +24047,7 @@
         <v>-1.6</v>
       </c>
       <c r="DL43" t="n">
-        <v>45.0000000000002</v>
+        <v>23.79999999999998</v>
       </c>
       <c r="DM43" t="n">
         <v>1652.7</v>
@@ -24083,7 +24083,7 @@
         <v>19.9</v>
       </c>
       <c r="DX43" t="n">
-        <v>139.5</v>
+        <v>128.4999999999998</v>
       </c>
       <c r="DY43" t="n">
         <v>1275.2</v>
@@ -24279,7 +24279,7 @@
         <v>18.6</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="L44" t="n">
         <v>0.4</v>
@@ -24288,7 +24288,7 @@
         <v>-33.3</v>
       </c>
       <c r="N44" t="n">
-        <v>224.2</v>
+        <v>209.6</v>
       </c>
       <c r="O44" t="n">
         <v>1545</v>
@@ -24315,7 +24315,7 @@
         <v>102</v>
       </c>
       <c r="W44" t="n">
-        <v>24.90000000000001</v>
+        <v>2.30000000000001</v>
       </c>
       <c r="X44" t="n">
         <v>597</v>
@@ -24324,7 +24324,7 @@
         <v>221.8</v>
       </c>
       <c r="Z44" t="n">
-        <v>360.3000000000002</v>
+        <v>174.9000000000016</v>
       </c>
       <c r="AA44" t="n">
         <v>5403.5</v>
@@ -24342,7 +24342,7 @@
         <v>-2.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>27.30000000000001</v>
+        <v>2.8000000000001</v>
       </c>
       <c r="AG44" t="n">
         <v>383.2</v>
@@ -24351,7 +24351,7 @@
         <v>10.9</v>
       </c>
       <c r="AI44" t="n">
-        <v>7043.599999999999</v>
+        <v>5645.899999999981</v>
       </c>
       <c r="AJ44" t="n">
         <v>79750.10000000001</v>
@@ -24360,7 +24360,7 @@
         <v>38</v>
       </c>
       <c r="AL44" t="n">
-        <v>11.29999999999998</v>
+        <v>7.899999999999938</v>
       </c>
       <c r="AM44" t="n">
         <v>274.3</v>
@@ -24369,14 +24369,14 @@
         <v>39</v>
       </c>
       <c r="AO44" t="n">
-        <v>44.1</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="AP44" t="n">
         <v>-6.1</v>
       </c>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="n">
-        <v>31.89999999999989</v>
+        <v>12.59999999999988</v>
       </c>
       <c r="AS44" t="n">
         <v>628.6</v>
@@ -24385,7 +24385,7 @@
         <v>17.3</v>
       </c>
       <c r="AU44" t="n">
-        <v>118.4</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AV44" t="n">
         <v>2924.3</v>
@@ -24394,7 +24394,7 @@
         <v>149.9</v>
       </c>
       <c r="AX44" t="n">
-        <v>21.59999999999997</v>
+        <v>0.7999999999999101</v>
       </c>
       <c r="AY44" t="n">
         <v>485.8</v>
@@ -24403,7 +24403,7 @@
         <v>45.5</v>
       </c>
       <c r="BA44" t="n">
-        <v>18.89999999999996</v>
+        <v>13.89999999999996</v>
       </c>
       <c r="BB44" t="n">
         <v>322.6</v>
@@ -24412,7 +24412,7 @@
         <v>10.8</v>
       </c>
       <c r="BD44" t="n">
-        <v>198.5</v>
+        <v>173.0999999999998</v>
       </c>
       <c r="BE44" t="n">
         <v>1493.2</v>
@@ -24439,7 +24439,7 @@
         <v>-3.4</v>
       </c>
       <c r="BM44" t="n">
-        <v>1082.8</v>
+        <v>959.4</v>
       </c>
       <c r="BN44" t="n">
         <v>1453</v>
@@ -24448,7 +24448,7 @@
         <v>4</v>
       </c>
       <c r="BP44" t="n">
-        <v>239.0999999999999</v>
+        <v>227.2999999999997</v>
       </c>
       <c r="BQ44" t="n">
         <v>6473.6</v>
@@ -24457,7 +24457,7 @@
         <v>222.6</v>
       </c>
       <c r="BS44" t="n">
-        <v>36.50000000000014</v>
+        <v>9.800000000000214</v>
       </c>
       <c r="BT44" t="n">
         <v>744.9</v>
@@ -24484,7 +24484,7 @@
         <v>-38.6</v>
       </c>
       <c r="CB44" t="n">
-        <v>472</v>
+        <v>205.3999999999996</v>
       </c>
       <c r="CC44" t="n">
         <v>4065.7</v>
@@ -24493,7 +24493,7 @@
         <v>13.3</v>
       </c>
       <c r="CE44" t="n">
-        <v>19.59999999999997</v>
+        <v>10.30000000000001</v>
       </c>
       <c r="CF44" t="n">
         <v>498.3</v>
@@ -24502,7 +24502,7 @@
         <v>0.9</v>
       </c>
       <c r="CH44" t="n">
-        <v>45.09999999999999</v>
+        <v>14.99999999999996</v>
       </c>
       <c r="CI44" t="n">
         <v>2891.7</v>
@@ -24511,7 +24511,7 @@
         <v>387.1</v>
       </c>
       <c r="CK44" t="n">
-        <v>239.9</v>
+        <v>226.7</v>
       </c>
       <c r="CL44" t="n">
         <v>1824.1</v>
@@ -24520,7 +24520,7 @@
         <v>284.3</v>
       </c>
       <c r="CN44" t="n">
-        <v>65.6999999999999</v>
+        <v>43.3000000000001</v>
       </c>
       <c r="CO44" t="n">
         <v>1008</v>
@@ -24529,7 +24529,7 @@
         <v>4.6</v>
       </c>
       <c r="CQ44" t="n">
-        <v>79</v>
+        <v>75.60000000000002</v>
       </c>
       <c r="CR44" t="n">
         <v>666.9</v>
@@ -24538,7 +24538,7 @@
         <v>12.6</v>
       </c>
       <c r="CT44" t="n">
-        <v>725.1999999999998</v>
+        <v>399.8999999999984</v>
       </c>
       <c r="CU44" t="n">
         <v>6796.8</v>
@@ -24556,7 +24556,7 @@
         <v>11.1</v>
       </c>
       <c r="CZ44" t="n">
-        <v>37.5</v>
+        <v>25.49999999999978</v>
       </c>
       <c r="DA44" t="n">
         <v>778.8</v>
@@ -24565,7 +24565,7 @@
         <v>13.9</v>
       </c>
       <c r="DC44" t="n">
-        <v>99.10000000000011</v>
+        <v>87.50000000000011</v>
       </c>
       <c r="DD44" t="n">
         <v>2304.4</v>
@@ -24583,7 +24583,7 @@
         <v>185.7</v>
       </c>
       <c r="DI44" t="n">
-        <v>2.599999999999994</v>
+        <v>0.7999999999999918</v>
       </c>
       <c r="DJ44" t="n">
         <v>69</v>
@@ -24592,7 +24592,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="DL44" t="n">
-        <v>43.09999999999971</v>
+        <v>8.699999999999619</v>
       </c>
       <c r="DM44" t="n">
         <v>1949.5</v>
@@ -24601,7 +24601,7 @@
         <v>31.6</v>
       </c>
       <c r="DO44" t="n">
-        <v>45.80000000000004</v>
+        <v>21.40000000000018</v>
       </c>
       <c r="DP44" t="n">
         <v>587.7</v>
@@ -24610,7 +24610,7 @@
         <v>11.2</v>
       </c>
       <c r="DR44" t="n">
-        <v>557</v>
+        <v>482</v>
       </c>
       <c r="DS44" t="n">
         <v>4996.8</v>
@@ -24619,7 +24619,7 @@
         <v>15.4</v>
       </c>
       <c r="DU44" t="n">
-        <v>36.89999999999998</v>
+        <v>33.10000000000002</v>
       </c>
       <c r="DV44" t="n">
         <v>374.2</v>
@@ -24637,7 +24637,7 @@
         <v>-1.7</v>
       </c>
       <c r="EA44" t="n">
-        <v>104.3000000000002</v>
+        <v>58.50000000000024</v>
       </c>
       <c r="EB44" t="n">
         <v>4152.9</v>
